--- a/update_db/old-items.xlsx
+++ b/update_db/old-items.xlsx
@@ -13721,9 +13721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T567" sqref="T567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13738,6 +13738,7 @@
     <col min="13" max="13" width="33.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="9"/>
+    <col min="26" max="26" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -13844,10 +13845,10 @@
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>3266</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>3856</v>
       </c>
     </row>
@@ -13902,10 +13903,10 @@
       <c r="W3">
         <v>2</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>3267</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="9" t="s">
         <v>3857</v>
       </c>
     </row>
@@ -13960,10 +13961,10 @@
       <c r="W4">
         <v>3</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>3268</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="9" t="s">
         <v>3858</v>
       </c>
     </row>
@@ -14023,10 +14024,10 @@
       <c r="W5">
         <v>4</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>3269</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="9" t="s">
         <v>3859</v>
       </c>
     </row>
@@ -14079,10 +14080,10 @@
       <c r="W6">
         <v>5</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>3270</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="9" t="s">
         <v>3860</v>
       </c>
     </row>
@@ -14140,10 +14141,10 @@
       <c r="W7">
         <v>6</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="8" t="s">
         <v>3271</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="9" t="s">
         <v>3861</v>
       </c>
     </row>
@@ -14201,10 +14202,10 @@
       <c r="W8">
         <v>7</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="8" t="s">
         <v>3272</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Z8" s="9" t="s">
         <v>3862</v>
       </c>
     </row>
@@ -14262,10 +14263,10 @@
       <c r="W9">
         <v>8</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="8" t="s">
         <v>3273</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="9" t="s">
         <v>3863</v>
       </c>
     </row>
@@ -14323,10 +14324,10 @@
       <c r="W10">
         <v>9</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="8" t="s">
         <v>3274</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="9" t="s">
         <v>3864</v>
       </c>
     </row>
@@ -14386,10 +14387,10 @@
       <c r="W11">
         <v>10</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="8" t="s">
         <v>3275</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="9" t="s">
         <v>3865</v>
       </c>
     </row>
@@ -14447,10 +14448,10 @@
       <c r="W12">
         <v>11</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="X12" s="8" t="s">
         <v>3276</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="9" t="s">
         <v>3866</v>
       </c>
     </row>
@@ -14510,10 +14511,10 @@
       <c r="W13">
         <v>12</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="8" t="s">
         <v>3277</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="9" t="s">
         <v>3867</v>
       </c>
     </row>
@@ -14571,10 +14572,10 @@
       <c r="W14">
         <v>13</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="8" t="s">
         <v>3278</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="9" t="s">
         <v>3868</v>
       </c>
     </row>
@@ -14632,10 +14633,10 @@
       <c r="W15">
         <v>14</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="8" t="s">
         <v>3279</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="9" t="s">
         <v>3869</v>
       </c>
     </row>
@@ -14693,10 +14694,10 @@
       <c r="W16">
         <v>15</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="8" t="s">
         <v>3280</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z16" s="9" t="s">
         <v>3870</v>
       </c>
     </row>
@@ -14756,10 +14757,10 @@
       <c r="W17">
         <v>16</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="8" t="s">
         <v>3281</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="Z17" s="9" t="s">
         <v>3871</v>
       </c>
     </row>
@@ -14817,10 +14818,10 @@
       <c r="W18">
         <v>17</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="X18" s="8" t="s">
         <v>3282</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="9" t="s">
         <v>3872</v>
       </c>
     </row>
@@ -14880,10 +14881,10 @@
       <c r="W19">
         <v>18</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="8" t="s">
         <v>3283</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="9" t="s">
         <v>3873</v>
       </c>
     </row>
@@ -14943,10 +14944,10 @@
       <c r="W20">
         <v>19</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="8" t="s">
         <v>3284</v>
       </c>
-      <c r="Z20" s="8" t="s">
+      <c r="Z20" s="9" t="s">
         <v>3874</v>
       </c>
     </row>
@@ -15006,10 +15007,10 @@
       <c r="W21">
         <v>20</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="X21" s="8" t="s">
         <v>3285</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="9" t="s">
         <v>3875</v>
       </c>
     </row>
@@ -15067,10 +15068,10 @@
       <c r="W22">
         <v>21</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="X22" s="8" t="s">
         <v>3286</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="9" t="s">
         <v>3876</v>
       </c>
     </row>
@@ -15130,10 +15131,10 @@
       <c r="W23">
         <v>22</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="X23" s="8" t="s">
         <v>3287</v>
       </c>
-      <c r="Z23" s="8" t="s">
+      <c r="Z23" s="9" t="s">
         <v>3877</v>
       </c>
     </row>
@@ -15193,10 +15194,10 @@
       <c r="W24">
         <v>23</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="8" t="s">
         <v>3288</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="Z24" s="9" t="s">
         <v>3878</v>
       </c>
     </row>
@@ -15254,10 +15255,10 @@
       <c r="W25">
         <v>24</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="8" t="s">
         <v>3289</v>
       </c>
-      <c r="Z25" s="8" t="s">
+      <c r="Z25" s="9" t="s">
         <v>3879</v>
       </c>
     </row>
@@ -15315,10 +15316,10 @@
       <c r="W26">
         <v>25</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="X26" s="8" t="s">
         <v>3290</v>
       </c>
-      <c r="Z26" s="8" t="s">
+      <c r="Z26" s="9" t="s">
         <v>3880</v>
       </c>
     </row>
@@ -15378,10 +15379,10 @@
       <c r="W27">
         <v>26</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="X27" s="8" t="s">
         <v>3291</v>
       </c>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="9" t="s">
         <v>3881</v>
       </c>
     </row>
@@ -15441,10 +15442,10 @@
       <c r="W28">
         <v>27</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="X28" s="8" t="s">
         <v>3292</v>
       </c>
-      <c r="Z28" s="8" t="s">
+      <c r="Z28" s="9" t="s">
         <v>3882</v>
       </c>
     </row>
@@ -15504,10 +15505,10 @@
       <c r="W29">
         <v>28</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="X29" s="8" t="s">
         <v>3293</v>
       </c>
-      <c r="Z29" s="8" t="s">
+      <c r="Z29" s="9" t="s">
         <v>3883</v>
       </c>
     </row>
@@ -15565,10 +15566,10 @@
       <c r="W30">
         <v>29</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="X30" s="8" t="s">
         <v>3294</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="Z30" s="9" t="s">
         <v>3884</v>
       </c>
     </row>
@@ -15626,10 +15627,10 @@
       <c r="W31">
         <v>30</v>
       </c>
-      <c r="X31" s="9" t="s">
+      <c r="X31" s="8" t="s">
         <v>3295</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="Z31" s="9" t="s">
         <v>3885</v>
       </c>
     </row>
@@ -15687,10 +15688,10 @@
       <c r="W32">
         <v>31</v>
       </c>
-      <c r="X32" s="9" t="s">
+      <c r="X32" s="8" t="s">
         <v>3296</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="Z32" s="9" t="s">
         <v>3886</v>
       </c>
     </row>
@@ -15746,10 +15747,10 @@
       <c r="W33">
         <v>32</v>
       </c>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="8" t="s">
         <v>3297</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="Z33" s="9" t="s">
         <v>3887</v>
       </c>
     </row>
@@ -15807,10 +15808,10 @@
       <c r="W34">
         <v>33</v>
       </c>
-      <c r="X34" s="9" t="s">
+      <c r="X34" s="8" t="s">
         <v>3298</v>
       </c>
-      <c r="Z34" s="8" t="s">
+      <c r="Z34" s="9" t="s">
         <v>3888</v>
       </c>
     </row>
@@ -15868,10 +15869,10 @@
       <c r="W35">
         <v>34</v>
       </c>
-      <c r="X35" s="9" t="s">
+      <c r="X35" s="8" t="s">
         <v>3299</v>
       </c>
-      <c r="Z35" s="8" t="s">
+      <c r="Z35" s="9" t="s">
         <v>3889</v>
       </c>
     </row>
@@ -15931,10 +15932,10 @@
       <c r="W36">
         <v>35</v>
       </c>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="8" t="s">
         <v>3300</v>
       </c>
-      <c r="Z36" s="8" t="s">
+      <c r="Z36" s="9" t="s">
         <v>3890</v>
       </c>
     </row>
@@ -15994,10 +15995,10 @@
       <c r="W37">
         <v>36</v>
       </c>
-      <c r="X37" s="9" t="s">
+      <c r="X37" s="8" t="s">
         <v>3301</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="Z37" s="9" t="s">
         <v>3891</v>
       </c>
     </row>
@@ -16053,10 +16054,10 @@
       <c r="W38">
         <v>37</v>
       </c>
-      <c r="X38" s="9" t="s">
+      <c r="X38" s="8" t="s">
         <v>3302</v>
       </c>
-      <c r="Z38" s="8" t="s">
+      <c r="Z38" s="9" t="s">
         <v>3892</v>
       </c>
     </row>
@@ -16116,10 +16117,10 @@
       <c r="W39">
         <v>38</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="8" t="s">
         <v>3303</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="Z39" s="9" t="s">
         <v>3893</v>
       </c>
     </row>
@@ -16177,10 +16178,10 @@
       <c r="W40">
         <v>39</v>
       </c>
-      <c r="X40" s="9" t="s">
+      <c r="X40" s="8" t="s">
         <v>3304</v>
       </c>
-      <c r="Z40" s="8" t="s">
+      <c r="Z40" s="9" t="s">
         <v>3894</v>
       </c>
     </row>
@@ -16240,10 +16241,10 @@
       <c r="W41">
         <v>40</v>
       </c>
-      <c r="X41" s="9" t="s">
+      <c r="X41" s="8" t="s">
         <v>3305</v>
       </c>
-      <c r="Z41" s="8" t="s">
+      <c r="Z41" s="9" t="s">
         <v>3895</v>
       </c>
     </row>
@@ -16303,10 +16304,10 @@
       <c r="W42">
         <v>41</v>
       </c>
-      <c r="X42" s="9" t="s">
+      <c r="X42" s="8" t="s">
         <v>3306</v>
       </c>
-      <c r="Z42" s="8" t="s">
+      <c r="Z42" s="9" t="s">
         <v>3896</v>
       </c>
     </row>
@@ -16366,10 +16367,10 @@
       <c r="W43">
         <v>42</v>
       </c>
-      <c r="X43" s="9" t="s">
+      <c r="X43" s="8" t="s">
         <v>3307</v>
       </c>
-      <c r="Z43" s="8" t="s">
+      <c r="Z43" s="9" t="s">
         <v>3897</v>
       </c>
     </row>
@@ -16427,10 +16428,10 @@
       <c r="W44">
         <v>43</v>
       </c>
-      <c r="X44" s="9" t="s">
+      <c r="X44" s="8" t="s">
         <v>3308</v>
       </c>
-      <c r="Z44" s="8" t="s">
+      <c r="Z44" s="9" t="s">
         <v>3898</v>
       </c>
     </row>
@@ -16488,10 +16489,10 @@
       <c r="W45">
         <v>44</v>
       </c>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="8" t="s">
         <v>3309</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="Z45" s="9" t="s">
         <v>3899</v>
       </c>
     </row>
@@ -16549,10 +16550,10 @@
       <c r="W46">
         <v>45</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="8" t="s">
         <v>3310</v>
       </c>
-      <c r="Z46" s="8" t="s">
+      <c r="Z46" s="9" t="s">
         <v>3900</v>
       </c>
     </row>
@@ -16612,10 +16613,10 @@
       <c r="W47">
         <v>46</v>
       </c>
-      <c r="X47" s="9" t="s">
+      <c r="X47" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="Z47" s="8" t="s">
+      <c r="Z47" s="9" t="s">
         <v>3901</v>
       </c>
     </row>
@@ -16675,10 +16676,10 @@
       <c r="W48">
         <v>47</v>
       </c>
-      <c r="X48" s="9" t="s">
+      <c r="X48" s="8" t="s">
         <v>3312</v>
       </c>
-      <c r="Z48" s="8" t="s">
+      <c r="Z48" s="9" t="s">
         <v>3902</v>
       </c>
     </row>
@@ -16738,10 +16739,10 @@
       <c r="W49">
         <v>48</v>
       </c>
-      <c r="X49" s="9" t="s">
+      <c r="X49" s="8" t="s">
         <v>3313</v>
       </c>
-      <c r="Z49" s="8" t="s">
+      <c r="Z49" s="9" t="s">
         <v>3903</v>
       </c>
     </row>
@@ -16801,10 +16802,10 @@
       <c r="W50">
         <v>49</v>
       </c>
-      <c r="X50" s="9" t="s">
+      <c r="X50" s="8" t="s">
         <v>3314</v>
       </c>
-      <c r="Z50" s="8" t="s">
+      <c r="Z50" s="9" t="s">
         <v>3904</v>
       </c>
     </row>
@@ -16864,10 +16865,10 @@
       <c r="W51">
         <v>50</v>
       </c>
-      <c r="X51" s="9" t="s">
+      <c r="X51" s="8" t="s">
         <v>3315</v>
       </c>
-      <c r="Z51" s="8" t="s">
+      <c r="Z51" s="9" t="s">
         <v>3905</v>
       </c>
     </row>
@@ -16927,10 +16928,10 @@
       <c r="W52">
         <v>51</v>
       </c>
-      <c r="X52" s="9" t="s">
+      <c r="X52" s="8" t="s">
         <v>3316</v>
       </c>
-      <c r="Z52" s="8" t="s">
+      <c r="Z52" s="9" t="s">
         <v>3906</v>
       </c>
     </row>
@@ -16988,10 +16989,10 @@
       <c r="W53">
         <v>52</v>
       </c>
-      <c r="X53" s="9" t="s">
+      <c r="X53" s="8" t="s">
         <v>3317</v>
       </c>
-      <c r="Z53" s="8" t="s">
+      <c r="Z53" s="9" t="s">
         <v>3907</v>
       </c>
     </row>
@@ -17049,10 +17050,10 @@
       <c r="W54">
         <v>53</v>
       </c>
-      <c r="X54" s="9" t="s">
+      <c r="X54" s="8" t="s">
         <v>3318</v>
       </c>
-      <c r="Z54" s="8" t="s">
+      <c r="Z54" s="9" t="s">
         <v>3908</v>
       </c>
     </row>
@@ -17110,10 +17111,10 @@
       <c r="W55">
         <v>54</v>
       </c>
-      <c r="X55" s="9" t="s">
+      <c r="X55" s="8" t="s">
         <v>3319</v>
       </c>
-      <c r="Z55" s="8" t="s">
+      <c r="Z55" s="9" t="s">
         <v>3909</v>
       </c>
     </row>
@@ -17173,10 +17174,10 @@
       <c r="W56">
         <v>55</v>
       </c>
-      <c r="X56" s="9" t="s">
+      <c r="X56" s="8" t="s">
         <v>3320</v>
       </c>
-      <c r="Z56" s="8" t="s">
+      <c r="Z56" s="9" t="s">
         <v>3910</v>
       </c>
     </row>
@@ -17234,10 +17235,10 @@
       <c r="W57">
         <v>56</v>
       </c>
-      <c r="X57" s="9" t="s">
+      <c r="X57" s="8" t="s">
         <v>3321</v>
       </c>
-      <c r="Z57" s="8" t="s">
+      <c r="Z57" s="9" t="s">
         <v>3911</v>
       </c>
     </row>
@@ -17295,10 +17296,10 @@
       <c r="W58">
         <v>57</v>
       </c>
-      <c r="X58" s="9" t="s">
+      <c r="X58" s="8" t="s">
         <v>3322</v>
       </c>
-      <c r="Z58" s="8" t="s">
+      <c r="Z58" s="9" t="s">
         <v>3912</v>
       </c>
     </row>
@@ -17356,10 +17357,10 @@
       <c r="W59">
         <v>58</v>
       </c>
-      <c r="X59" s="9" t="s">
+      <c r="X59" s="8" t="s">
         <v>3323</v>
       </c>
-      <c r="Z59" s="8" t="s">
+      <c r="Z59" s="9" t="s">
         <v>3913</v>
       </c>
     </row>
@@ -17415,10 +17416,10 @@
       <c r="W60">
         <v>59</v>
       </c>
-      <c r="X60" s="9" t="s">
+      <c r="X60" s="8" t="s">
         <v>3324</v>
       </c>
-      <c r="Z60" s="8" t="s">
+      <c r="Z60" s="9" t="s">
         <v>3914</v>
       </c>
     </row>
@@ -17476,10 +17477,10 @@
       <c r="W61">
         <v>60</v>
       </c>
-      <c r="X61" s="9" t="s">
+      <c r="X61" s="8" t="s">
         <v>3325</v>
       </c>
-      <c r="Z61" s="8" t="s">
+      <c r="Z61" s="9" t="s">
         <v>3915</v>
       </c>
     </row>
@@ -17539,10 +17540,10 @@
       <c r="W62">
         <v>61</v>
       </c>
-      <c r="X62" s="9" t="s">
+      <c r="X62" s="8" t="s">
         <v>3326</v>
       </c>
-      <c r="Z62" s="8" t="s">
+      <c r="Z62" s="9" t="s">
         <v>3916</v>
       </c>
     </row>
@@ -17602,10 +17603,10 @@
       <c r="W63">
         <v>62</v>
       </c>
-      <c r="X63" s="9" t="s">
+      <c r="X63" s="8" t="s">
         <v>3327</v>
       </c>
-      <c r="Z63" s="8" t="s">
+      <c r="Z63" s="9" t="s">
         <v>3917</v>
       </c>
     </row>
@@ -17665,10 +17666,10 @@
       <c r="W64">
         <v>63</v>
       </c>
-      <c r="X64" s="9" t="s">
+      <c r="X64" s="8" t="s">
         <v>3328</v>
       </c>
-      <c r="Z64" s="8" t="s">
+      <c r="Z64" s="9" t="s">
         <v>3918</v>
       </c>
     </row>
@@ -17728,10 +17729,10 @@
       <c r="W65">
         <v>64</v>
       </c>
-      <c r="X65" s="9" t="s">
+      <c r="X65" s="8" t="s">
         <v>3329</v>
       </c>
-      <c r="Z65" s="8" t="s">
+      <c r="Z65" s="9" t="s">
         <v>3919</v>
       </c>
     </row>
@@ -17791,10 +17792,10 @@
       <c r="W66">
         <v>65</v>
       </c>
-      <c r="X66" s="9" t="s">
+      <c r="X66" s="8" t="s">
         <v>3330</v>
       </c>
-      <c r="Z66" s="8" t="s">
+      <c r="Z66" s="9" t="s">
         <v>3920</v>
       </c>
     </row>
@@ -17852,10 +17853,10 @@
       <c r="W67">
         <v>66</v>
       </c>
-      <c r="X67" s="9" t="s">
+      <c r="X67" s="8" t="s">
         <v>3331</v>
       </c>
-      <c r="Z67" s="8" t="s">
+      <c r="Z67" s="9" t="s">
         <v>3921</v>
       </c>
     </row>
@@ -17913,10 +17914,10 @@
       <c r="W68">
         <v>67</v>
       </c>
-      <c r="X68" s="9" t="s">
+      <c r="X68" s="8" t="s">
         <v>3332</v>
       </c>
-      <c r="Z68" s="8" t="s">
+      <c r="Z68" s="9" t="s">
         <v>3922</v>
       </c>
     </row>
@@ -17976,10 +17977,10 @@
       <c r="W69">
         <v>68</v>
       </c>
-      <c r="X69" s="9" t="s">
+      <c r="X69" s="8" t="s">
         <v>3333</v>
       </c>
-      <c r="Z69" s="8" t="s">
+      <c r="Z69" s="9" t="s">
         <v>3923</v>
       </c>
     </row>
@@ -18037,10 +18038,10 @@
       <c r="W70">
         <v>69</v>
       </c>
-      <c r="X70" s="9" t="s">
+      <c r="X70" s="8" t="s">
         <v>3334</v>
       </c>
-      <c r="Z70" s="8" t="s">
+      <c r="Z70" s="9" t="s">
         <v>3924</v>
       </c>
     </row>
@@ -18100,10 +18101,10 @@
       <c r="W71">
         <v>70</v>
       </c>
-      <c r="X71" s="9" t="s">
+      <c r="X71" s="8" t="s">
         <v>3335</v>
       </c>
-      <c r="Z71" s="8" t="s">
+      <c r="Z71" s="9" t="s">
         <v>3925</v>
       </c>
     </row>
@@ -18161,10 +18162,10 @@
       <c r="W72">
         <v>71</v>
       </c>
-      <c r="X72" s="9" t="s">
+      <c r="X72" s="8" t="s">
         <v>3336</v>
       </c>
-      <c r="Z72" s="8" t="s">
+      <c r="Z72" s="9" t="s">
         <v>3926</v>
       </c>
     </row>
@@ -18222,10 +18223,10 @@
       <c r="W73">
         <v>72</v>
       </c>
-      <c r="X73" s="9" t="s">
+      <c r="X73" s="8" t="s">
         <v>3337</v>
       </c>
-      <c r="Z73" s="8" t="s">
+      <c r="Z73" s="9" t="s">
         <v>3927</v>
       </c>
     </row>
@@ -18287,10 +18288,10 @@
       <c r="W74">
         <v>73</v>
       </c>
-      <c r="X74" s="9" t="s">
+      <c r="X74" s="8" t="s">
         <v>3338</v>
       </c>
-      <c r="Z74" s="8" t="s">
+      <c r="Z74" s="9" t="s">
         <v>3928</v>
       </c>
     </row>
@@ -18352,10 +18353,10 @@
       <c r="W75">
         <v>74</v>
       </c>
-      <c r="X75" s="9" t="s">
+      <c r="X75" s="8" t="s">
         <v>3339</v>
       </c>
-      <c r="Z75" s="8" t="s">
+      <c r="Z75" s="9" t="s">
         <v>3929</v>
       </c>
     </row>
@@ -18413,10 +18414,10 @@
       <c r="W76">
         <v>75</v>
       </c>
-      <c r="X76" s="9" t="s">
+      <c r="X76" s="8" t="s">
         <v>3340</v>
       </c>
-      <c r="Z76" s="8" t="s">
+      <c r="Z76" s="9" t="s">
         <v>3930</v>
       </c>
     </row>
@@ -18478,10 +18479,10 @@
       <c r="W77">
         <v>76</v>
       </c>
-      <c r="X77" s="9" t="s">
+      <c r="X77" s="8" t="s">
         <v>3341</v>
       </c>
-      <c r="Z77" s="8" t="s">
+      <c r="Z77" s="9" t="s">
         <v>3931</v>
       </c>
     </row>
@@ -18539,10 +18540,10 @@
       <c r="W78">
         <v>77</v>
       </c>
-      <c r="X78" s="9" t="s">
+      <c r="X78" s="8" t="s">
         <v>3342</v>
       </c>
-      <c r="Z78" s="8" t="s">
+      <c r="Z78" s="9" t="s">
         <v>3932</v>
       </c>
     </row>
@@ -18600,10 +18601,10 @@
       <c r="W79">
         <v>78</v>
       </c>
-      <c r="X79" s="9" t="s">
+      <c r="X79" s="8" t="s">
         <v>3343</v>
       </c>
-      <c r="Z79" s="8" t="s">
+      <c r="Z79" s="9" t="s">
         <v>3933</v>
       </c>
     </row>
@@ -18661,10 +18662,10 @@
       <c r="W80">
         <v>79</v>
       </c>
-      <c r="X80" s="9" t="s">
+      <c r="X80" s="8" t="s">
         <v>3344</v>
       </c>
-      <c r="Z80" s="8" t="s">
+      <c r="Z80" s="9" t="s">
         <v>3934</v>
       </c>
     </row>
@@ -18724,10 +18725,10 @@
       <c r="W81">
         <v>80</v>
       </c>
-      <c r="X81" s="9" t="s">
+      <c r="X81" s="8" t="s">
         <v>3345</v>
       </c>
-      <c r="Z81" s="8" t="s">
+      <c r="Z81" s="9" t="s">
         <v>3935</v>
       </c>
     </row>
@@ -18787,10 +18788,10 @@
       <c r="W82">
         <v>81</v>
       </c>
-      <c r="X82" s="9" t="s">
+      <c r="X82" s="8" t="s">
         <v>3346</v>
       </c>
-      <c r="Z82" s="8" t="s">
+      <c r="Z82" s="9" t="s">
         <v>3936</v>
       </c>
     </row>
@@ -18848,10 +18849,10 @@
       <c r="W83">
         <v>82</v>
       </c>
-      <c r="X83" s="9" t="s">
+      <c r="X83" s="8" t="s">
         <v>3347</v>
       </c>
-      <c r="Z83" s="8" t="s">
+      <c r="Z83" s="9" t="s">
         <v>3937</v>
       </c>
     </row>
@@ -18909,10 +18910,10 @@
       <c r="W84">
         <v>83</v>
       </c>
-      <c r="X84" s="9" t="s">
+      <c r="X84" s="8" t="s">
         <v>3348</v>
       </c>
-      <c r="Z84" s="8" t="s">
+      <c r="Z84" s="9" t="s">
         <v>3938</v>
       </c>
     </row>
@@ -18970,10 +18971,10 @@
       <c r="W85">
         <v>84</v>
       </c>
-      <c r="X85" s="9" t="s">
+      <c r="X85" s="8" t="s">
         <v>3349</v>
       </c>
-      <c r="Z85" s="8" t="s">
+      <c r="Z85" s="9" t="s">
         <v>3939</v>
       </c>
     </row>
@@ -19031,10 +19032,10 @@
       <c r="W86">
         <v>85</v>
       </c>
-      <c r="X86" s="9" t="s">
+      <c r="X86" s="8" t="s">
         <v>3350</v>
       </c>
-      <c r="Z86" s="8" t="s">
+      <c r="Z86" s="9" t="s">
         <v>3940</v>
       </c>
     </row>
@@ -19092,10 +19093,10 @@
       <c r="W87">
         <v>86</v>
       </c>
-      <c r="X87" s="9" t="s">
+      <c r="X87" s="8" t="s">
         <v>3351</v>
       </c>
-      <c r="Z87" s="8" t="s">
+      <c r="Z87" s="9" t="s">
         <v>3941</v>
       </c>
     </row>
@@ -19155,10 +19156,10 @@
       <c r="W88">
         <v>87</v>
       </c>
-      <c r="X88" s="9" t="s">
+      <c r="X88" s="8" t="s">
         <v>3352</v>
       </c>
-      <c r="Z88" s="8" t="s">
+      <c r="Z88" s="9" t="s">
         <v>3942</v>
       </c>
     </row>
@@ -19218,10 +19219,10 @@
       <c r="W89">
         <v>88</v>
       </c>
-      <c r="X89" s="9" t="s">
+      <c r="X89" s="8" t="s">
         <v>3353</v>
       </c>
-      <c r="Z89" s="8" t="s">
+      <c r="Z89" s="9" t="s">
         <v>3943</v>
       </c>
     </row>
@@ -19279,10 +19280,10 @@
       <c r="W90">
         <v>89</v>
       </c>
-      <c r="X90" s="9" t="s">
+      <c r="X90" s="8" t="s">
         <v>3354</v>
       </c>
-      <c r="Z90" s="8" t="s">
+      <c r="Z90" s="9" t="s">
         <v>3944</v>
       </c>
     </row>
@@ -19340,10 +19341,10 @@
       <c r="W91">
         <v>90</v>
       </c>
-      <c r="X91" s="9" t="s">
+      <c r="X91" s="8" t="s">
         <v>3355</v>
       </c>
-      <c r="Z91" s="8" t="s">
+      <c r="Z91" s="9" t="s">
         <v>3945</v>
       </c>
     </row>
@@ -19401,10 +19402,10 @@
       <c r="W92">
         <v>91</v>
       </c>
-      <c r="X92" s="9" t="s">
+      <c r="X92" s="8" t="s">
         <v>3356</v>
       </c>
-      <c r="Z92" s="8" t="s">
+      <c r="Z92" s="9" t="s">
         <v>3946</v>
       </c>
     </row>
@@ -19462,10 +19463,10 @@
       <c r="W93">
         <v>92</v>
       </c>
-      <c r="X93" s="9" t="s">
+      <c r="X93" s="8" t="s">
         <v>3357</v>
       </c>
-      <c r="Z93" s="8" t="s">
+      <c r="Z93" s="9" t="s">
         <v>3947</v>
       </c>
     </row>
@@ -19521,10 +19522,10 @@
       <c r="W94">
         <v>93</v>
       </c>
-      <c r="X94" s="9" t="s">
+      <c r="X94" s="8" t="s">
         <v>3358</v>
       </c>
-      <c r="Z94" s="8" t="s">
+      <c r="Z94" s="9" t="s">
         <v>3948</v>
       </c>
     </row>
@@ -19584,10 +19585,10 @@
       <c r="W95">
         <v>94</v>
       </c>
-      <c r="X95" s="9" t="s">
+      <c r="X95" s="8" t="s">
         <v>3359</v>
       </c>
-      <c r="Z95" s="8" t="s">
+      <c r="Z95" s="9" t="s">
         <v>3949</v>
       </c>
     </row>
@@ -19647,10 +19648,10 @@
       <c r="W96">
         <v>95</v>
       </c>
-      <c r="X96" s="9" t="s">
+      <c r="X96" s="8" t="s">
         <v>3360</v>
       </c>
-      <c r="Z96" s="8" t="s">
+      <c r="Z96" s="9" t="s">
         <v>3950</v>
       </c>
     </row>
@@ -19710,10 +19711,10 @@
       <c r="W97">
         <v>96</v>
       </c>
-      <c r="X97" s="9" t="s">
+      <c r="X97" s="8" t="s">
         <v>3361</v>
       </c>
-      <c r="Z97" s="8" t="s">
+      <c r="Z97" s="9" t="s">
         <v>3951</v>
       </c>
     </row>
@@ -19773,10 +19774,10 @@
       <c r="W98">
         <v>97</v>
       </c>
-      <c r="X98" s="9" t="s">
+      <c r="X98" s="8" t="s">
         <v>3362</v>
       </c>
-      <c r="Z98" s="8" t="s">
+      <c r="Z98" s="9" t="s">
         <v>3952</v>
       </c>
     </row>
@@ -19836,10 +19837,10 @@
       <c r="W99">
         <v>98</v>
       </c>
-      <c r="X99" s="9" t="s">
+      <c r="X99" s="8" t="s">
         <v>3363</v>
       </c>
-      <c r="Z99" s="8" t="s">
+      <c r="Z99" s="9" t="s">
         <v>3953</v>
       </c>
     </row>
@@ -19899,10 +19900,10 @@
       <c r="W100">
         <v>99</v>
       </c>
-      <c r="X100" s="9" t="s">
+      <c r="X100" s="8" t="s">
         <v>3364</v>
       </c>
-      <c r="Z100" s="8" t="s">
+      <c r="Z100" s="9" t="s">
         <v>3954</v>
       </c>
     </row>
@@ -19962,10 +19963,10 @@
       <c r="W101">
         <v>100</v>
       </c>
-      <c r="X101" s="9" t="s">
+      <c r="X101" s="8" t="s">
         <v>3365</v>
       </c>
-      <c r="Z101" s="8" t="s">
+      <c r="Z101" s="9" t="s">
         <v>3955</v>
       </c>
     </row>
@@ -20025,10 +20026,10 @@
       <c r="W102">
         <v>101</v>
       </c>
-      <c r="X102" s="9" t="s">
+      <c r="X102" s="8" t="s">
         <v>3366</v>
       </c>
-      <c r="Z102" s="8" t="s">
+      <c r="Z102" s="9" t="s">
         <v>3956</v>
       </c>
     </row>
@@ -20088,10 +20089,10 @@
       <c r="W103">
         <v>102</v>
       </c>
-      <c r="X103" s="9" t="s">
+      <c r="X103" s="8" t="s">
         <v>3367</v>
       </c>
-      <c r="Z103" s="8" t="s">
+      <c r="Z103" s="9" t="s">
         <v>3957</v>
       </c>
     </row>
@@ -20153,10 +20154,10 @@
       <c r="W104">
         <v>103</v>
       </c>
-      <c r="X104" s="9" t="s">
+      <c r="X104" s="8" t="s">
         <v>3368</v>
       </c>
-      <c r="Z104" s="8" t="s">
+      <c r="Z104" s="9" t="s">
         <v>3958</v>
       </c>
     </row>
@@ -20218,10 +20219,10 @@
       <c r="W105">
         <v>104</v>
       </c>
-      <c r="X105" s="9" t="s">
+      <c r="X105" s="8" t="s">
         <v>3369</v>
       </c>
-      <c r="Z105" s="8" t="s">
+      <c r="Z105" s="9" t="s">
         <v>3959</v>
       </c>
     </row>
@@ -20281,10 +20282,10 @@
       <c r="W106">
         <v>105</v>
       </c>
-      <c r="X106" s="9" t="s">
+      <c r="X106" s="8" t="s">
         <v>3370</v>
       </c>
-      <c r="Z106" s="8" t="s">
+      <c r="Z106" s="9" t="s">
         <v>3960</v>
       </c>
     </row>
@@ -20344,10 +20345,10 @@
       <c r="W107">
         <v>106</v>
       </c>
-      <c r="X107" s="9" t="s">
+      <c r="X107" s="8" t="s">
         <v>3371</v>
       </c>
-      <c r="Z107" s="8" t="s">
+      <c r="Z107" s="9" t="s">
         <v>3961</v>
       </c>
     </row>
@@ -20405,10 +20406,10 @@
       <c r="W108">
         <v>107</v>
       </c>
-      <c r="X108" s="9" t="s">
+      <c r="X108" s="8" t="s">
         <v>3372</v>
       </c>
-      <c r="Z108" s="8" t="s">
+      <c r="Z108" s="9" t="s">
         <v>3962</v>
       </c>
     </row>
@@ -20463,10 +20464,10 @@
       <c r="W109">
         <v>108</v>
       </c>
-      <c r="X109" s="9" t="s">
+      <c r="X109" s="8" t="s">
         <v>3373</v>
       </c>
-      <c r="Z109" s="8" t="s">
+      <c r="Z109" s="9" t="s">
         <v>3963</v>
       </c>
     </row>
@@ -20524,10 +20525,10 @@
       <c r="W110">
         <v>109</v>
       </c>
-      <c r="X110" s="9" t="s">
+      <c r="X110" s="8" t="s">
         <v>3374</v>
       </c>
-      <c r="Z110" s="8" t="s">
+      <c r="Z110" s="9" t="s">
         <v>3964</v>
       </c>
     </row>
@@ -20587,10 +20588,10 @@
       <c r="W111">
         <v>110</v>
       </c>
-      <c r="X111" s="9" t="s">
+      <c r="X111" s="8" t="s">
         <v>3375</v>
       </c>
-      <c r="Z111" s="8" t="s">
+      <c r="Z111" s="9" t="s">
         <v>3965</v>
       </c>
     </row>
@@ -20648,10 +20649,10 @@
       <c r="W112">
         <v>111</v>
       </c>
-      <c r="X112" s="9" t="s">
+      <c r="X112" s="8" t="s">
         <v>3376</v>
       </c>
-      <c r="Z112" s="8" t="s">
+      <c r="Z112" s="9" t="s">
         <v>3966</v>
       </c>
     </row>
@@ -20709,10 +20710,10 @@
       <c r="W113">
         <v>112</v>
       </c>
-      <c r="X113" s="9" t="s">
+      <c r="X113" s="8" t="s">
         <v>3377</v>
       </c>
-      <c r="Z113" s="8" t="s">
+      <c r="Z113" s="9" t="s">
         <v>3967</v>
       </c>
     </row>
@@ -20772,10 +20773,10 @@
       <c r="W114">
         <v>113</v>
       </c>
-      <c r="X114" s="9" t="s">
+      <c r="X114" s="8" t="s">
         <v>3378</v>
       </c>
-      <c r="Z114" s="8" t="s">
+      <c r="Z114" s="9" t="s">
         <v>3968</v>
       </c>
     </row>
@@ -20835,10 +20836,10 @@
       <c r="W115">
         <v>114</v>
       </c>
-      <c r="X115" s="9" t="s">
+      <c r="X115" s="8" t="s">
         <v>3379</v>
       </c>
-      <c r="Z115" s="8" t="s">
+      <c r="Z115" s="9" t="s">
         <v>3969</v>
       </c>
     </row>
@@ -20896,10 +20897,10 @@
       <c r="W116">
         <v>115</v>
       </c>
-      <c r="X116" s="9" t="s">
+      <c r="X116" s="8" t="s">
         <v>3380</v>
       </c>
-      <c r="Z116" s="8" t="s">
+      <c r="Z116" s="9" t="s">
         <v>3970</v>
       </c>
     </row>
@@ -20957,10 +20958,10 @@
       <c r="W117">
         <v>116</v>
       </c>
-      <c r="X117" s="9" t="s">
+      <c r="X117" s="8" t="s">
         <v>3381</v>
       </c>
-      <c r="Z117" s="8" t="s">
+      <c r="Z117" s="9" t="s">
         <v>3971</v>
       </c>
     </row>
@@ -21018,10 +21019,10 @@
       <c r="W118">
         <v>117</v>
       </c>
-      <c r="X118" s="9" t="s">
+      <c r="X118" s="8" t="s">
         <v>3382</v>
       </c>
-      <c r="Z118" s="8" t="s">
+      <c r="Z118" s="9" t="s">
         <v>3972</v>
       </c>
     </row>
@@ -21079,10 +21080,10 @@
       <c r="W119">
         <v>118</v>
       </c>
-      <c r="X119" s="9" t="s">
+      <c r="X119" s="8" t="s">
         <v>3383</v>
       </c>
-      <c r="Z119" s="8" t="s">
+      <c r="Z119" s="9" t="s">
         <v>3973</v>
       </c>
     </row>
@@ -21140,10 +21141,10 @@
       <c r="W120">
         <v>119</v>
       </c>
-      <c r="X120" s="9" t="s">
+      <c r="X120" s="8" t="s">
         <v>3384</v>
       </c>
-      <c r="Z120" s="8" t="s">
+      <c r="Z120" s="9" t="s">
         <v>3974</v>
       </c>
     </row>
@@ -21201,10 +21202,10 @@
       <c r="W121">
         <v>120</v>
       </c>
-      <c r="X121" s="9" t="s">
+      <c r="X121" s="8" t="s">
         <v>3385</v>
       </c>
-      <c r="Z121" s="8" t="s">
+      <c r="Z121" s="9" t="s">
         <v>3975</v>
       </c>
     </row>
@@ -21262,10 +21263,10 @@
       <c r="W122">
         <v>121</v>
       </c>
-      <c r="X122" s="9" t="s">
+      <c r="X122" s="8" t="s">
         <v>3386</v>
       </c>
-      <c r="Z122" s="8" t="s">
+      <c r="Z122" s="9" t="s">
         <v>3976</v>
       </c>
     </row>
@@ -21325,10 +21326,10 @@
       <c r="W123">
         <v>122</v>
       </c>
-      <c r="X123" s="9" t="s">
+      <c r="X123" s="8" t="s">
         <v>3387</v>
       </c>
-      <c r="Z123" s="8" t="s">
+      <c r="Z123" s="9" t="s">
         <v>3977</v>
       </c>
     </row>
@@ -21388,10 +21389,10 @@
       <c r="W124">
         <v>123</v>
       </c>
-      <c r="X124" s="9" t="s">
+      <c r="X124" s="8" t="s">
         <v>3388</v>
       </c>
-      <c r="Z124" s="8" t="s">
+      <c r="Z124" s="9" t="s">
         <v>3978</v>
       </c>
     </row>
@@ -21449,10 +21450,10 @@
       <c r="W125">
         <v>124</v>
       </c>
-      <c r="X125" s="9" t="s">
+      <c r="X125" s="8" t="s">
         <v>3389</v>
       </c>
-      <c r="Z125" s="8" t="s">
+      <c r="Z125" s="9" t="s">
         <v>3979</v>
       </c>
     </row>
@@ -21512,10 +21513,10 @@
       <c r="W126">
         <v>125</v>
       </c>
-      <c r="X126" s="9" t="s">
+      <c r="X126" s="8" t="s">
         <v>3390</v>
       </c>
-      <c r="Z126" s="8" t="s">
+      <c r="Z126" s="9" t="s">
         <v>3980</v>
       </c>
     </row>
@@ -21575,10 +21576,10 @@
       <c r="W127">
         <v>126</v>
       </c>
-      <c r="X127" s="9" t="s">
+      <c r="X127" s="8" t="s">
         <v>3391</v>
       </c>
-      <c r="Z127" s="8" t="s">
+      <c r="Z127" s="9" t="s">
         <v>3981</v>
       </c>
     </row>
@@ -21638,10 +21639,10 @@
       <c r="W128">
         <v>127</v>
       </c>
-      <c r="X128" s="9" t="s">
+      <c r="X128" s="8" t="s">
         <v>3392</v>
       </c>
-      <c r="Z128" s="8" t="s">
+      <c r="Z128" s="9" t="s">
         <v>3982</v>
       </c>
     </row>
@@ -21701,10 +21702,10 @@
       <c r="W129">
         <v>128</v>
       </c>
-      <c r="X129" s="9" t="s">
+      <c r="X129" s="8" t="s">
         <v>3393</v>
       </c>
-      <c r="Z129" s="8" t="s">
+      <c r="Z129" s="9" t="s">
         <v>3983</v>
       </c>
     </row>
@@ -21764,10 +21765,10 @@
       <c r="W130">
         <v>129</v>
       </c>
-      <c r="X130" s="9" t="s">
+      <c r="X130" s="8" t="s">
         <v>3394</v>
       </c>
-      <c r="Z130" s="8" t="s">
+      <c r="Z130" s="9" t="s">
         <v>3984</v>
       </c>
     </row>
@@ -21825,10 +21826,10 @@
       <c r="W131">
         <v>130</v>
       </c>
-      <c r="X131" s="9" t="s">
+      <c r="X131" s="8" t="s">
         <v>3395</v>
       </c>
-      <c r="Z131" s="8" t="s">
+      <c r="Z131" s="9" t="s">
         <v>3985</v>
       </c>
     </row>
@@ -21886,10 +21887,10 @@
       <c r="W132">
         <v>131</v>
       </c>
-      <c r="X132" s="9" t="s">
+      <c r="X132" s="8" t="s">
         <v>3396</v>
       </c>
-      <c r="Z132" s="8" t="s">
+      <c r="Z132" s="9" t="s">
         <v>3986</v>
       </c>
     </row>
@@ -21947,10 +21948,10 @@
       <c r="W133">
         <v>132</v>
       </c>
-      <c r="X133" s="9" t="s">
+      <c r="X133" s="8" t="s">
         <v>3397</v>
       </c>
-      <c r="Z133" s="8" t="s">
+      <c r="Z133" s="9" t="s">
         <v>3987</v>
       </c>
     </row>
@@ -22010,10 +22011,10 @@
       <c r="W134">
         <v>133</v>
       </c>
-      <c r="X134" s="9" t="s">
+      <c r="X134" s="8" t="s">
         <v>3398</v>
       </c>
-      <c r="Z134" s="8" t="s">
+      <c r="Z134" s="9" t="s">
         <v>3988</v>
       </c>
     </row>
@@ -22068,10 +22069,10 @@
       <c r="W135">
         <v>134</v>
       </c>
-      <c r="X135" s="9" t="s">
+      <c r="X135" s="8" t="s">
         <v>3399</v>
       </c>
-      <c r="Z135" s="8" t="s">
+      <c r="Z135" s="9" t="s">
         <v>3989</v>
       </c>
     </row>
@@ -22129,10 +22130,10 @@
       <c r="W136">
         <v>135</v>
       </c>
-      <c r="X136" s="9" t="s">
+      <c r="X136" s="8" t="s">
         <v>3400</v>
       </c>
-      <c r="Z136" s="8" t="s">
+      <c r="Z136" s="9" t="s">
         <v>3990</v>
       </c>
     </row>
@@ -22192,10 +22193,10 @@
       <c r="W137">
         <v>136</v>
       </c>
-      <c r="X137" s="9" t="s">
+      <c r="X137" s="8" t="s">
         <v>3401</v>
       </c>
-      <c r="Z137" s="8" t="s">
+      <c r="Z137" s="9" t="s">
         <v>3991</v>
       </c>
     </row>
@@ -22255,10 +22256,10 @@
       <c r="W138">
         <v>137</v>
       </c>
-      <c r="X138" s="9" t="s">
+      <c r="X138" s="8" t="s">
         <v>3402</v>
       </c>
-      <c r="Z138" s="8" t="s">
+      <c r="Z138" s="9" t="s">
         <v>3992</v>
       </c>
     </row>
@@ -22318,10 +22319,10 @@
       <c r="W139">
         <v>138</v>
       </c>
-      <c r="X139" s="9" t="s">
+      <c r="X139" s="8" t="s">
         <v>3403</v>
       </c>
-      <c r="Z139" s="8" t="s">
+      <c r="Z139" s="9" t="s">
         <v>3993</v>
       </c>
     </row>
@@ -22381,10 +22382,10 @@
       <c r="W140">
         <v>139</v>
       </c>
-      <c r="X140" s="9" t="s">
+      <c r="X140" s="8" t="s">
         <v>3404</v>
       </c>
-      <c r="Z140" s="8" t="s">
+      <c r="Z140" s="9" t="s">
         <v>3994</v>
       </c>
     </row>
@@ -22442,10 +22443,10 @@
       <c r="W141">
         <v>140</v>
       </c>
-      <c r="X141" s="9" t="s">
+      <c r="X141" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="Z141" s="8" t="s">
+      <c r="Z141" s="9" t="s">
         <v>3995</v>
       </c>
     </row>
@@ -22505,10 +22506,10 @@
       <c r="W142">
         <v>141</v>
       </c>
-      <c r="X142" s="9" t="s">
+      <c r="X142" s="8" t="s">
         <v>3406</v>
       </c>
-      <c r="Z142" s="8" t="s">
+      <c r="Z142" s="9" t="s">
         <v>3996</v>
       </c>
     </row>
@@ -22568,10 +22569,10 @@
       <c r="W143">
         <v>142</v>
       </c>
-      <c r="X143" s="9" t="s">
+      <c r="X143" s="8" t="s">
         <v>3407</v>
       </c>
-      <c r="Z143" s="8" t="s">
+      <c r="Z143" s="9" t="s">
         <v>3997</v>
       </c>
     </row>
@@ -22629,10 +22630,10 @@
       <c r="W144">
         <v>143</v>
       </c>
-      <c r="X144" s="9" t="s">
+      <c r="X144" s="8" t="s">
         <v>3408</v>
       </c>
-      <c r="Z144" s="8" t="s">
+      <c r="Z144" s="9" t="s">
         <v>3998</v>
       </c>
     </row>
@@ -22690,10 +22691,10 @@
       <c r="W145">
         <v>144</v>
       </c>
-      <c r="X145" s="9" t="s">
+      <c r="X145" s="8" t="s">
         <v>3409</v>
       </c>
-      <c r="Z145" s="8" t="s">
+      <c r="Z145" s="9" t="s">
         <v>3999</v>
       </c>
     </row>
@@ -22751,10 +22752,10 @@
       <c r="W146">
         <v>145</v>
       </c>
-      <c r="X146" s="9" t="s">
+      <c r="X146" s="8" t="s">
         <v>3410</v>
       </c>
-      <c r="Z146" s="8" t="s">
+      <c r="Z146" s="9" t="s">
         <v>4000</v>
       </c>
     </row>
@@ -22814,10 +22815,10 @@
       <c r="W147">
         <v>146</v>
       </c>
-      <c r="X147" s="9" t="s">
+      <c r="X147" s="8" t="s">
         <v>3411</v>
       </c>
-      <c r="Z147" s="8" t="s">
+      <c r="Z147" s="9" t="s">
         <v>4001</v>
       </c>
     </row>
@@ -22872,10 +22873,10 @@
       <c r="W148">
         <v>147</v>
       </c>
-      <c r="X148" s="9" t="s">
+      <c r="X148" s="8" t="s">
         <v>3412</v>
       </c>
-      <c r="Z148" s="8" t="s">
+      <c r="Z148" s="9" t="s">
         <v>4002</v>
       </c>
     </row>
@@ -22933,10 +22934,10 @@
       <c r="W149">
         <v>148</v>
       </c>
-      <c r="X149" s="9" t="s">
+      <c r="X149" s="8" t="s">
         <v>3413</v>
       </c>
-      <c r="Z149" s="8" t="s">
+      <c r="Z149" s="9" t="s">
         <v>4003</v>
       </c>
     </row>
@@ -22994,10 +22995,10 @@
       <c r="W150">
         <v>149</v>
       </c>
-      <c r="X150" s="9" t="s">
+      <c r="X150" s="8" t="s">
         <v>3414</v>
       </c>
-      <c r="Z150" s="8" t="s">
+      <c r="Z150" s="9" t="s">
         <v>4004</v>
       </c>
     </row>
@@ -23055,10 +23056,10 @@
       <c r="W151">
         <v>150</v>
       </c>
-      <c r="X151" s="9" t="s">
+      <c r="X151" s="8" t="s">
         <v>3415</v>
       </c>
-      <c r="Z151" s="8" t="s">
+      <c r="Z151" s="9" t="s">
         <v>4005</v>
       </c>
     </row>
@@ -23118,10 +23119,10 @@
       <c r="W152">
         <v>151</v>
       </c>
-      <c r="X152" s="9" t="s">
+      <c r="X152" s="8" t="s">
         <v>3416</v>
       </c>
-      <c r="Z152" s="8" t="s">
+      <c r="Z152" s="9" t="s">
         <v>4006</v>
       </c>
     </row>
@@ -23181,10 +23182,10 @@
       <c r="W153">
         <v>152</v>
       </c>
-      <c r="X153" s="9" t="s">
+      <c r="X153" s="8" t="s">
         <v>3417</v>
       </c>
-      <c r="Z153" s="8" t="s">
+      <c r="Z153" s="9" t="s">
         <v>4007</v>
       </c>
     </row>
@@ -23244,10 +23245,10 @@
       <c r="W154">
         <v>153</v>
       </c>
-      <c r="X154" s="9" t="s">
+      <c r="X154" s="8" t="s">
         <v>3418</v>
       </c>
-      <c r="Z154" s="8" t="s">
+      <c r="Z154" s="9" t="s">
         <v>4008</v>
       </c>
     </row>
@@ -23300,10 +23301,10 @@
       <c r="W155">
         <v>154</v>
       </c>
-      <c r="X155" s="9" t="s">
+      <c r="X155" s="8" t="s">
         <v>3419</v>
       </c>
-      <c r="Z155" s="8" t="s">
+      <c r="Z155" s="9" t="s">
         <v>4009</v>
       </c>
     </row>
@@ -23363,10 +23364,10 @@
       <c r="W156">
         <v>155</v>
       </c>
-      <c r="X156" s="9" t="s">
+      <c r="X156" s="8" t="s">
         <v>3420</v>
       </c>
-      <c r="Z156" s="8" t="s">
+      <c r="Z156" s="9" t="s">
         <v>4010</v>
       </c>
     </row>
@@ -23426,10 +23427,10 @@
       <c r="W157">
         <v>156</v>
       </c>
-      <c r="X157" s="9" t="s">
+      <c r="X157" s="8" t="s">
         <v>3421</v>
       </c>
-      <c r="Z157" s="8" t="s">
+      <c r="Z157" s="9" t="s">
         <v>4011</v>
       </c>
     </row>
@@ -23489,10 +23490,10 @@
       <c r="W158">
         <v>157</v>
       </c>
-      <c r="X158" s="9" t="s">
+      <c r="X158" s="8" t="s">
         <v>3422</v>
       </c>
-      <c r="Z158" s="8" t="s">
+      <c r="Z158" s="9" t="s">
         <v>4012</v>
       </c>
     </row>
@@ -23550,10 +23551,10 @@
       <c r="W159">
         <v>158</v>
       </c>
-      <c r="X159" s="9" t="s">
+      <c r="X159" s="8" t="s">
         <v>3423</v>
       </c>
-      <c r="Z159" s="8" t="s">
+      <c r="Z159" s="9" t="s">
         <v>4013</v>
       </c>
     </row>
@@ -23613,10 +23614,10 @@
       <c r="W160">
         <v>159</v>
       </c>
-      <c r="X160" s="9" t="s">
+      <c r="X160" s="8" t="s">
         <v>3424</v>
       </c>
-      <c r="Z160" s="8" t="s">
+      <c r="Z160" s="9" t="s">
         <v>4014</v>
       </c>
     </row>
@@ -23674,10 +23675,10 @@
       <c r="W161">
         <v>160</v>
       </c>
-      <c r="X161" s="9" t="s">
+      <c r="X161" s="8" t="s">
         <v>3425</v>
       </c>
-      <c r="Z161" s="8" t="s">
+      <c r="Z161" s="9" t="s">
         <v>4015</v>
       </c>
     </row>
@@ -23737,10 +23738,10 @@
       <c r="W162">
         <v>161</v>
       </c>
-      <c r="X162" s="9" t="s">
+      <c r="X162" s="8" t="s">
         <v>3426</v>
       </c>
-      <c r="Z162" s="8" t="s">
+      <c r="Z162" s="9" t="s">
         <v>4016</v>
       </c>
     </row>
@@ -23798,10 +23799,10 @@
       <c r="W163">
         <v>162</v>
       </c>
-      <c r="X163" s="9" t="s">
+      <c r="X163" s="8" t="s">
         <v>3427</v>
       </c>
-      <c r="Z163" s="8" t="s">
+      <c r="Z163" s="9" t="s">
         <v>4017</v>
       </c>
     </row>
@@ -23859,10 +23860,10 @@
       <c r="W164">
         <v>163</v>
       </c>
-      <c r="X164" s="9" t="s">
+      <c r="X164" s="8" t="s">
         <v>3428</v>
       </c>
-      <c r="Z164" s="8" t="s">
+      <c r="Z164" s="9" t="s">
         <v>4018</v>
       </c>
     </row>
@@ -23918,10 +23919,10 @@
       <c r="W165">
         <v>164</v>
       </c>
-      <c r="X165" s="9" t="s">
+      <c r="X165" s="8" t="s">
         <v>3429</v>
       </c>
-      <c r="Z165" s="8" t="s">
+      <c r="Z165" s="9" t="s">
         <v>4019</v>
       </c>
     </row>
@@ -23979,10 +23980,10 @@
       <c r="W166">
         <v>165</v>
       </c>
-      <c r="X166" s="9" t="s">
+      <c r="X166" s="8" t="s">
         <v>3430</v>
       </c>
-      <c r="Z166" s="8" t="s">
+      <c r="Z166" s="9" t="s">
         <v>4020</v>
       </c>
     </row>
@@ -24040,10 +24041,10 @@
       <c r="W167">
         <v>166</v>
       </c>
-      <c r="X167" s="9" t="s">
+      <c r="X167" s="8" t="s">
         <v>3431</v>
       </c>
-      <c r="Z167" s="8" t="s">
+      <c r="Z167" s="9" t="s">
         <v>4021</v>
       </c>
     </row>
@@ -24103,10 +24104,10 @@
       <c r="W168">
         <v>167</v>
       </c>
-      <c r="X168" s="9" t="s">
+      <c r="X168" s="8" t="s">
         <v>3432</v>
       </c>
-      <c r="Z168" s="8" t="s">
+      <c r="Z168" s="9" t="s">
         <v>4022</v>
       </c>
     </row>
@@ -24164,10 +24165,10 @@
       <c r="W169">
         <v>168</v>
       </c>
-      <c r="X169" s="9" t="s">
+      <c r="X169" s="8" t="s">
         <v>3433</v>
       </c>
-      <c r="Z169" s="8" t="s">
+      <c r="Z169" s="9" t="s">
         <v>4023</v>
       </c>
     </row>
@@ -24227,10 +24228,10 @@
       <c r="W170">
         <v>169</v>
       </c>
-      <c r="X170" s="9" t="s">
+      <c r="X170" s="8" t="s">
         <v>3434</v>
       </c>
-      <c r="Z170" s="8" t="s">
+      <c r="Z170" s="9" t="s">
         <v>4024</v>
       </c>
     </row>
@@ -24288,10 +24289,10 @@
       <c r="W171">
         <v>170</v>
       </c>
-      <c r="X171" s="9" t="s">
+      <c r="X171" s="8" t="s">
         <v>3435</v>
       </c>
-      <c r="Z171" s="8" t="s">
+      <c r="Z171" s="9" t="s">
         <v>4025</v>
       </c>
     </row>
@@ -24349,10 +24350,10 @@
       <c r="W172">
         <v>171</v>
       </c>
-      <c r="X172" s="9" t="s">
+      <c r="X172" s="8" t="s">
         <v>3436</v>
       </c>
-      <c r="Z172" s="8" t="s">
+      <c r="Z172" s="9" t="s">
         <v>4026</v>
       </c>
     </row>
@@ -24410,10 +24411,10 @@
       <c r="W173">
         <v>172</v>
       </c>
-      <c r="X173" s="9" t="s">
+      <c r="X173" s="8" t="s">
         <v>3437</v>
       </c>
-      <c r="Z173" s="8" t="s">
+      <c r="Z173" s="9" t="s">
         <v>4027</v>
       </c>
     </row>
@@ -24471,10 +24472,10 @@
       <c r="W174">
         <v>173</v>
       </c>
-      <c r="X174" s="9" t="s">
+      <c r="X174" s="8" t="s">
         <v>3438</v>
       </c>
-      <c r="Z174" s="8" t="s">
+      <c r="Z174" s="9" t="s">
         <v>4028</v>
       </c>
     </row>
@@ -24532,10 +24533,10 @@
       <c r="W175">
         <v>174</v>
       </c>
-      <c r="X175" s="9" t="s">
+      <c r="X175" s="8" t="s">
         <v>3439</v>
       </c>
-      <c r="Z175" s="8" t="s">
+      <c r="Z175" s="9" t="s">
         <v>4029</v>
       </c>
     </row>
@@ -24593,10 +24594,10 @@
       <c r="W176">
         <v>175</v>
       </c>
-      <c r="X176" s="9" t="s">
+      <c r="X176" s="8" t="s">
         <v>3440</v>
       </c>
-      <c r="Z176" s="8" t="s">
+      <c r="Z176" s="9" t="s">
         <v>4030</v>
       </c>
     </row>
@@ -24656,10 +24657,10 @@
       <c r="W177">
         <v>176</v>
       </c>
-      <c r="X177" s="9" t="s">
+      <c r="X177" s="8" t="s">
         <v>3441</v>
       </c>
-      <c r="Z177" s="8" t="s">
+      <c r="Z177" s="9" t="s">
         <v>4031</v>
       </c>
     </row>
@@ -24717,10 +24718,10 @@
       <c r="W178">
         <v>177</v>
       </c>
-      <c r="X178" s="9" t="s">
+      <c r="X178" s="8" t="s">
         <v>3442</v>
       </c>
-      <c r="Z178" s="8" t="s">
+      <c r="Z178" s="9" t="s">
         <v>4032</v>
       </c>
     </row>
@@ -24778,10 +24779,10 @@
       <c r="W179">
         <v>178</v>
       </c>
-      <c r="X179" s="9" t="s">
+      <c r="X179" s="8" t="s">
         <v>3443</v>
       </c>
-      <c r="Z179" s="8" t="s">
+      <c r="Z179" s="9" t="s">
         <v>4033</v>
       </c>
     </row>
@@ -24839,10 +24840,10 @@
       <c r="W180">
         <v>179</v>
       </c>
-      <c r="X180" s="9" t="s">
+      <c r="X180" s="8" t="s">
         <v>3444</v>
       </c>
-      <c r="Z180" s="8" t="s">
+      <c r="Z180" s="9" t="s">
         <v>4034</v>
       </c>
     </row>
@@ -24900,10 +24901,10 @@
       <c r="W181">
         <v>180</v>
       </c>
-      <c r="X181" s="9" t="s">
+      <c r="X181" s="8" t="s">
         <v>3445</v>
       </c>
-      <c r="Z181" s="8" t="s">
+      <c r="Z181" s="9" t="s">
         <v>4035</v>
       </c>
     </row>
@@ -24963,10 +24964,10 @@
       <c r="W182">
         <v>181</v>
       </c>
-      <c r="X182" s="9" t="s">
+      <c r="X182" s="8" t="s">
         <v>3446</v>
       </c>
-      <c r="Z182" s="8" t="s">
+      <c r="Z182" s="9" t="s">
         <v>4036</v>
       </c>
     </row>
@@ -25024,10 +25025,10 @@
       <c r="W183">
         <v>182</v>
       </c>
-      <c r="X183" s="9" t="s">
+      <c r="X183" s="8" t="s">
         <v>3447</v>
       </c>
-      <c r="Z183" s="8" t="s">
+      <c r="Z183" s="9" t="s">
         <v>4037</v>
       </c>
     </row>
@@ -25085,10 +25086,10 @@
       <c r="W184">
         <v>183</v>
       </c>
-      <c r="X184" s="9" t="s">
+      <c r="X184" s="8" t="s">
         <v>3448</v>
       </c>
-      <c r="Z184" s="8" t="s">
+      <c r="Z184" s="9" t="s">
         <v>4038</v>
       </c>
     </row>
@@ -25146,10 +25147,10 @@
       <c r="W185">
         <v>184</v>
       </c>
-      <c r="X185" s="9" t="s">
+      <c r="X185" s="8" t="s">
         <v>3449</v>
       </c>
-      <c r="Z185" s="8" t="s">
+      <c r="Z185" s="9" t="s">
         <v>4039</v>
       </c>
     </row>
@@ -25207,10 +25208,10 @@
       <c r="W186">
         <v>185</v>
       </c>
-      <c r="X186" s="9" t="s">
+      <c r="X186" s="8" t="s">
         <v>3450</v>
       </c>
-      <c r="Z186" s="8" t="s">
+      <c r="Z186" s="9" t="s">
         <v>4040</v>
       </c>
     </row>
@@ -25270,10 +25271,10 @@
       <c r="W187">
         <v>186</v>
       </c>
-      <c r="X187" s="9" t="s">
+      <c r="X187" s="8" t="s">
         <v>3451</v>
       </c>
-      <c r="Z187" s="8" t="s">
+      <c r="Z187" s="9" t="s">
         <v>4041</v>
       </c>
     </row>
@@ -25333,10 +25334,10 @@
       <c r="W188">
         <v>187</v>
       </c>
-      <c r="X188" s="9" t="s">
+      <c r="X188" s="8" t="s">
         <v>3452</v>
       </c>
-      <c r="Z188" s="8" t="s">
+      <c r="Z188" s="9" t="s">
         <v>4042</v>
       </c>
     </row>
@@ -25394,10 +25395,10 @@
       <c r="W189">
         <v>188</v>
       </c>
-      <c r="X189" s="9" t="s">
+      <c r="X189" s="8" t="s">
         <v>3453</v>
       </c>
-      <c r="Z189" s="8" t="s">
+      <c r="Z189" s="9" t="s">
         <v>4043</v>
       </c>
     </row>
@@ -25459,10 +25460,10 @@
       <c r="W190">
         <v>189</v>
       </c>
-      <c r="X190" s="9" t="s">
+      <c r="X190" s="8" t="s">
         <v>3454</v>
       </c>
-      <c r="Z190" s="8" t="s">
+      <c r="Z190" s="9" t="s">
         <v>4044</v>
       </c>
     </row>
@@ -25515,10 +25516,10 @@
       <c r="W191">
         <v>190</v>
       </c>
-      <c r="X191" s="9" t="s">
+      <c r="X191" s="8" t="s">
         <v>3455</v>
       </c>
-      <c r="Z191" s="8" t="s">
+      <c r="Z191" s="9" t="s">
         <v>4045</v>
       </c>
     </row>
@@ -25578,10 +25579,10 @@
       <c r="W192">
         <v>191</v>
       </c>
-      <c r="X192" s="9" t="s">
+      <c r="X192" s="8" t="s">
         <v>3456</v>
       </c>
-      <c r="Z192" s="8" t="s">
+      <c r="Z192" s="9" t="s">
         <v>4046</v>
       </c>
     </row>
@@ -25641,10 +25642,10 @@
       <c r="W193">
         <v>192</v>
       </c>
-      <c r="X193" s="9" t="s">
+      <c r="X193" s="8" t="s">
         <v>3457</v>
       </c>
-      <c r="Z193" s="8" t="s">
+      <c r="Z193" s="9" t="s">
         <v>4047</v>
       </c>
     </row>
@@ -25704,10 +25705,10 @@
       <c r="W194">
         <v>193</v>
       </c>
-      <c r="X194" s="9" t="s">
+      <c r="X194" s="8" t="s">
         <v>3458</v>
       </c>
-      <c r="Z194" s="8" t="s">
+      <c r="Z194" s="9" t="s">
         <v>4048</v>
       </c>
     </row>
@@ -25767,10 +25768,10 @@
       <c r="W195">
         <v>194</v>
       </c>
-      <c r="X195" s="9" t="s">
+      <c r="X195" s="8" t="s">
         <v>3459</v>
       </c>
-      <c r="Z195" s="8" t="s">
+      <c r="Z195" s="9" t="s">
         <v>4049</v>
       </c>
     </row>
@@ -25830,10 +25831,10 @@
       <c r="W196">
         <v>195</v>
       </c>
-      <c r="X196" s="9" t="s">
+      <c r="X196" s="8" t="s">
         <v>3460</v>
       </c>
-      <c r="Z196" s="8" t="s">
+      <c r="Z196" s="9" t="s">
         <v>4050</v>
       </c>
     </row>
@@ -25895,10 +25896,10 @@
       <c r="W197">
         <v>196</v>
       </c>
-      <c r="X197" s="9" t="s">
+      <c r="X197" s="8" t="s">
         <v>3461</v>
       </c>
-      <c r="Z197" s="8" t="s">
+      <c r="Z197" s="9" t="s">
         <v>4051</v>
       </c>
     </row>
@@ -25956,10 +25957,10 @@
       <c r="W198">
         <v>197</v>
       </c>
-      <c r="X198" s="9" t="s">
+      <c r="X198" s="8" t="s">
         <v>3462</v>
       </c>
-      <c r="Z198" s="8" t="s">
+      <c r="Z198" s="9" t="s">
         <v>4052</v>
       </c>
     </row>
@@ -26019,10 +26020,10 @@
       <c r="W199">
         <v>198</v>
       </c>
-      <c r="X199" s="9" t="s">
+      <c r="X199" s="8" t="s">
         <v>3463</v>
       </c>
-      <c r="Z199" s="8" t="s">
+      <c r="Z199" s="9" t="s">
         <v>4053</v>
       </c>
     </row>
@@ -26082,10 +26083,10 @@
       <c r="W200">
         <v>199</v>
       </c>
-      <c r="X200" s="9" t="s">
+      <c r="X200" s="8" t="s">
         <v>3464</v>
       </c>
-      <c r="Z200" s="8" t="s">
+      <c r="Z200" s="9" t="s">
         <v>4054</v>
       </c>
     </row>
@@ -26141,10 +26142,10 @@
       <c r="W201">
         <v>200</v>
       </c>
-      <c r="X201" s="9" t="s">
+      <c r="X201" s="8" t="s">
         <v>3465</v>
       </c>
-      <c r="Z201" s="8" t="s">
+      <c r="Z201" s="9" t="s">
         <v>4055</v>
       </c>
     </row>
@@ -26200,10 +26201,10 @@
       <c r="W202">
         <v>201</v>
       </c>
-      <c r="X202" s="9" t="s">
+      <c r="X202" s="8" t="s">
         <v>3466</v>
       </c>
-      <c r="Z202" s="8" t="s">
+      <c r="Z202" s="9" t="s">
         <v>4056</v>
       </c>
     </row>
@@ -26261,10 +26262,10 @@
       <c r="W203">
         <v>202</v>
       </c>
-      <c r="X203" s="9" t="s">
+      <c r="X203" s="8" t="s">
         <v>3467</v>
       </c>
-      <c r="Z203" s="8" t="s">
+      <c r="Z203" s="9" t="s">
         <v>4057</v>
       </c>
     </row>
@@ -26324,10 +26325,10 @@
       <c r="W204">
         <v>203</v>
       </c>
-      <c r="X204" s="9" t="s">
+      <c r="X204" s="8" t="s">
         <v>3468</v>
       </c>
-      <c r="Z204" s="8" t="s">
+      <c r="Z204" s="9" t="s">
         <v>4058</v>
       </c>
     </row>
@@ -26387,10 +26388,10 @@
       <c r="W205">
         <v>204</v>
       </c>
-      <c r="X205" s="9" t="s">
+      <c r="X205" s="8" t="s">
         <v>3469</v>
       </c>
-      <c r="Z205" s="8" t="s">
+      <c r="Z205" s="9" t="s">
         <v>4059</v>
       </c>
     </row>
@@ -26452,10 +26453,10 @@
       <c r="W206">
         <v>205</v>
       </c>
-      <c r="X206" s="9" t="s">
+      <c r="X206" s="8" t="s">
         <v>3470</v>
       </c>
-      <c r="Z206" s="8" t="s">
+      <c r="Z206" s="9" t="s">
         <v>4060</v>
       </c>
     </row>
@@ -26513,10 +26514,10 @@
       <c r="W207">
         <v>206</v>
       </c>
-      <c r="X207" s="9" t="s">
+      <c r="X207" s="8" t="s">
         <v>3471</v>
       </c>
-      <c r="Z207" s="8" t="s">
+      <c r="Z207" s="9" t="s">
         <v>4061</v>
       </c>
     </row>
@@ -26574,10 +26575,10 @@
       <c r="W208">
         <v>207</v>
       </c>
-      <c r="X208" s="9" t="s">
+      <c r="X208" s="8" t="s">
         <v>3472</v>
       </c>
-      <c r="Z208" s="8" t="s">
+      <c r="Z208" s="9" t="s">
         <v>4062</v>
       </c>
     </row>
@@ -26635,10 +26636,10 @@
       <c r="W209">
         <v>208</v>
       </c>
-      <c r="X209" s="9" t="s">
+      <c r="X209" s="8" t="s">
         <v>3473</v>
       </c>
-      <c r="Z209" s="8" t="s">
+      <c r="Z209" s="9" t="s">
         <v>4063</v>
       </c>
     </row>
@@ -26696,10 +26697,10 @@
       <c r="W210">
         <v>209</v>
       </c>
-      <c r="X210" s="9" t="s">
+      <c r="X210" s="8" t="s">
         <v>3474</v>
       </c>
-      <c r="Z210" s="8" t="s">
+      <c r="Z210" s="9" t="s">
         <v>4064</v>
       </c>
     </row>
@@ -26759,10 +26760,10 @@
       <c r="W211">
         <v>210</v>
       </c>
-      <c r="X211" s="9" t="s">
+      <c r="X211" s="8" t="s">
         <v>3475</v>
       </c>
-      <c r="Z211" s="8" t="s">
+      <c r="Z211" s="9" t="s">
         <v>4065</v>
       </c>
     </row>
@@ -26820,10 +26821,10 @@
       <c r="W212">
         <v>211</v>
       </c>
-      <c r="X212" s="9" t="s">
+      <c r="X212" s="8" t="s">
         <v>3476</v>
       </c>
-      <c r="Z212" s="8" t="s">
+      <c r="Z212" s="9" t="s">
         <v>4066</v>
       </c>
     </row>
@@ -26883,10 +26884,10 @@
       <c r="W213">
         <v>212</v>
       </c>
-      <c r="X213" s="9" t="s">
+      <c r="X213" s="8" t="s">
         <v>3477</v>
       </c>
-      <c r="Z213" s="8" t="s">
+      <c r="Z213" s="9" t="s">
         <v>4067</v>
       </c>
     </row>
@@ -26942,10 +26943,10 @@
       <c r="W214">
         <v>213</v>
       </c>
-      <c r="X214" s="9" t="s">
+      <c r="X214" s="8" t="s">
         <v>3478</v>
       </c>
-      <c r="Z214" s="8" t="s">
+      <c r="Z214" s="9" t="s">
         <v>4068</v>
       </c>
     </row>
@@ -27001,10 +27002,10 @@
       <c r="W215">
         <v>214</v>
       </c>
-      <c r="X215" s="9" t="s">
+      <c r="X215" s="8" t="s">
         <v>3479</v>
       </c>
-      <c r="Z215" s="8" t="s">
+      <c r="Z215" s="9" t="s">
         <v>4069</v>
       </c>
     </row>
@@ -27064,10 +27065,10 @@
       <c r="W216">
         <v>215</v>
       </c>
-      <c r="X216" s="9" t="s">
+      <c r="X216" s="8" t="s">
         <v>3480</v>
       </c>
-      <c r="Z216" s="8" t="s">
+      <c r="Z216" s="9" t="s">
         <v>4070</v>
       </c>
     </row>
@@ -27123,10 +27124,10 @@
       <c r="W217">
         <v>216</v>
       </c>
-      <c r="X217" s="9" t="s">
+      <c r="X217" s="8" t="s">
         <v>3481</v>
       </c>
-      <c r="Z217" s="8" t="s">
+      <c r="Z217" s="9" t="s">
         <v>4071</v>
       </c>
     </row>
@@ -27184,10 +27185,10 @@
       <c r="W218">
         <v>217</v>
       </c>
-      <c r="X218" s="9" t="s">
+      <c r="X218" s="8" t="s">
         <v>3482</v>
       </c>
-      <c r="Z218" s="8" t="s">
+      <c r="Z218" s="9" t="s">
         <v>4072</v>
       </c>
     </row>
@@ -27245,10 +27246,10 @@
       <c r="W219">
         <v>218</v>
       </c>
-      <c r="X219" s="9" t="s">
+      <c r="X219" s="8" t="s">
         <v>3483</v>
       </c>
-      <c r="Z219" s="8" t="s">
+      <c r="Z219" s="9" t="s">
         <v>4073</v>
       </c>
     </row>
@@ -27306,10 +27307,10 @@
       <c r="W220">
         <v>219</v>
       </c>
-      <c r="X220" s="9" t="s">
+      <c r="X220" s="8" t="s">
         <v>3484</v>
       </c>
-      <c r="Z220" s="8" t="s">
+      <c r="Z220" s="9" t="s">
         <v>4074</v>
       </c>
     </row>
@@ -27369,10 +27370,10 @@
       <c r="W221">
         <v>220</v>
       </c>
-      <c r="X221" s="9" t="s">
+      <c r="X221" s="8" t="s">
         <v>3485</v>
       </c>
-      <c r="Z221" s="8" t="s">
+      <c r="Z221" s="9" t="s">
         <v>4075</v>
       </c>
     </row>
@@ -27432,10 +27433,10 @@
       <c r="W222">
         <v>221</v>
       </c>
-      <c r="X222" s="9" t="s">
+      <c r="X222" s="8" t="s">
         <v>3486</v>
       </c>
-      <c r="Z222" s="8" t="s">
+      <c r="Z222" s="9" t="s">
         <v>4076</v>
       </c>
     </row>
@@ -27491,10 +27492,10 @@
       <c r="W223">
         <v>222</v>
       </c>
-      <c r="X223" s="9" t="s">
+      <c r="X223" s="8" t="s">
         <v>3487</v>
       </c>
-      <c r="Z223" s="8" t="s">
+      <c r="Z223" s="9" t="s">
         <v>4077</v>
       </c>
     </row>
@@ -27552,10 +27553,10 @@
       <c r="W224">
         <v>223</v>
       </c>
-      <c r="X224" s="9" t="s">
+      <c r="X224" s="8" t="s">
         <v>3488</v>
       </c>
-      <c r="Z224" s="8" t="s">
+      <c r="Z224" s="9" t="s">
         <v>4078</v>
       </c>
     </row>
@@ -27613,10 +27614,10 @@
       <c r="W225">
         <v>224</v>
       </c>
-      <c r="X225" s="9" t="s">
+      <c r="X225" s="8" t="s">
         <v>3489</v>
       </c>
-      <c r="Z225" s="8" t="s">
+      <c r="Z225" s="9" t="s">
         <v>4079</v>
       </c>
     </row>
@@ -27674,10 +27675,10 @@
       <c r="W226">
         <v>225</v>
       </c>
-      <c r="X226" s="9" t="s">
+      <c r="X226" s="8" t="s">
         <v>3490</v>
       </c>
-      <c r="Z226" s="8" t="s">
+      <c r="Z226" s="9" t="s">
         <v>4080</v>
       </c>
     </row>
@@ -27735,10 +27736,10 @@
       <c r="W227">
         <v>226</v>
       </c>
-      <c r="X227" s="9" t="s">
+      <c r="X227" s="8" t="s">
         <v>3491</v>
       </c>
-      <c r="Z227" s="8" t="s">
+      <c r="Z227" s="9" t="s">
         <v>4081</v>
       </c>
     </row>
@@ -27794,10 +27795,10 @@
       <c r="W228">
         <v>227</v>
       </c>
-      <c r="X228" s="9" t="s">
+      <c r="X228" s="8" t="s">
         <v>3492</v>
       </c>
-      <c r="Z228" s="8" t="s">
+      <c r="Z228" s="9" t="s">
         <v>4082</v>
       </c>
     </row>
@@ -27855,10 +27856,10 @@
       <c r="W229">
         <v>228</v>
       </c>
-      <c r="X229" s="9" t="s">
+      <c r="X229" s="8" t="s">
         <v>3493</v>
       </c>
-      <c r="Z229" s="8" t="s">
+      <c r="Z229" s="9" t="s">
         <v>4083</v>
       </c>
     </row>
@@ -27918,10 +27919,10 @@
       <c r="W230">
         <v>229</v>
       </c>
-      <c r="X230" s="9" t="s">
+      <c r="X230" s="8" t="s">
         <v>3494</v>
       </c>
-      <c r="Z230" s="8" t="s">
+      <c r="Z230" s="9" t="s">
         <v>4084</v>
       </c>
     </row>
@@ -27979,10 +27980,10 @@
       <c r="W231">
         <v>230</v>
       </c>
-      <c r="X231" s="9" t="s">
+      <c r="X231" s="8" t="s">
         <v>3495</v>
       </c>
-      <c r="Z231" s="8" t="s">
+      <c r="Z231" s="9" t="s">
         <v>4085</v>
       </c>
     </row>
@@ -28040,10 +28041,10 @@
       <c r="W232">
         <v>231</v>
       </c>
-      <c r="X232" s="9" t="s">
+      <c r="X232" s="8" t="s">
         <v>3496</v>
       </c>
-      <c r="Z232" t="s">
+      <c r="Z232" s="9" t="s">
         <v>4086</v>
       </c>
     </row>
@@ -28101,10 +28102,10 @@
       <c r="W233">
         <v>232</v>
       </c>
-      <c r="X233" s="9" t="s">
+      <c r="X233" s="8" t="s">
         <v>3497</v>
       </c>
-      <c r="Z233" t="s">
+      <c r="Z233" s="9" t="s">
         <v>4087</v>
       </c>
     </row>
@@ -28162,10 +28163,10 @@
       <c r="W234">
         <v>233</v>
       </c>
-      <c r="X234" s="9" t="s">
+      <c r="X234" s="8" t="s">
         <v>3498</v>
       </c>
-      <c r="Z234" t="s">
+      <c r="Z234" s="9" t="s">
         <v>4088</v>
       </c>
     </row>
@@ -28225,10 +28226,10 @@
       <c r="W235">
         <v>234</v>
       </c>
-      <c r="X235" s="9" t="s">
+      <c r="X235" s="8" t="s">
         <v>3499</v>
       </c>
-      <c r="Z235" t="s">
+      <c r="Z235" s="9" t="s">
         <v>4089</v>
       </c>
     </row>
@@ -28288,10 +28289,10 @@
       <c r="W236">
         <v>235</v>
       </c>
-      <c r="X236" s="9" t="s">
+      <c r="X236" s="8" t="s">
         <v>3500</v>
       </c>
-      <c r="Z236" t="s">
+      <c r="Z236" s="9" t="s">
         <v>4090</v>
       </c>
     </row>
@@ -28349,10 +28350,10 @@
       <c r="W237">
         <v>236</v>
       </c>
-      <c r="X237" s="9" t="s">
+      <c r="X237" s="8" t="s">
         <v>3501</v>
       </c>
-      <c r="Z237" t="s">
+      <c r="Z237" s="9" t="s">
         <v>4091</v>
       </c>
     </row>
@@ -28412,10 +28413,10 @@
       <c r="W238">
         <v>237</v>
       </c>
-      <c r="X238" s="9" t="s">
+      <c r="X238" s="8" t="s">
         <v>3502</v>
       </c>
-      <c r="Z238" t="s">
+      <c r="Z238" s="9" t="s">
         <v>4092</v>
       </c>
     </row>
@@ -28473,10 +28474,10 @@
       <c r="W239">
         <v>238</v>
       </c>
-      <c r="X239" s="9" t="s">
+      <c r="X239" s="8" t="s">
         <v>3503</v>
       </c>
-      <c r="Z239" t="s">
+      <c r="Z239" s="9" t="s">
         <v>4093</v>
       </c>
     </row>
@@ -28536,10 +28537,10 @@
       <c r="W240">
         <v>239</v>
       </c>
-      <c r="X240" s="9" t="s">
+      <c r="X240" s="8" t="s">
         <v>3504</v>
       </c>
-      <c r="Z240" t="s">
+      <c r="Z240" s="9" t="s">
         <v>4094</v>
       </c>
     </row>
@@ -28597,10 +28598,10 @@
       <c r="W241">
         <v>240</v>
       </c>
-      <c r="X241" s="9" t="s">
+      <c r="X241" s="8" t="s">
         <v>3505</v>
       </c>
-      <c r="Z241" t="s">
+      <c r="Z241" s="9" t="s">
         <v>4095</v>
       </c>
     </row>
@@ -28660,10 +28661,10 @@
       <c r="W242">
         <v>241</v>
       </c>
-      <c r="X242" s="9" t="s">
+      <c r="X242" s="8" t="s">
         <v>3506</v>
       </c>
-      <c r="Z242" t="s">
+      <c r="Z242" s="9" t="s">
         <v>4096</v>
       </c>
     </row>
@@ -28721,10 +28722,10 @@
       <c r="W243">
         <v>242</v>
       </c>
-      <c r="X243" s="9" t="s">
+      <c r="X243" s="8" t="s">
         <v>3507</v>
       </c>
-      <c r="Z243" t="s">
+      <c r="Z243" s="9" t="s">
         <v>4097</v>
       </c>
     </row>
@@ -28782,10 +28783,10 @@
       <c r="W244">
         <v>243</v>
       </c>
-      <c r="X244" s="9" t="s">
+      <c r="X244" s="8" t="s">
         <v>3508</v>
       </c>
-      <c r="Z244" t="s">
+      <c r="Z244" s="9" t="s">
         <v>4098</v>
       </c>
     </row>
@@ -28843,10 +28844,10 @@
       <c r="W245">
         <v>244</v>
       </c>
-      <c r="X245" s="9" t="s">
+      <c r="X245" s="8" t="s">
         <v>3509</v>
       </c>
-      <c r="Z245" t="s">
+      <c r="Z245" s="9" t="s">
         <v>4099</v>
       </c>
     </row>
@@ -28904,10 +28905,10 @@
       <c r="W246">
         <v>245</v>
       </c>
-      <c r="X246" s="9" t="s">
+      <c r="X246" s="8" t="s">
         <v>3510</v>
       </c>
-      <c r="Z246" t="s">
+      <c r="Z246" s="9" t="s">
         <v>4100</v>
       </c>
     </row>
@@ -28967,10 +28968,10 @@
       <c r="W247">
         <v>246</v>
       </c>
-      <c r="X247" s="9" t="s">
+      <c r="X247" s="8" t="s">
         <v>3511</v>
       </c>
-      <c r="Z247" t="s">
+      <c r="Z247" s="9" t="s">
         <v>4101</v>
       </c>
     </row>
@@ -29028,10 +29029,10 @@
       <c r="W248">
         <v>247</v>
       </c>
-      <c r="X248" s="9" t="s">
+      <c r="X248" s="8" t="s">
         <v>3512</v>
       </c>
-      <c r="Z248" t="s">
+      <c r="Z248" s="9" t="s">
         <v>4102</v>
       </c>
     </row>
@@ -29089,10 +29090,10 @@
       <c r="W249">
         <v>248</v>
       </c>
-      <c r="X249" s="9" t="s">
+      <c r="X249" s="8" t="s">
         <v>3513</v>
       </c>
-      <c r="Z249" t="s">
+      <c r="Z249" s="9" t="s">
         <v>4103</v>
       </c>
     </row>
@@ -29150,10 +29151,10 @@
       <c r="W250">
         <v>249</v>
       </c>
-      <c r="X250" s="9" t="s">
+      <c r="X250" s="8" t="s">
         <v>3514</v>
       </c>
-      <c r="Z250" t="s">
+      <c r="Z250" s="9" t="s">
         <v>4104</v>
       </c>
     </row>
@@ -29209,10 +29210,10 @@
       <c r="W251">
         <v>250</v>
       </c>
-      <c r="X251" s="9" t="s">
+      <c r="X251" s="8" t="s">
         <v>3515</v>
       </c>
-      <c r="Z251" t="s">
+      <c r="Z251" s="9" t="s">
         <v>4105</v>
       </c>
     </row>
@@ -29268,10 +29269,10 @@
       <c r="W252">
         <v>251</v>
       </c>
-      <c r="X252" s="9" t="s">
+      <c r="X252" s="8" t="s">
         <v>3516</v>
       </c>
-      <c r="Z252" t="s">
+      <c r="Z252" s="9" t="s">
         <v>4106</v>
       </c>
     </row>
@@ -29329,10 +29330,10 @@
       <c r="W253">
         <v>252</v>
       </c>
-      <c r="X253" s="9" t="s">
+      <c r="X253" s="8" t="s">
         <v>3517</v>
       </c>
-      <c r="Z253" t="s">
+      <c r="Z253" s="9" t="s">
         <v>4107</v>
       </c>
     </row>
@@ -29390,10 +29391,10 @@
       <c r="W254">
         <v>253</v>
       </c>
-      <c r="X254" s="9" t="s">
+      <c r="X254" s="8" t="s">
         <v>3518</v>
       </c>
-      <c r="Z254" t="s">
+      <c r="Z254" s="9" t="s">
         <v>4108</v>
       </c>
     </row>
@@ -29453,10 +29454,10 @@
       <c r="W255">
         <v>254</v>
       </c>
-      <c r="X255" s="9" t="s">
+      <c r="X255" s="8" t="s">
         <v>3519</v>
       </c>
-      <c r="Z255" t="s">
+      <c r="Z255" s="9" t="s">
         <v>4109</v>
       </c>
     </row>
@@ -29514,10 +29515,10 @@
       <c r="W256">
         <v>255</v>
       </c>
-      <c r="X256" s="9" t="s">
+      <c r="X256" s="8" t="s">
         <v>3520</v>
       </c>
-      <c r="Z256" t="s">
+      <c r="Z256" s="9" t="s">
         <v>4110</v>
       </c>
     </row>
@@ -29573,10 +29574,10 @@
       <c r="W257">
         <v>256</v>
       </c>
-      <c r="X257" s="9" t="s">
+      <c r="X257" s="8" t="s">
         <v>3521</v>
       </c>
-      <c r="Z257" t="s">
+      <c r="Z257" s="9" t="s">
         <v>4111</v>
       </c>
     </row>
@@ -29632,10 +29633,10 @@
       <c r="W258">
         <v>257</v>
       </c>
-      <c r="X258" s="9" t="s">
+      <c r="X258" s="8" t="s">
         <v>3522</v>
       </c>
-      <c r="Z258" t="s">
+      <c r="Z258" s="9" t="s">
         <v>4112</v>
       </c>
     </row>
@@ -29695,10 +29696,10 @@
       <c r="W259">
         <v>258</v>
       </c>
-      <c r="X259" s="9" t="s">
+      <c r="X259" s="8" t="s">
         <v>3523</v>
       </c>
-      <c r="Z259" t="s">
+      <c r="Z259" s="9" t="s">
         <v>4113</v>
       </c>
     </row>
@@ -29756,10 +29757,10 @@
       <c r="W260">
         <v>259</v>
       </c>
-      <c r="X260" s="9" t="s">
+      <c r="X260" s="8" t="s">
         <v>3524</v>
       </c>
-      <c r="Z260" t="s">
+      <c r="Z260" s="9" t="s">
         <v>4114</v>
       </c>
     </row>
@@ -29819,10 +29820,10 @@
       <c r="W261">
         <v>260</v>
       </c>
-      <c r="X261" s="9" t="s">
+      <c r="X261" s="8" t="s">
         <v>3525</v>
       </c>
-      <c r="Z261" t="s">
+      <c r="Z261" s="9" t="s">
         <v>4115</v>
       </c>
     </row>
@@ -29882,10 +29883,10 @@
       <c r="W262">
         <v>261</v>
       </c>
-      <c r="X262" s="9" t="s">
+      <c r="X262" s="8" t="s">
         <v>3526</v>
       </c>
-      <c r="Z262" t="s">
+      <c r="Z262" s="9" t="s">
         <v>4116</v>
       </c>
     </row>
@@ -29943,10 +29944,10 @@
       <c r="W263">
         <v>262</v>
       </c>
-      <c r="X263" s="9" t="s">
+      <c r="X263" s="8" t="s">
         <v>3527</v>
       </c>
-      <c r="Z263" t="s">
+      <c r="Z263" s="9" t="s">
         <v>4117</v>
       </c>
     </row>
@@ -30004,10 +30005,10 @@
       <c r="W264">
         <v>263</v>
       </c>
-      <c r="X264" s="9" t="s">
+      <c r="X264" s="8" t="s">
         <v>3528</v>
       </c>
-      <c r="Z264" t="s">
+      <c r="Z264" s="9" t="s">
         <v>4118</v>
       </c>
     </row>
@@ -30067,10 +30068,10 @@
       <c r="W265">
         <v>264</v>
       </c>
-      <c r="X265" s="9" t="s">
+      <c r="X265" s="8" t="s">
         <v>3529</v>
       </c>
-      <c r="Z265" t="s">
+      <c r="Z265" s="9" t="s">
         <v>4119</v>
       </c>
     </row>
@@ -30126,10 +30127,10 @@
       <c r="W266">
         <v>265</v>
       </c>
-      <c r="X266" s="9" t="s">
+      <c r="X266" s="8" t="s">
         <v>3530</v>
       </c>
-      <c r="Z266" t="s">
+      <c r="Z266" s="9" t="s">
         <v>4120</v>
       </c>
     </row>
@@ -30187,10 +30188,10 @@
       <c r="W267">
         <v>266</v>
       </c>
-      <c r="X267" s="9" t="s">
+      <c r="X267" s="8" t="s">
         <v>3531</v>
       </c>
-      <c r="Z267" t="s">
+      <c r="Z267" s="9" t="s">
         <v>4121</v>
       </c>
     </row>
@@ -30248,10 +30249,10 @@
       <c r="W268">
         <v>267</v>
       </c>
-      <c r="X268" s="9" t="s">
+      <c r="X268" s="8" t="s">
         <v>3532</v>
       </c>
-      <c r="Z268" t="s">
+      <c r="Z268" s="9" t="s">
         <v>4122</v>
       </c>
     </row>
@@ -30309,10 +30310,10 @@
       <c r="W269">
         <v>268</v>
       </c>
-      <c r="X269" s="9" t="s">
+      <c r="X269" s="8" t="s">
         <v>3533</v>
       </c>
-      <c r="Z269" t="s">
+      <c r="Z269" s="9" t="s">
         <v>4123</v>
       </c>
     </row>
@@ -30370,10 +30371,10 @@
       <c r="W270">
         <v>269</v>
       </c>
-      <c r="X270" s="9" t="s">
+      <c r="X270" s="8" t="s">
         <v>3534</v>
       </c>
-      <c r="Z270" t="s">
+      <c r="Z270" s="9" t="s">
         <v>4124</v>
       </c>
     </row>
@@ -30431,10 +30432,10 @@
       <c r="W271">
         <v>270</v>
       </c>
-      <c r="X271" s="9" t="s">
+      <c r="X271" s="8" t="s">
         <v>3535</v>
       </c>
-      <c r="Z271" t="s">
+      <c r="Z271" s="9" t="s">
         <v>4125</v>
       </c>
     </row>
@@ -30494,10 +30495,10 @@
       <c r="W272">
         <v>271</v>
       </c>
-      <c r="X272" s="9" t="s">
+      <c r="X272" s="8" t="s">
         <v>3536</v>
       </c>
-      <c r="Z272" t="s">
+      <c r="Z272" s="9" t="s">
         <v>4126</v>
       </c>
     </row>
@@ -30553,10 +30554,10 @@
       <c r="W273">
         <v>272</v>
       </c>
-      <c r="X273" s="9" t="s">
+      <c r="X273" s="8" t="s">
         <v>3537</v>
       </c>
-      <c r="Z273" t="s">
+      <c r="Z273" s="9" t="s">
         <v>4127</v>
       </c>
     </row>
@@ -30614,10 +30615,10 @@
       <c r="W274">
         <v>273</v>
       </c>
-      <c r="X274" s="9" t="s">
+      <c r="X274" s="8" t="s">
         <v>3538</v>
       </c>
-      <c r="Z274" t="s">
+      <c r="Z274" s="9" t="s">
         <v>4128</v>
       </c>
     </row>
@@ -30673,10 +30674,10 @@
       <c r="W275">
         <v>274</v>
       </c>
-      <c r="X275" s="9" t="s">
+      <c r="X275" s="8" t="s">
         <v>3539</v>
       </c>
-      <c r="Z275" t="s">
+      <c r="Z275" s="9" t="s">
         <v>4129</v>
       </c>
     </row>
@@ -30732,10 +30733,10 @@
       <c r="W276">
         <v>275</v>
       </c>
-      <c r="X276" s="9" t="s">
+      <c r="X276" s="8" t="s">
         <v>3540</v>
       </c>
-      <c r="Z276" t="s">
+      <c r="Z276" s="9" t="s">
         <v>4130</v>
       </c>
     </row>
@@ -30793,10 +30794,10 @@
       <c r="W277">
         <v>276</v>
       </c>
-      <c r="X277" s="9" t="s">
+      <c r="X277" s="8" t="s">
         <v>3541</v>
       </c>
-      <c r="Z277" t="s">
+      <c r="Z277" s="9" t="s">
         <v>4131</v>
       </c>
     </row>
@@ -30852,10 +30853,10 @@
       <c r="W278">
         <v>277</v>
       </c>
-      <c r="X278" s="9" t="s">
+      <c r="X278" s="8" t="s">
         <v>3542</v>
       </c>
-      <c r="Z278" t="s">
+      <c r="Z278" s="9" t="s">
         <v>4132</v>
       </c>
     </row>
@@ -30913,10 +30914,10 @@
       <c r="W279">
         <v>278</v>
       </c>
-      <c r="X279" s="9" t="s">
+      <c r="X279" s="8" t="s">
         <v>3543</v>
       </c>
-      <c r="Z279" t="s">
+      <c r="Z279" s="9" t="s">
         <v>4133</v>
       </c>
     </row>
@@ -30972,10 +30973,10 @@
       <c r="W280">
         <v>279</v>
       </c>
-      <c r="X280" s="9" t="s">
+      <c r="X280" s="8" t="s">
         <v>3544</v>
       </c>
-      <c r="Z280" t="s">
+      <c r="Z280" s="9" t="s">
         <v>4134</v>
       </c>
     </row>
@@ -31031,10 +31032,10 @@
       <c r="W281">
         <v>280</v>
       </c>
-      <c r="X281" s="9" t="s">
+      <c r="X281" s="8" t="s">
         <v>3545</v>
       </c>
-      <c r="Z281" t="s">
+      <c r="Z281" s="9" t="s">
         <v>4135</v>
       </c>
     </row>
@@ -31090,10 +31091,10 @@
       <c r="W282">
         <v>281</v>
       </c>
-      <c r="X282" s="9" t="s">
+      <c r="X282" s="8" t="s">
         <v>3546</v>
       </c>
-      <c r="Z282" t="s">
+      <c r="Z282" s="9" t="s">
         <v>4136</v>
       </c>
     </row>
@@ -31153,10 +31154,10 @@
       <c r="W283">
         <v>282</v>
       </c>
-      <c r="X283" s="9" t="s">
+      <c r="X283" s="8" t="s">
         <v>3547</v>
       </c>
-      <c r="Z283" t="s">
+      <c r="Z283" s="9" t="s">
         <v>4137</v>
       </c>
     </row>
@@ -31212,10 +31213,10 @@
       <c r="W284">
         <v>283</v>
       </c>
-      <c r="X284" s="9" t="s">
+      <c r="X284" s="8" t="s">
         <v>3548</v>
       </c>
-      <c r="Z284" t="s">
+      <c r="Z284" s="9" t="s">
         <v>4138</v>
       </c>
     </row>
@@ -31273,10 +31274,10 @@
       <c r="W285">
         <v>284</v>
       </c>
-      <c r="X285" s="9" t="s">
+      <c r="X285" s="8" t="s">
         <v>3549</v>
       </c>
-      <c r="Z285" t="s">
+      <c r="Z285" s="9" t="s">
         <v>4139</v>
       </c>
     </row>
@@ -31336,10 +31337,10 @@
       <c r="W286">
         <v>285</v>
       </c>
-      <c r="X286" s="9" t="s">
+      <c r="X286" s="8" t="s">
         <v>3550</v>
       </c>
-      <c r="Z286" t="s">
+      <c r="Z286" s="9" t="s">
         <v>4140</v>
       </c>
     </row>
@@ -31395,10 +31396,10 @@
       <c r="W287">
         <v>286</v>
       </c>
-      <c r="X287" s="9" t="s">
+      <c r="X287" s="8" t="s">
         <v>3551</v>
       </c>
-      <c r="Z287" t="s">
+      <c r="Z287" s="9" t="s">
         <v>4141</v>
       </c>
     </row>
@@ -31454,10 +31455,10 @@
       <c r="W288">
         <v>287</v>
       </c>
-      <c r="X288" s="9" t="s">
+      <c r="X288" s="8" t="s">
         <v>3552</v>
       </c>
-      <c r="Z288" t="s">
+      <c r="Z288" s="9" t="s">
         <v>4142</v>
       </c>
     </row>
@@ -31517,10 +31518,10 @@
       <c r="W289">
         <v>288</v>
       </c>
-      <c r="X289" s="9" t="s">
+      <c r="X289" s="8" t="s">
         <v>3553</v>
       </c>
-      <c r="Z289" t="s">
+      <c r="Z289" s="9" t="s">
         <v>4143</v>
       </c>
     </row>
@@ -31576,10 +31577,10 @@
       <c r="W290">
         <v>289</v>
       </c>
-      <c r="X290" s="9" t="s">
+      <c r="X290" s="8" t="s">
         <v>3554</v>
       </c>
-      <c r="Z290" t="s">
+      <c r="Z290" s="9" t="s">
         <v>4144</v>
       </c>
     </row>
@@ -31635,10 +31636,10 @@
       <c r="W291">
         <v>290</v>
       </c>
-      <c r="X291" s="9" t="s">
+      <c r="X291" s="8" t="s">
         <v>3555</v>
       </c>
-      <c r="Z291" t="s">
+      <c r="Z291" s="9" t="s">
         <v>4145</v>
       </c>
     </row>
@@ -31698,10 +31699,10 @@
       <c r="W292">
         <v>291</v>
       </c>
-      <c r="X292" s="9" t="s">
+      <c r="X292" s="8" t="s">
         <v>3556</v>
       </c>
-      <c r="Z292" t="s">
+      <c r="Z292" s="9" t="s">
         <v>4146</v>
       </c>
     </row>
@@ -31761,10 +31762,10 @@
       <c r="W293">
         <v>292</v>
       </c>
-      <c r="X293" s="9" t="s">
+      <c r="X293" s="8" t="s">
         <v>3557</v>
       </c>
-      <c r="Z293" t="s">
+      <c r="Z293" s="9" t="s">
         <v>4147</v>
       </c>
     </row>
@@ -31824,10 +31825,10 @@
       <c r="W294">
         <v>293</v>
       </c>
-      <c r="X294" s="9" t="s">
+      <c r="X294" s="8" t="s">
         <v>3558</v>
       </c>
-      <c r="Z294" t="s">
+      <c r="Z294" s="9" t="s">
         <v>4148</v>
       </c>
     </row>
@@ -31887,10 +31888,10 @@
       <c r="W295">
         <v>294</v>
       </c>
-      <c r="X295" s="9" t="s">
+      <c r="X295" s="8" t="s">
         <v>3559</v>
       </c>
-      <c r="Z295" t="s">
+      <c r="Z295" s="9" t="s">
         <v>4149</v>
       </c>
     </row>
@@ -31948,10 +31949,10 @@
       <c r="W296">
         <v>295</v>
       </c>
-      <c r="X296" s="9" t="s">
+      <c r="X296" s="8" t="s">
         <v>3560</v>
       </c>
-      <c r="Z296" t="s">
+      <c r="Z296" s="9" t="s">
         <v>4150</v>
       </c>
     </row>
@@ -32011,10 +32012,10 @@
       <c r="W297">
         <v>296</v>
       </c>
-      <c r="X297" s="9" t="s">
+      <c r="X297" s="8" t="s">
         <v>3561</v>
       </c>
-      <c r="Z297" t="s">
+      <c r="Z297" s="9" t="s">
         <v>4151</v>
       </c>
     </row>
@@ -32070,10 +32071,10 @@
       <c r="W298">
         <v>297</v>
       </c>
-      <c r="X298" s="9" t="s">
+      <c r="X298" s="8" t="s">
         <v>3562</v>
       </c>
-      <c r="Z298" t="s">
+      <c r="Z298" s="9" t="s">
         <v>4152</v>
       </c>
     </row>
@@ -32129,10 +32130,10 @@
       <c r="W299">
         <v>298</v>
       </c>
-      <c r="X299" s="9" t="s">
+      <c r="X299" s="8" t="s">
         <v>3563</v>
       </c>
-      <c r="Z299" t="s">
+      <c r="Z299" s="9" t="s">
         <v>4153</v>
       </c>
     </row>
@@ -32192,10 +32193,10 @@
       <c r="W300">
         <v>299</v>
       </c>
-      <c r="X300" s="9" t="s">
+      <c r="X300" s="8" t="s">
         <v>3564</v>
       </c>
-      <c r="Z300" t="s">
+      <c r="Z300" s="9" t="s">
         <v>4154</v>
       </c>
     </row>
@@ -32253,10 +32254,10 @@
       <c r="W301">
         <v>300</v>
       </c>
-      <c r="X301" s="9" t="s">
+      <c r="X301" s="8" t="s">
         <v>3565</v>
       </c>
-      <c r="Z301" t="s">
+      <c r="Z301" s="9" t="s">
         <v>4155</v>
       </c>
     </row>
@@ -32316,10 +32317,10 @@
       <c r="W302">
         <v>301</v>
       </c>
-      <c r="X302" s="9" t="s">
+      <c r="X302" s="8" t="s">
         <v>3566</v>
       </c>
-      <c r="Z302" t="s">
+      <c r="Z302" s="9" t="s">
         <v>4156</v>
       </c>
     </row>
@@ -32379,10 +32380,10 @@
       <c r="W303">
         <v>302</v>
       </c>
-      <c r="X303" s="9" t="s">
+      <c r="X303" s="8" t="s">
         <v>3567</v>
       </c>
-      <c r="Z303" t="s">
+      <c r="Z303" s="9" t="s">
         <v>4157</v>
       </c>
     </row>
@@ -32440,10 +32441,10 @@
       <c r="W304">
         <v>303</v>
       </c>
-      <c r="X304" s="9" t="s">
+      <c r="X304" s="8" t="s">
         <v>3568</v>
       </c>
-      <c r="Z304" t="s">
+      <c r="Z304" s="9" t="s">
         <v>4158</v>
       </c>
     </row>
@@ -32501,10 +32502,10 @@
       <c r="W305">
         <v>304</v>
       </c>
-      <c r="X305" s="9" t="s">
+      <c r="X305" s="8" t="s">
         <v>3569</v>
       </c>
-      <c r="Z305" t="s">
+      <c r="Z305" s="9" t="s">
         <v>4159</v>
       </c>
     </row>
@@ -32564,10 +32565,10 @@
       <c r="W306">
         <v>305</v>
       </c>
-      <c r="X306" s="9" t="s">
+      <c r="X306" s="8" t="s">
         <v>3570</v>
       </c>
-      <c r="Z306" t="s">
+      <c r="Z306" s="9" t="s">
         <v>4160</v>
       </c>
     </row>
@@ -32623,10 +32624,10 @@
       <c r="W307">
         <v>306</v>
       </c>
-      <c r="X307" s="9" t="s">
+      <c r="X307" s="8" t="s">
         <v>3571</v>
       </c>
-      <c r="Z307" t="s">
+      <c r="Z307" s="9" t="s">
         <v>4161</v>
       </c>
     </row>
@@ -32684,10 +32685,10 @@
       <c r="W308">
         <v>307</v>
       </c>
-      <c r="X308" s="9" t="s">
+      <c r="X308" s="8" t="s">
         <v>3572</v>
       </c>
-      <c r="Z308" t="s">
+      <c r="Z308" s="9" t="s">
         <v>4162</v>
       </c>
     </row>
@@ -32745,10 +32746,10 @@
       <c r="W309">
         <v>308</v>
       </c>
-      <c r="X309" s="9" t="s">
+      <c r="X309" s="8" t="s">
         <v>3573</v>
       </c>
-      <c r="Z309" t="s">
+      <c r="Z309" s="9" t="s">
         <v>4163</v>
       </c>
     </row>
@@ -32806,10 +32807,10 @@
       <c r="W310">
         <v>309</v>
       </c>
-      <c r="X310" s="9" t="s">
+      <c r="X310" s="8" t="s">
         <v>3574</v>
       </c>
-      <c r="Z310" t="s">
+      <c r="Z310" s="9" t="s">
         <v>4164</v>
       </c>
     </row>
@@ -32867,10 +32868,10 @@
       <c r="W311">
         <v>310</v>
       </c>
-      <c r="X311" s="9" t="s">
+      <c r="X311" s="8" t="s">
         <v>3575</v>
       </c>
-      <c r="Z311" t="s">
+      <c r="Z311" s="9" t="s">
         <v>4165</v>
       </c>
     </row>
@@ -32928,10 +32929,10 @@
       <c r="W312">
         <v>311</v>
       </c>
-      <c r="X312" s="9" t="s">
+      <c r="X312" s="8" t="s">
         <v>3576</v>
       </c>
-      <c r="Z312" t="s">
+      <c r="Z312" s="9" t="s">
         <v>4166</v>
       </c>
     </row>
@@ -32987,10 +32988,10 @@
       <c r="W313">
         <v>312</v>
       </c>
-      <c r="X313" s="9" t="s">
+      <c r="X313" s="8" t="s">
         <v>3577</v>
       </c>
-      <c r="Z313" t="s">
+      <c r="Z313" s="9" t="s">
         <v>4167</v>
       </c>
     </row>
@@ -33052,10 +33053,10 @@
       <c r="W314">
         <v>313</v>
       </c>
-      <c r="X314" s="9" t="s">
+      <c r="X314" s="8" t="s">
         <v>3578</v>
       </c>
-      <c r="Z314" t="s">
+      <c r="Z314" s="9" t="s">
         <v>4168</v>
       </c>
     </row>
@@ -33113,10 +33114,10 @@
       <c r="W315">
         <v>314</v>
       </c>
-      <c r="X315" s="9" t="s">
+      <c r="X315" s="8" t="s">
         <v>3579</v>
       </c>
-      <c r="Z315" t="s">
+      <c r="Z315" s="9" t="s">
         <v>4169</v>
       </c>
     </row>
@@ -33174,10 +33175,10 @@
       <c r="W316">
         <v>315</v>
       </c>
-      <c r="X316" s="9" t="s">
+      <c r="X316" s="8" t="s">
         <v>3580</v>
       </c>
-      <c r="Z316" t="s">
+      <c r="Z316" s="9" t="s">
         <v>4170</v>
       </c>
     </row>
@@ -33235,10 +33236,10 @@
       <c r="W317">
         <v>316</v>
       </c>
-      <c r="X317" s="9" t="s">
+      <c r="X317" s="8" t="s">
         <v>3581</v>
       </c>
-      <c r="Z317" t="s">
+      <c r="Z317" s="9" t="s">
         <v>4171</v>
       </c>
     </row>
@@ -33298,10 +33299,10 @@
       <c r="W318">
         <v>317</v>
       </c>
-      <c r="X318" s="9" t="s">
+      <c r="X318" s="8" t="s">
         <v>3582</v>
       </c>
-      <c r="Z318" t="s">
+      <c r="Z318" s="9" t="s">
         <v>4172</v>
       </c>
     </row>
@@ -33359,10 +33360,10 @@
       <c r="W319">
         <v>318</v>
       </c>
-      <c r="X319" s="9" t="s">
+      <c r="X319" s="8" t="s">
         <v>3583</v>
       </c>
-      <c r="Z319" t="s">
+      <c r="Z319" s="9" t="s">
         <v>4173</v>
       </c>
     </row>
@@ -33420,10 +33421,10 @@
       <c r="W320">
         <v>319</v>
       </c>
-      <c r="X320" s="9" t="s">
+      <c r="X320" s="8" t="s">
         <v>3584</v>
       </c>
-      <c r="Z320" t="s">
+      <c r="Z320" s="9" t="s">
         <v>4174</v>
       </c>
     </row>
@@ -33481,10 +33482,10 @@
       <c r="W321">
         <v>320</v>
       </c>
-      <c r="X321" s="9" t="s">
+      <c r="X321" s="8" t="s">
         <v>3585</v>
       </c>
-      <c r="Z321" t="s">
+      <c r="Z321" s="9" t="s">
         <v>4175</v>
       </c>
     </row>
@@ -33540,10 +33541,10 @@
       <c r="W322">
         <v>321</v>
       </c>
-      <c r="X322" s="9" t="s">
+      <c r="X322" s="8" t="s">
         <v>3586</v>
       </c>
-      <c r="Z322" t="s">
+      <c r="Z322" s="9" t="s">
         <v>4176</v>
       </c>
     </row>
@@ -33603,10 +33604,10 @@
       <c r="W323">
         <v>322</v>
       </c>
-      <c r="X323" s="9" t="s">
+      <c r="X323" s="8" t="s">
         <v>3587</v>
       </c>
-      <c r="Z323" t="s">
+      <c r="Z323" s="9" t="s">
         <v>4177</v>
       </c>
     </row>
@@ -33666,10 +33667,10 @@
       <c r="W324">
         <v>323</v>
       </c>
-      <c r="X324" s="9" t="s">
+      <c r="X324" s="8" t="s">
         <v>3588</v>
       </c>
-      <c r="Z324" t="s">
+      <c r="Z324" s="9" t="s">
         <v>4178</v>
       </c>
     </row>
@@ -33727,10 +33728,10 @@
       <c r="W325">
         <v>324</v>
       </c>
-      <c r="X325" s="9" t="s">
+      <c r="X325" s="8" t="s">
         <v>3589</v>
       </c>
-      <c r="Z325" t="s">
+      <c r="Z325" s="9" t="s">
         <v>4179</v>
       </c>
     </row>
@@ -33788,10 +33789,10 @@
       <c r="W326">
         <v>325</v>
       </c>
-      <c r="X326" s="9" t="s">
+      <c r="X326" s="8" t="s">
         <v>3590</v>
       </c>
-      <c r="Z326" t="s">
+      <c r="Z326" s="9" t="s">
         <v>4180</v>
       </c>
     </row>
@@ -33849,10 +33850,10 @@
       <c r="W327">
         <v>326</v>
       </c>
-      <c r="X327" s="9" t="s">
+      <c r="X327" s="8" t="s">
         <v>3591</v>
       </c>
-      <c r="Z327" t="s">
+      <c r="Z327" s="9" t="s">
         <v>4181</v>
       </c>
     </row>
@@ -33910,10 +33911,10 @@
       <c r="W328">
         <v>327</v>
       </c>
-      <c r="X328" s="9" t="s">
+      <c r="X328" s="8" t="s">
         <v>3592</v>
       </c>
-      <c r="Z328" t="s">
+      <c r="Z328" s="9" t="s">
         <v>4182</v>
       </c>
     </row>
@@ -33971,10 +33972,10 @@
       <c r="W329">
         <v>328</v>
       </c>
-      <c r="X329" s="9" t="s">
+      <c r="X329" s="8" t="s">
         <v>3593</v>
       </c>
-      <c r="Z329" t="s">
+      <c r="Z329" s="9" t="s">
         <v>4183</v>
       </c>
     </row>
@@ -34030,10 +34031,10 @@
       <c r="W330">
         <v>329</v>
       </c>
-      <c r="X330" s="9" t="s">
+      <c r="X330" s="8" t="s">
         <v>3594</v>
       </c>
-      <c r="Z330" t="s">
+      <c r="Z330" s="9" t="s">
         <v>4184</v>
       </c>
     </row>
@@ -34093,10 +34094,10 @@
       <c r="W331">
         <v>330</v>
       </c>
-      <c r="X331" s="9" t="s">
+      <c r="X331" s="8" t="s">
         <v>3595</v>
       </c>
-      <c r="Z331" t="s">
+      <c r="Z331" s="9" t="s">
         <v>4185</v>
       </c>
     </row>
@@ -34152,10 +34153,10 @@
       <c r="W332">
         <v>331</v>
       </c>
-      <c r="X332" s="9" t="s">
+      <c r="X332" s="8" t="s">
         <v>3596</v>
       </c>
-      <c r="Z332" t="s">
+      <c r="Z332" s="9" t="s">
         <v>4186</v>
       </c>
     </row>
@@ -34217,10 +34218,10 @@
       <c r="W333">
         <v>332</v>
       </c>
-      <c r="X333" s="9" t="s">
+      <c r="X333" s="8" t="s">
         <v>3597</v>
       </c>
-      <c r="Z333" t="s">
+      <c r="Z333" s="9" t="s">
         <v>4187</v>
       </c>
     </row>
@@ -34282,10 +34283,10 @@
       <c r="W334">
         <v>333</v>
       </c>
-      <c r="X334" s="9" t="s">
+      <c r="X334" s="8" t="s">
         <v>3598</v>
       </c>
-      <c r="Z334" t="s">
+      <c r="Z334" s="9" t="s">
         <v>4188</v>
       </c>
     </row>
@@ -34345,10 +34346,10 @@
       <c r="W335">
         <v>334</v>
       </c>
-      <c r="X335" s="9" t="s">
+      <c r="X335" s="8" t="s">
         <v>3599</v>
       </c>
-      <c r="Z335" t="s">
+      <c r="Z335" s="9" t="s">
         <v>4189</v>
       </c>
     </row>
@@ -34404,10 +34405,10 @@
       <c r="W336">
         <v>335</v>
       </c>
-      <c r="X336" s="9" t="s">
+      <c r="X336" s="8" t="s">
         <v>3600</v>
       </c>
-      <c r="Z336" t="s">
+      <c r="Z336" s="9" t="s">
         <v>4190</v>
       </c>
     </row>
@@ -34463,10 +34464,10 @@
       <c r="W337">
         <v>336</v>
       </c>
-      <c r="X337" s="9" t="s">
+      <c r="X337" s="8" t="s">
         <v>3601</v>
       </c>
-      <c r="Z337" t="s">
+      <c r="Z337" s="9" t="s">
         <v>4191</v>
       </c>
     </row>
@@ -34524,10 +34525,10 @@
       <c r="W338">
         <v>337</v>
       </c>
-      <c r="X338" s="9" t="s">
+      <c r="X338" s="8" t="s">
         <v>3602</v>
       </c>
-      <c r="Z338" t="s">
+      <c r="Z338" s="9" t="s">
         <v>4192</v>
       </c>
     </row>
@@ -34583,10 +34584,10 @@
       <c r="W339">
         <v>338</v>
       </c>
-      <c r="X339" s="9" t="s">
+      <c r="X339" s="8" t="s">
         <v>3603</v>
       </c>
-      <c r="Z339" t="s">
+      <c r="Z339" s="9" t="s">
         <v>4193</v>
       </c>
     </row>
@@ -34646,10 +34647,10 @@
       <c r="W340">
         <v>339</v>
       </c>
-      <c r="X340" s="9" t="s">
+      <c r="X340" s="8" t="s">
         <v>3604</v>
       </c>
-      <c r="Z340" t="s">
+      <c r="Z340" s="9" t="s">
         <v>4194</v>
       </c>
     </row>
@@ -34709,10 +34710,10 @@
       <c r="W341">
         <v>340</v>
       </c>
-      <c r="X341" s="9" t="s">
+      <c r="X341" s="8" t="s">
         <v>3605</v>
       </c>
-      <c r="Z341" t="s">
+      <c r="Z341" s="9" t="s">
         <v>4195</v>
       </c>
     </row>
@@ -34768,10 +34769,10 @@
       <c r="W342">
         <v>341</v>
       </c>
-      <c r="X342" s="9" t="s">
+      <c r="X342" s="8" t="s">
         <v>3606</v>
       </c>
-      <c r="Z342" t="s">
+      <c r="Z342" s="9" t="s">
         <v>4196</v>
       </c>
     </row>
@@ -34829,10 +34830,10 @@
       <c r="W343">
         <v>342</v>
       </c>
-      <c r="X343" s="9" t="s">
+      <c r="X343" s="8" t="s">
         <v>3607</v>
       </c>
-      <c r="Z343" t="s">
+      <c r="Z343" s="9" t="s">
         <v>4197</v>
       </c>
     </row>
@@ -34890,10 +34891,10 @@
       <c r="W344">
         <v>343</v>
       </c>
-      <c r="X344" s="9" t="s">
+      <c r="X344" s="8" t="s">
         <v>3608</v>
       </c>
-      <c r="Z344" t="s">
+      <c r="Z344" s="9" t="s">
         <v>4198</v>
       </c>
     </row>
@@ -34953,10 +34954,10 @@
       <c r="W345">
         <v>344</v>
       </c>
-      <c r="X345" s="9" t="s">
+      <c r="X345" s="8" t="s">
         <v>3609</v>
       </c>
-      <c r="Z345" t="s">
+      <c r="Z345" s="9" t="s">
         <v>4199</v>
       </c>
     </row>
@@ -35012,10 +35013,10 @@
       <c r="W346">
         <v>345</v>
       </c>
-      <c r="X346" s="9" t="s">
+      <c r="X346" s="8" t="s">
         <v>3610</v>
       </c>
-      <c r="Z346" t="s">
+      <c r="Z346" s="9" t="s">
         <v>4200</v>
       </c>
     </row>
@@ -35073,10 +35074,10 @@
       <c r="W347">
         <v>346</v>
       </c>
-      <c r="X347" s="9" t="s">
+      <c r="X347" s="8" t="s">
         <v>3611</v>
       </c>
-      <c r="Z347" t="s">
+      <c r="Z347" s="9" t="s">
         <v>4201</v>
       </c>
     </row>
@@ -35134,10 +35135,10 @@
       <c r="W348">
         <v>347</v>
       </c>
-      <c r="X348" s="9" t="s">
+      <c r="X348" s="8" t="s">
         <v>3612</v>
       </c>
-      <c r="Z348" t="s">
+      <c r="Z348" s="9" t="s">
         <v>4202</v>
       </c>
     </row>
@@ -35195,10 +35196,10 @@
       <c r="W349">
         <v>348</v>
       </c>
-      <c r="X349" s="9" t="s">
+      <c r="X349" s="8" t="s">
         <v>3613</v>
       </c>
-      <c r="Z349" t="s">
+      <c r="Z349" s="9" t="s">
         <v>4203</v>
       </c>
     </row>
@@ -35260,10 +35261,10 @@
       <c r="W350">
         <v>349</v>
       </c>
-      <c r="X350" s="9" t="s">
+      <c r="X350" s="8" t="s">
         <v>3614</v>
       </c>
-      <c r="Z350" t="s">
+      <c r="Z350" s="9" t="s">
         <v>4204</v>
       </c>
     </row>
@@ -35325,10 +35326,10 @@
       <c r="W351">
         <v>350</v>
       </c>
-      <c r="X351" s="9" t="s">
+      <c r="X351" s="8" t="s">
         <v>3615</v>
       </c>
-      <c r="Z351" t="s">
+      <c r="Z351" s="9" t="s">
         <v>4205</v>
       </c>
     </row>
@@ -35384,10 +35385,10 @@
       <c r="W352">
         <v>351</v>
       </c>
-      <c r="X352" s="9" t="s">
+      <c r="X352" s="8" t="s">
         <v>3616</v>
       </c>
-      <c r="Z352" t="s">
+      <c r="Z352" s="9" t="s">
         <v>4206</v>
       </c>
     </row>
@@ -35447,10 +35448,10 @@
       <c r="W353">
         <v>352</v>
       </c>
-      <c r="X353" s="9" t="s">
+      <c r="X353" s="8" t="s">
         <v>3617</v>
       </c>
-      <c r="Z353" t="s">
+      <c r="Z353" s="9" t="s">
         <v>4207</v>
       </c>
     </row>
@@ -35510,10 +35511,10 @@
       <c r="W354">
         <v>353</v>
       </c>
-      <c r="X354" s="9" t="s">
+      <c r="X354" s="8" t="s">
         <v>3618</v>
       </c>
-      <c r="Z354" t="s">
+      <c r="Z354" s="9" t="s">
         <v>4208</v>
       </c>
     </row>
@@ -35571,10 +35572,10 @@
       <c r="W355">
         <v>354</v>
       </c>
-      <c r="X355" s="9" t="s">
+      <c r="X355" s="8" t="s">
         <v>3619</v>
       </c>
-      <c r="Z355" t="s">
+      <c r="Z355" s="9" t="s">
         <v>4209</v>
       </c>
     </row>
@@ -35627,10 +35628,10 @@
       <c r="W356">
         <v>355</v>
       </c>
-      <c r="X356" s="9" t="s">
+      <c r="X356" s="8" t="s">
         <v>3620</v>
       </c>
-      <c r="Z356" t="s">
+      <c r="Z356" s="9" t="s">
         <v>4210</v>
       </c>
     </row>
@@ -35686,10 +35687,10 @@
       <c r="W357">
         <v>356</v>
       </c>
-      <c r="X357" s="9" t="s">
+      <c r="X357" s="8" t="s">
         <v>3621</v>
       </c>
-      <c r="Z357" t="s">
+      <c r="Z357" s="9" t="s">
         <v>4211</v>
       </c>
     </row>
@@ -35745,10 +35746,10 @@
       <c r="W358">
         <v>357</v>
       </c>
-      <c r="X358" s="9" t="s">
+      <c r="X358" s="8" t="s">
         <v>3622</v>
       </c>
-      <c r="Z358" t="s">
+      <c r="Z358" s="9" t="s">
         <v>4212</v>
       </c>
     </row>
@@ -35804,10 +35805,10 @@
       <c r="W359">
         <v>358</v>
       </c>
-      <c r="X359" s="9" t="s">
+      <c r="X359" s="8" t="s">
         <v>3623</v>
       </c>
-      <c r="Z359" t="s">
+      <c r="Z359" s="9" t="s">
         <v>4213</v>
       </c>
     </row>
@@ -35863,10 +35864,10 @@
       <c r="W360">
         <v>359</v>
       </c>
-      <c r="X360" s="9" t="s">
+      <c r="X360" s="8" t="s">
         <v>3624</v>
       </c>
-      <c r="Z360" t="s">
+      <c r="Z360" s="9" t="s">
         <v>4214</v>
       </c>
     </row>
@@ -35922,10 +35923,10 @@
       <c r="W361">
         <v>360</v>
       </c>
-      <c r="X361" s="9" t="s">
+      <c r="X361" s="8" t="s">
         <v>3625</v>
       </c>
-      <c r="Z361" t="s">
+      <c r="Z361" s="9" t="s">
         <v>4215</v>
       </c>
     </row>
@@ -35978,10 +35979,10 @@
       <c r="W362">
         <v>361</v>
       </c>
-      <c r="X362" s="9" t="s">
+      <c r="X362" s="8" t="s">
         <v>3626</v>
       </c>
-      <c r="Z362" t="s">
+      <c r="Z362" s="9" t="s">
         <v>4216</v>
       </c>
     </row>
@@ -36034,10 +36035,10 @@
       <c r="W363">
         <v>362</v>
       </c>
-      <c r="X363" s="9" t="s">
+      <c r="X363" s="8" t="s">
         <v>3627</v>
       </c>
-      <c r="Z363" t="s">
+      <c r="Z363" s="9" t="s">
         <v>4217</v>
       </c>
     </row>
@@ -36093,10 +36094,10 @@
       <c r="W364">
         <v>363</v>
       </c>
-      <c r="X364" s="9" t="s">
+      <c r="X364" s="8" t="s">
         <v>3628</v>
       </c>
-      <c r="Z364" t="s">
+      <c r="Z364" s="9" t="s">
         <v>4218</v>
       </c>
     </row>
@@ -36149,10 +36150,10 @@
       <c r="W365">
         <v>364</v>
       </c>
-      <c r="X365" s="9" t="s">
+      <c r="X365" s="8" t="s">
         <v>3629</v>
       </c>
-      <c r="Z365" t="s">
+      <c r="Z365" s="9" t="s">
         <v>4219</v>
       </c>
     </row>
@@ -36211,10 +36212,10 @@
       <c r="W366">
         <v>365</v>
       </c>
-      <c r="X366" s="9" t="s">
+      <c r="X366" s="8" t="s">
         <v>3630</v>
       </c>
-      <c r="Z366" t="s">
+      <c r="Z366" s="9" t="s">
         <v>4220</v>
       </c>
     </row>
@@ -36270,10 +36271,10 @@
       <c r="W367">
         <v>366</v>
       </c>
-      <c r="X367" s="9" t="s">
+      <c r="X367" s="8" t="s">
         <v>3631</v>
       </c>
-      <c r="Z367" t="s">
+      <c r="Z367" s="9" t="s">
         <v>4221</v>
       </c>
     </row>
@@ -36332,10 +36333,10 @@
       <c r="W368">
         <v>367</v>
       </c>
-      <c r="X368" s="9" t="s">
+      <c r="X368" s="8" t="s">
         <v>3632</v>
       </c>
-      <c r="Z368" t="s">
+      <c r="Z368" s="9" t="s">
         <v>4222</v>
       </c>
     </row>
@@ -36391,10 +36392,10 @@
       <c r="W369">
         <v>368</v>
       </c>
-      <c r="X369" s="9" t="s">
+      <c r="X369" s="8" t="s">
         <v>3633</v>
       </c>
-      <c r="Z369" t="s">
+      <c r="Z369" s="9" t="s">
         <v>4223</v>
       </c>
     </row>
@@ -36453,10 +36454,10 @@
       <c r="W370">
         <v>369</v>
       </c>
-      <c r="X370" s="9" t="s">
+      <c r="X370" s="8" t="s">
         <v>3634</v>
       </c>
-      <c r="Z370" t="s">
+      <c r="Z370" s="9" t="s">
         <v>4224</v>
       </c>
     </row>
@@ -36512,10 +36513,10 @@
       <c r="W371">
         <v>370</v>
       </c>
-      <c r="X371" s="9" t="s">
+      <c r="X371" s="8" t="s">
         <v>3635</v>
       </c>
-      <c r="Z371" t="s">
+      <c r="Z371" s="9" t="s">
         <v>4225</v>
       </c>
     </row>
@@ -36571,10 +36572,10 @@
       <c r="W372">
         <v>371</v>
       </c>
-      <c r="X372" s="9" t="s">
+      <c r="X372" s="8" t="s">
         <v>3636</v>
       </c>
-      <c r="Z372" t="s">
+      <c r="Z372" s="9" t="s">
         <v>4226</v>
       </c>
     </row>
@@ -36627,10 +36628,10 @@
       <c r="W373">
         <v>372</v>
       </c>
-      <c r="X373" s="9" t="s">
+      <c r="X373" s="8" t="s">
         <v>3637</v>
       </c>
-      <c r="Z373" t="s">
+      <c r="Z373" s="9" t="s">
         <v>4227</v>
       </c>
     </row>
@@ -36686,10 +36687,10 @@
       <c r="W374">
         <v>373</v>
       </c>
-      <c r="X374" s="9" t="s">
+      <c r="X374" s="8" t="s">
         <v>3638</v>
       </c>
-      <c r="Z374" t="s">
+      <c r="Z374" s="9" t="s">
         <v>4228</v>
       </c>
     </row>
@@ -36745,10 +36746,10 @@
       <c r="W375">
         <v>374</v>
       </c>
-      <c r="X375" s="9" t="s">
+      <c r="X375" s="8" t="s">
         <v>3639</v>
       </c>
-      <c r="Z375" t="s">
+      <c r="Z375" s="9" t="s">
         <v>4229</v>
       </c>
     </row>
@@ -36804,10 +36805,10 @@
       <c r="W376">
         <v>375</v>
       </c>
-      <c r="X376" s="9" t="s">
+      <c r="X376" s="8" t="s">
         <v>3640</v>
       </c>
-      <c r="Z376" t="s">
+      <c r="Z376" s="9" t="s">
         <v>4230</v>
       </c>
     </row>
@@ -36860,10 +36861,10 @@
       <c r="W377">
         <v>376</v>
       </c>
-      <c r="X377" s="9" t="s">
+      <c r="X377" s="8" t="s">
         <v>3641</v>
       </c>
-      <c r="Z377" t="s">
+      <c r="Z377" s="9" t="s">
         <v>4231</v>
       </c>
     </row>
@@ -36919,10 +36920,10 @@
       <c r="W378">
         <v>377</v>
       </c>
-      <c r="X378" s="9" t="s">
+      <c r="X378" s="8" t="s">
         <v>3642</v>
       </c>
-      <c r="Z378" t="s">
+      <c r="Z378" s="9" t="s">
         <v>4232</v>
       </c>
     </row>
@@ -36981,10 +36982,10 @@
       <c r="W379">
         <v>378</v>
       </c>
-      <c r="X379" s="9" t="s">
+      <c r="X379" s="8" t="s">
         <v>3643</v>
       </c>
-      <c r="Z379" t="s">
+      <c r="Z379" s="9" t="s">
         <v>4233</v>
       </c>
     </row>
@@ -37040,10 +37041,10 @@
       <c r="W380">
         <v>379</v>
       </c>
-      <c r="X380" s="9" t="s">
+      <c r="X380" s="8" t="s">
         <v>3644</v>
       </c>
-      <c r="Z380" t="s">
+      <c r="Z380" s="9" t="s">
         <v>4234</v>
       </c>
     </row>
@@ -37099,10 +37100,10 @@
       <c r="W381">
         <v>380</v>
       </c>
-      <c r="X381" s="9" t="s">
+      <c r="X381" s="8" t="s">
         <v>3645</v>
       </c>
-      <c r="Z381" t="s">
+      <c r="Z381" s="9" t="s">
         <v>4235</v>
       </c>
     </row>
@@ -37161,10 +37162,10 @@
       <c r="W382">
         <v>381</v>
       </c>
-      <c r="X382" s="9" t="s">
+      <c r="X382" s="8" t="s">
         <v>3646</v>
       </c>
-      <c r="Z382" t="s">
+      <c r="Z382" s="9" t="s">
         <v>4236</v>
       </c>
     </row>
@@ -37220,10 +37221,10 @@
       <c r="W383">
         <v>382</v>
       </c>
-      <c r="X383" s="9" t="s">
+      <c r="X383" s="8" t="s">
         <v>3647</v>
       </c>
-      <c r="Z383" t="s">
+      <c r="Z383" s="9" t="s">
         <v>4237</v>
       </c>
     </row>
@@ -37276,10 +37277,10 @@
       <c r="W384">
         <v>383</v>
       </c>
-      <c r="X384" s="9" t="s">
+      <c r="X384" s="8" t="s">
         <v>3648</v>
       </c>
-      <c r="Z384" t="s">
+      <c r="Z384" s="9" t="s">
         <v>4238</v>
       </c>
     </row>
@@ -37338,10 +37339,10 @@
       <c r="W385">
         <v>384</v>
       </c>
-      <c r="X385" s="9" t="s">
+      <c r="X385" s="8" t="s">
         <v>3649</v>
       </c>
-      <c r="Z385" t="s">
+      <c r="Z385" s="9" t="s">
         <v>4239</v>
       </c>
     </row>
@@ -37397,10 +37398,10 @@
       <c r="W386">
         <v>385</v>
       </c>
-      <c r="X386" s="9" t="s">
+      <c r="X386" s="8" t="s">
         <v>3650</v>
       </c>
-      <c r="Z386" t="s">
+      <c r="Z386" s="9" t="s">
         <v>4240</v>
       </c>
     </row>
@@ -37456,10 +37457,10 @@
       <c r="W387">
         <v>386</v>
       </c>
-      <c r="X387" s="9" t="s">
+      <c r="X387" s="8" t="s">
         <v>3651</v>
       </c>
-      <c r="Z387" t="s">
+      <c r="Z387" s="9" t="s">
         <v>4241</v>
       </c>
     </row>
@@ -37515,10 +37516,10 @@
       <c r="W388">
         <v>387</v>
       </c>
-      <c r="X388" s="9" t="s">
+      <c r="X388" s="8" t="s">
         <v>3652</v>
       </c>
-      <c r="Z388" t="s">
+      <c r="Z388" s="9" t="s">
         <v>4242</v>
       </c>
     </row>
@@ -37574,10 +37575,10 @@
       <c r="W389">
         <v>388</v>
       </c>
-      <c r="X389" s="9" t="s">
+      <c r="X389" s="8" t="s">
         <v>3653</v>
       </c>
-      <c r="Z389" t="s">
+      <c r="Z389" s="9" t="s">
         <v>4243</v>
       </c>
     </row>
@@ -37636,10 +37637,10 @@
       <c r="W390">
         <v>389</v>
       </c>
-      <c r="X390" s="9" t="s">
+      <c r="X390" s="8" t="s">
         <v>3654</v>
       </c>
-      <c r="Z390" t="s">
+      <c r="Z390" s="9" t="s">
         <v>4244</v>
       </c>
     </row>
@@ -37692,10 +37693,10 @@
       <c r="W391">
         <v>390</v>
       </c>
-      <c r="X391" s="9" t="s">
+      <c r="X391" s="8" t="s">
         <v>3655</v>
       </c>
-      <c r="Z391" t="s">
+      <c r="Z391" s="9" t="s">
         <v>4245</v>
       </c>
     </row>
@@ -37754,10 +37755,10 @@
       <c r="W392">
         <v>391</v>
       </c>
-      <c r="X392" s="9" t="s">
+      <c r="X392" s="8" t="s">
         <v>3656</v>
       </c>
-      <c r="Z392" t="s">
+      <c r="Z392" s="9" t="s">
         <v>4246</v>
       </c>
     </row>
@@ -37813,10 +37814,10 @@
       <c r="W393">
         <v>392</v>
       </c>
-      <c r="X393" s="9" t="s">
+      <c r="X393" s="8" t="s">
         <v>3657</v>
       </c>
-      <c r="Z393" t="s">
+      <c r="Z393" s="9" t="s">
         <v>4247</v>
       </c>
     </row>
@@ -37869,10 +37870,10 @@
       <c r="W394">
         <v>393</v>
       </c>
-      <c r="X394" s="9" t="s">
+      <c r="X394" s="8" t="s">
         <v>3658</v>
       </c>
-      <c r="Z394" t="s">
+      <c r="Z394" s="9" t="s">
         <v>4248</v>
       </c>
     </row>
@@ -37928,10 +37929,10 @@
       <c r="W395">
         <v>394</v>
       </c>
-      <c r="X395" s="9" t="s">
+      <c r="X395" s="8" t="s">
         <v>3659</v>
       </c>
-      <c r="Z395" t="s">
+      <c r="Z395" s="9" t="s">
         <v>4249</v>
       </c>
     </row>
@@ -37984,10 +37985,10 @@
       <c r="W396">
         <v>395</v>
       </c>
-      <c r="X396" s="9" t="s">
+      <c r="X396" s="8" t="s">
         <v>3660</v>
       </c>
-      <c r="Z396" t="s">
+      <c r="Z396" s="9" t="s">
         <v>4250</v>
       </c>
     </row>
@@ -38043,10 +38044,10 @@
       <c r="W397">
         <v>396</v>
       </c>
-      <c r="X397" s="9" t="s">
+      <c r="X397" s="8" t="s">
         <v>3661</v>
       </c>
-      <c r="Z397" t="s">
+      <c r="Z397" s="9" t="s">
         <v>4251</v>
       </c>
     </row>
@@ -38102,10 +38103,10 @@
       <c r="W398">
         <v>397</v>
       </c>
-      <c r="X398" s="9" t="s">
+      <c r="X398" s="8" t="s">
         <v>3662</v>
       </c>
-      <c r="Z398" t="s">
+      <c r="Z398" s="9" t="s">
         <v>4252</v>
       </c>
     </row>
@@ -38161,10 +38162,10 @@
       <c r="W399">
         <v>398</v>
       </c>
-      <c r="X399" s="9" t="s">
+      <c r="X399" s="8" t="s">
         <v>3663</v>
       </c>
-      <c r="Z399" t="s">
+      <c r="Z399" s="9" t="s">
         <v>4253</v>
       </c>
     </row>
@@ -38220,10 +38221,10 @@
       <c r="W400">
         <v>399</v>
       </c>
-      <c r="X400" s="9" t="s">
+      <c r="X400" s="8" t="s">
         <v>3664</v>
       </c>
-      <c r="Z400" t="s">
+      <c r="Z400" s="9" t="s">
         <v>4254</v>
       </c>
     </row>
@@ -38279,10 +38280,10 @@
       <c r="W401">
         <v>400</v>
       </c>
-      <c r="X401" s="9" t="s">
+      <c r="X401" s="8" t="s">
         <v>3665</v>
       </c>
-      <c r="Z401" t="s">
+      <c r="Z401" s="9" t="s">
         <v>4255</v>
       </c>
     </row>
@@ -38338,10 +38339,10 @@
       <c r="W402">
         <v>401</v>
       </c>
-      <c r="X402" s="9" t="s">
+      <c r="X402" s="8" t="s">
         <v>3666</v>
       </c>
-      <c r="Z402" t="s">
+      <c r="Z402" s="9" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -38400,10 +38401,10 @@
       <c r="W403">
         <v>402</v>
       </c>
-      <c r="X403" s="9" t="s">
+      <c r="X403" s="8" t="s">
         <v>3667</v>
       </c>
-      <c r="Z403" t="s">
+      <c r="Z403" s="9" t="s">
         <v>4257</v>
       </c>
     </row>
@@ -38459,10 +38460,10 @@
       <c r="W404">
         <v>403</v>
       </c>
-      <c r="X404" s="9" t="s">
+      <c r="X404" s="8" t="s">
         <v>3668</v>
       </c>
-      <c r="Z404" t="s">
+      <c r="Z404" s="9" t="s">
         <v>4258</v>
       </c>
     </row>
@@ -38518,10 +38519,10 @@
       <c r="W405">
         <v>404</v>
       </c>
-      <c r="X405" s="9" t="s">
+      <c r="X405" s="8" t="s">
         <v>3669</v>
       </c>
-      <c r="Z405" t="s">
+      <c r="Z405" s="9" t="s">
         <v>4259</v>
       </c>
     </row>
@@ -38577,10 +38578,10 @@
       <c r="W406">
         <v>405</v>
       </c>
-      <c r="X406" s="9" t="s">
+      <c r="X406" s="8" t="s">
         <v>3670</v>
       </c>
-      <c r="Z406" t="s">
+      <c r="Z406" s="9" t="s">
         <v>4260</v>
       </c>
     </row>
@@ -38636,10 +38637,10 @@
       <c r="W407">
         <v>406</v>
       </c>
-      <c r="X407" s="9" t="s">
+      <c r="X407" s="8" t="s">
         <v>3671</v>
       </c>
-      <c r="Z407" t="s">
+      <c r="Z407" s="9" t="s">
         <v>4261</v>
       </c>
     </row>
@@ -38695,10 +38696,10 @@
       <c r="W408">
         <v>407</v>
       </c>
-      <c r="X408" s="9" t="s">
+      <c r="X408" s="8" t="s">
         <v>3672</v>
       </c>
-      <c r="Z408" t="s">
+      <c r="Z408" s="9" t="s">
         <v>4262</v>
       </c>
     </row>
@@ -38754,10 +38755,10 @@
       <c r="W409">
         <v>408</v>
       </c>
-      <c r="X409" s="9" t="s">
+      <c r="X409" s="8" t="s">
         <v>3673</v>
       </c>
-      <c r="Z409" t="s">
+      <c r="Z409" s="9" t="s">
         <v>4263</v>
       </c>
     </row>
@@ -38813,10 +38814,10 @@
       <c r="W410">
         <v>409</v>
       </c>
-      <c r="X410" s="9" t="s">
+      <c r="X410" s="8" t="s">
         <v>3674</v>
       </c>
-      <c r="Z410" t="s">
+      <c r="Z410" s="9" t="s">
         <v>4264</v>
       </c>
     </row>
@@ -38872,10 +38873,10 @@
       <c r="W411">
         <v>410</v>
       </c>
-      <c r="X411" s="9" t="s">
+      <c r="X411" s="8" t="s">
         <v>3675</v>
       </c>
-      <c r="Z411" t="s">
+      <c r="Z411" s="9" t="s">
         <v>4265</v>
       </c>
     </row>
@@ -38931,10 +38932,10 @@
       <c r="W412">
         <v>411</v>
       </c>
-      <c r="X412" s="9" t="s">
+      <c r="X412" s="8" t="s">
         <v>3676</v>
       </c>
-      <c r="Z412" t="s">
+      <c r="Z412" s="9" t="s">
         <v>4266</v>
       </c>
     </row>
@@ -38990,10 +38991,10 @@
       <c r="W413">
         <v>412</v>
       </c>
-      <c r="X413" s="9" t="s">
+      <c r="X413" s="8" t="s">
         <v>3677</v>
       </c>
-      <c r="Z413" t="s">
+      <c r="Z413" s="9" t="s">
         <v>4267</v>
       </c>
     </row>
@@ -39049,10 +39050,10 @@
       <c r="W414">
         <v>413</v>
       </c>
-      <c r="X414" s="9" t="s">
+      <c r="X414" s="8" t="s">
         <v>3678</v>
       </c>
-      <c r="Z414" t="s">
+      <c r="Z414" s="9" t="s">
         <v>4268</v>
       </c>
     </row>
@@ -39108,10 +39109,10 @@
       <c r="W415">
         <v>414</v>
       </c>
-      <c r="X415" s="9" t="s">
+      <c r="X415" s="8" t="s">
         <v>3679</v>
       </c>
-      <c r="Z415" t="s">
+      <c r="Z415" s="9" t="s">
         <v>4269</v>
       </c>
     </row>
@@ -39167,10 +39168,10 @@
       <c r="W416">
         <v>415</v>
       </c>
-      <c r="X416" s="9" t="s">
+      <c r="X416" s="8" t="s">
         <v>3680</v>
       </c>
-      <c r="Z416" t="s">
+      <c r="Z416" s="9" t="s">
         <v>4270</v>
       </c>
     </row>
@@ -39226,10 +39227,10 @@
       <c r="W417">
         <v>416</v>
       </c>
-      <c r="X417" s="9" t="s">
+      <c r="X417" s="8" t="s">
         <v>3681</v>
       </c>
-      <c r="Z417" t="s">
+      <c r="Z417" s="9" t="s">
         <v>4271</v>
       </c>
     </row>
@@ -39285,10 +39286,10 @@
       <c r="W418">
         <v>417</v>
       </c>
-      <c r="X418" s="9" t="s">
+      <c r="X418" s="8" t="s">
         <v>3682</v>
       </c>
-      <c r="Z418" t="s">
+      <c r="Z418" s="9" t="s">
         <v>4272</v>
       </c>
     </row>
@@ -39341,10 +39342,10 @@
       <c r="W419">
         <v>418</v>
       </c>
-      <c r="X419" s="9" t="s">
+      <c r="X419" s="8" t="s">
         <v>3683</v>
       </c>
-      <c r="Z419" t="s">
+      <c r="Z419" s="9" t="s">
         <v>4273</v>
       </c>
     </row>
@@ -39400,10 +39401,10 @@
       <c r="W420">
         <v>419</v>
       </c>
-      <c r="X420" s="9" t="s">
+      <c r="X420" s="8" t="s">
         <v>3684</v>
       </c>
-      <c r="Z420" t="s">
+      <c r="Z420" s="9" t="s">
         <v>4274</v>
       </c>
     </row>
@@ -39459,10 +39460,10 @@
       <c r="W421">
         <v>420</v>
       </c>
-      <c r="X421" s="9" t="s">
+      <c r="X421" s="8" t="s">
         <v>3685</v>
       </c>
-      <c r="Z421" t="s">
+      <c r="Z421" s="9" t="s">
         <v>4275</v>
       </c>
     </row>
@@ -39518,10 +39519,10 @@
       <c r="W422">
         <v>421</v>
       </c>
-      <c r="X422" s="9" t="s">
+      <c r="X422" s="8" t="s">
         <v>3686</v>
       </c>
-      <c r="Z422" t="s">
+      <c r="Z422" s="9" t="s">
         <v>4276</v>
       </c>
     </row>
@@ -39577,10 +39578,10 @@
       <c r="W423">
         <v>422</v>
       </c>
-      <c r="X423" s="9" t="s">
+      <c r="X423" s="8" t="s">
         <v>3687</v>
       </c>
-      <c r="Z423" t="s">
+      <c r="Z423" s="9" t="s">
         <v>4277</v>
       </c>
     </row>
@@ -39633,10 +39634,10 @@
       <c r="W424">
         <v>423</v>
       </c>
-      <c r="X424" s="9" t="s">
+      <c r="X424" s="8" t="s">
         <v>3688</v>
       </c>
-      <c r="Z424" t="s">
+      <c r="Z424" s="9" t="s">
         <v>4278</v>
       </c>
     </row>
@@ -39692,10 +39693,10 @@
       <c r="W425">
         <v>424</v>
       </c>
-      <c r="X425" s="9" t="s">
+      <c r="X425" s="8" t="s">
         <v>3689</v>
       </c>
-      <c r="Z425" t="s">
+      <c r="Z425" s="9" t="s">
         <v>4279</v>
       </c>
     </row>
@@ -39751,10 +39752,10 @@
       <c r="W426">
         <v>425</v>
       </c>
-      <c r="X426" s="9" t="s">
+      <c r="X426" s="8" t="s">
         <v>3690</v>
       </c>
-      <c r="Z426" t="s">
+      <c r="Z426" s="9" t="s">
         <v>4280</v>
       </c>
     </row>
@@ -39810,10 +39811,10 @@
       <c r="W427">
         <v>426</v>
       </c>
-      <c r="X427" s="9" t="s">
+      <c r="X427" s="8" t="s">
         <v>3691</v>
       </c>
-      <c r="Z427" t="s">
+      <c r="Z427" s="9" t="s">
         <v>4281</v>
       </c>
     </row>
@@ -39869,10 +39870,10 @@
       <c r="W428">
         <v>427</v>
       </c>
-      <c r="X428" s="9" t="s">
+      <c r="X428" s="8" t="s">
         <v>3692</v>
       </c>
-      <c r="Z428" t="s">
+      <c r="Z428" s="9" t="s">
         <v>4282</v>
       </c>
     </row>
@@ -39928,10 +39929,10 @@
       <c r="W429">
         <v>428</v>
       </c>
-      <c r="X429" s="9" t="s">
+      <c r="X429" s="8" t="s">
         <v>3693</v>
       </c>
-      <c r="Z429" t="s">
+      <c r="Z429" s="9" t="s">
         <v>4283</v>
       </c>
     </row>
@@ -39984,10 +39985,10 @@
       <c r="W430">
         <v>429</v>
       </c>
-      <c r="X430" s="9" t="s">
+      <c r="X430" s="8" t="s">
         <v>3694</v>
       </c>
-      <c r="Z430" t="s">
+      <c r="Z430" s="9" t="s">
         <v>4284</v>
       </c>
     </row>
@@ -40043,10 +40044,10 @@
       <c r="W431">
         <v>430</v>
       </c>
-      <c r="X431" s="9" t="s">
+      <c r="X431" s="8" t="s">
         <v>3695</v>
       </c>
-      <c r="Z431" t="s">
+      <c r="Z431" s="9" t="s">
         <v>4285</v>
       </c>
     </row>
@@ -40102,10 +40103,10 @@
       <c r="W432">
         <v>431</v>
       </c>
-      <c r="X432" s="9" t="s">
+      <c r="X432" s="8" t="s">
         <v>3696</v>
       </c>
-      <c r="Z432" t="s">
+      <c r="Z432" s="9" t="s">
         <v>4286</v>
       </c>
     </row>
@@ -40161,10 +40162,10 @@
       <c r="W433">
         <v>432</v>
       </c>
-      <c r="X433" s="9" t="s">
+      <c r="X433" s="8" t="s">
         <v>3697</v>
       </c>
-      <c r="Z433" t="s">
+      <c r="Z433" s="9" t="s">
         <v>4287</v>
       </c>
     </row>
@@ -40220,10 +40221,10 @@
       <c r="W434">
         <v>433</v>
       </c>
-      <c r="X434" s="9" t="s">
+      <c r="X434" s="8" t="s">
         <v>3698</v>
       </c>
-      <c r="Z434" t="s">
+      <c r="Z434" s="9" t="s">
         <v>4288</v>
       </c>
     </row>
@@ -40279,10 +40280,10 @@
       <c r="W435">
         <v>434</v>
       </c>
-      <c r="X435" s="9" t="s">
+      <c r="X435" s="8" t="s">
         <v>3699</v>
       </c>
-      <c r="Z435" t="s">
+      <c r="Z435" s="9" t="s">
         <v>4289</v>
       </c>
     </row>
@@ -40338,10 +40339,10 @@
       <c r="W436">
         <v>435</v>
       </c>
-      <c r="X436" s="9" t="s">
+      <c r="X436" s="8" t="s">
         <v>3700</v>
       </c>
-      <c r="Z436" t="s">
+      <c r="Z436" s="9" t="s">
         <v>4290</v>
       </c>
     </row>
@@ -40397,10 +40398,10 @@
       <c r="W437">
         <v>436</v>
       </c>
-      <c r="X437" s="9" t="s">
+      <c r="X437" s="8" t="s">
         <v>3701</v>
       </c>
-      <c r="Z437" t="s">
+      <c r="Z437" s="9" t="s">
         <v>4291</v>
       </c>
     </row>
@@ -40456,10 +40457,10 @@
       <c r="W438">
         <v>437</v>
       </c>
-      <c r="X438" s="9" t="s">
+      <c r="X438" s="8" t="s">
         <v>3702</v>
       </c>
-      <c r="Z438" t="s">
+      <c r="Z438" s="9" t="s">
         <v>4292</v>
       </c>
     </row>
@@ -40515,10 +40516,10 @@
       <c r="W439">
         <v>438</v>
       </c>
-      <c r="X439" s="9" t="s">
+      <c r="X439" s="8" t="s">
         <v>3703</v>
       </c>
-      <c r="Z439" t="s">
+      <c r="Z439" s="9" t="s">
         <v>4293</v>
       </c>
     </row>
@@ -40574,10 +40575,10 @@
       <c r="W440">
         <v>439</v>
       </c>
-      <c r="X440" s="9" t="s">
+      <c r="X440" s="8" t="s">
         <v>3704</v>
       </c>
-      <c r="Z440" t="s">
+      <c r="Z440" s="9" t="s">
         <v>4294</v>
       </c>
     </row>
@@ -40633,10 +40634,10 @@
       <c r="W441">
         <v>440</v>
       </c>
-      <c r="X441" s="9" t="s">
+      <c r="X441" s="8" t="s">
         <v>3705</v>
       </c>
-      <c r="Z441" t="s">
+      <c r="Z441" s="9" t="s">
         <v>4295</v>
       </c>
     </row>
@@ -40692,10 +40693,10 @@
       <c r="W442">
         <v>441</v>
       </c>
-      <c r="X442" s="9" t="s">
+      <c r="X442" s="8" t="s">
         <v>3706</v>
       </c>
-      <c r="Z442" t="s">
+      <c r="Z442" s="9" t="s">
         <v>4296</v>
       </c>
     </row>
@@ -40751,10 +40752,10 @@
       <c r="W443">
         <v>442</v>
       </c>
-      <c r="X443" s="9" t="s">
+      <c r="X443" s="8" t="s">
         <v>3707</v>
       </c>
-      <c r="Z443" t="s">
+      <c r="Z443" s="9" t="s">
         <v>4297</v>
       </c>
     </row>
@@ -40810,10 +40811,10 @@
       <c r="W444">
         <v>443</v>
       </c>
-      <c r="X444" s="9" t="s">
+      <c r="X444" s="8" t="s">
         <v>3708</v>
       </c>
-      <c r="Z444" t="s">
+      <c r="Z444" s="9" t="s">
         <v>4298</v>
       </c>
     </row>
@@ -40869,10 +40870,10 @@
       <c r="W445">
         <v>444</v>
       </c>
-      <c r="X445" s="9" t="s">
+      <c r="X445" s="8" t="s">
         <v>3709</v>
       </c>
-      <c r="Z445" t="s">
+      <c r="Z445" s="9" t="s">
         <v>4299</v>
       </c>
     </row>
@@ -40928,10 +40929,10 @@
       <c r="W446">
         <v>445</v>
       </c>
-      <c r="X446" s="9" t="s">
+      <c r="X446" s="8" t="s">
         <v>3710</v>
       </c>
-      <c r="Z446" t="s">
+      <c r="Z446" s="9" t="s">
         <v>4300</v>
       </c>
     </row>
@@ -40987,10 +40988,10 @@
       <c r="W447">
         <v>446</v>
       </c>
-      <c r="X447" s="9" t="s">
+      <c r="X447" s="8" t="s">
         <v>3711</v>
       </c>
-      <c r="Z447" t="s">
+      <c r="Z447" s="9" t="s">
         <v>4301</v>
       </c>
     </row>
@@ -41046,10 +41047,10 @@
       <c r="W448">
         <v>447</v>
       </c>
-      <c r="X448" s="9" t="s">
+      <c r="X448" s="8" t="s">
         <v>3712</v>
       </c>
-      <c r="Z448" t="s">
+      <c r="Z448" s="9" t="s">
         <v>4302</v>
       </c>
     </row>
@@ -41105,10 +41106,10 @@
       <c r="W449">
         <v>448</v>
       </c>
-      <c r="X449" s="9" t="s">
+      <c r="X449" s="8" t="s">
         <v>3713</v>
       </c>
-      <c r="Z449" t="s">
+      <c r="Z449" s="9" t="s">
         <v>4303</v>
       </c>
     </row>
@@ -41161,10 +41162,10 @@
       <c r="W450">
         <v>449</v>
       </c>
-      <c r="X450" s="9" t="s">
+      <c r="X450" s="8" t="s">
         <v>3714</v>
       </c>
-      <c r="Z450" t="s">
+      <c r="Z450" s="9" t="s">
         <v>4304</v>
       </c>
     </row>
@@ -41220,10 +41221,10 @@
       <c r="W451">
         <v>450</v>
       </c>
-      <c r="X451" s="9" t="s">
+      <c r="X451" s="8" t="s">
         <v>3715</v>
       </c>
-      <c r="Z451" t="s">
+      <c r="Z451" s="9" t="s">
         <v>4305</v>
       </c>
     </row>
@@ -41279,10 +41280,10 @@
       <c r="W452">
         <v>451</v>
       </c>
-      <c r="X452" s="9" t="s">
+      <c r="X452" s="8" t="s">
         <v>3716</v>
       </c>
-      <c r="Z452" t="s">
+      <c r="Z452" s="9" t="s">
         <v>4306</v>
       </c>
     </row>
@@ -41335,10 +41336,10 @@
       <c r="W453">
         <v>452</v>
       </c>
-      <c r="X453" s="9" t="s">
+      <c r="X453" s="8" t="s">
         <v>3717</v>
       </c>
-      <c r="Z453" t="s">
+      <c r="Z453" s="9" t="s">
         <v>4307</v>
       </c>
     </row>
@@ -41394,10 +41395,10 @@
       <c r="W454">
         <v>453</v>
       </c>
-      <c r="X454" s="9" t="s">
+      <c r="X454" s="8" t="s">
         <v>3718</v>
       </c>
-      <c r="Z454" t="s">
+      <c r="Z454" s="9" t="s">
         <v>4308</v>
       </c>
     </row>
@@ -41453,10 +41454,10 @@
       <c r="W455">
         <v>454</v>
       </c>
-      <c r="X455" s="9" t="s">
+      <c r="X455" s="8" t="s">
         <v>3719</v>
       </c>
-      <c r="Z455" t="s">
+      <c r="Z455" s="9" t="s">
         <v>4309</v>
       </c>
     </row>
@@ -41512,10 +41513,10 @@
       <c r="W456">
         <v>455</v>
       </c>
-      <c r="X456" s="9" t="s">
+      <c r="X456" s="8" t="s">
         <v>3720</v>
       </c>
-      <c r="Z456" t="s">
+      <c r="Z456" s="9" t="s">
         <v>4310</v>
       </c>
     </row>
@@ -41571,10 +41572,10 @@
       <c r="W457">
         <v>456</v>
       </c>
-      <c r="X457" s="9" t="s">
+      <c r="X457" s="8" t="s">
         <v>3721</v>
       </c>
-      <c r="Z457" t="s">
+      <c r="Z457" s="9" t="s">
         <v>4311</v>
       </c>
     </row>
@@ -41630,10 +41631,10 @@
       <c r="W458">
         <v>457</v>
       </c>
-      <c r="X458" s="9" t="s">
+      <c r="X458" s="8" t="s">
         <v>3722</v>
       </c>
-      <c r="Z458" t="s">
+      <c r="Z458" s="9" t="s">
         <v>4312</v>
       </c>
     </row>
@@ -41686,10 +41687,10 @@
       <c r="W459">
         <v>458</v>
       </c>
-      <c r="X459" s="9" t="s">
+      <c r="X459" s="8" t="s">
         <v>3723</v>
       </c>
-      <c r="Z459" t="s">
+      <c r="Z459" s="9" t="s">
         <v>4313</v>
       </c>
     </row>
@@ -41748,10 +41749,10 @@
       <c r="W460">
         <v>459</v>
       </c>
-      <c r="X460" s="9" t="s">
+      <c r="X460" s="8" t="s">
         <v>3724</v>
       </c>
-      <c r="Z460" t="s">
+      <c r="Z460" s="9" t="s">
         <v>4314</v>
       </c>
     </row>
@@ -41810,10 +41811,10 @@
       <c r="W461">
         <v>460</v>
       </c>
-      <c r="X461" s="9" t="s">
+      <c r="X461" s="8" t="s">
         <v>3725</v>
       </c>
-      <c r="Z461" t="s">
+      <c r="Z461" s="9" t="s">
         <v>4315</v>
       </c>
     </row>
@@ -41872,10 +41873,10 @@
       <c r="W462">
         <v>461</v>
       </c>
-      <c r="X462" s="9" t="s">
+      <c r="X462" s="8" t="s">
         <v>3726</v>
       </c>
-      <c r="Z462" t="s">
+      <c r="Z462" s="9" t="s">
         <v>4316</v>
       </c>
     </row>
@@ -41934,10 +41935,10 @@
       <c r="W463">
         <v>462</v>
       </c>
-      <c r="X463" s="9" t="s">
+      <c r="X463" s="8" t="s">
         <v>3727</v>
       </c>
-      <c r="Z463" t="s">
+      <c r="Z463" s="9" t="s">
         <v>4317</v>
       </c>
     </row>
@@ -41996,10 +41997,10 @@
       <c r="W464">
         <v>463</v>
       </c>
-      <c r="X464" s="9" t="s">
+      <c r="X464" s="8" t="s">
         <v>3728</v>
       </c>
-      <c r="Z464" t="s">
+      <c r="Z464" s="9" t="s">
         <v>4318</v>
       </c>
     </row>
@@ -42058,10 +42059,10 @@
       <c r="W465">
         <v>464</v>
       </c>
-      <c r="X465" s="9" t="s">
+      <c r="X465" s="8" t="s">
         <v>3729</v>
       </c>
-      <c r="Z465" t="s">
+      <c r="Z465" s="9" t="s">
         <v>4319</v>
       </c>
     </row>
@@ -42120,10 +42121,10 @@
       <c r="W466">
         <v>465</v>
       </c>
-      <c r="X466" s="9" t="s">
+      <c r="X466" s="8" t="s">
         <v>3730</v>
       </c>
-      <c r="Z466" t="s">
+      <c r="Z466" s="9" t="s">
         <v>4320</v>
       </c>
     </row>
@@ -42185,10 +42186,10 @@
       <c r="W467">
         <v>466</v>
       </c>
-      <c r="X467" s="9" t="s">
+      <c r="X467" s="8" t="s">
         <v>3731</v>
       </c>
-      <c r="Z467" t="s">
+      <c r="Z467" s="9" t="s">
         <v>4321</v>
       </c>
     </row>
@@ -42250,10 +42251,10 @@
       <c r="W468">
         <v>467</v>
       </c>
-      <c r="X468" s="9" t="s">
+      <c r="X468" s="8" t="s">
         <v>3732</v>
       </c>
-      <c r="Z468" t="s">
+      <c r="Z468" s="9" t="s">
         <v>4322</v>
       </c>
     </row>
@@ -42312,10 +42313,10 @@
       <c r="W469">
         <v>468</v>
       </c>
-      <c r="X469" s="9" t="s">
+      <c r="X469" s="8" t="s">
         <v>3733</v>
       </c>
-      <c r="Z469" t="s">
+      <c r="Z469" s="9" t="s">
         <v>4323</v>
       </c>
     </row>
@@ -42371,10 +42372,10 @@
       <c r="W470">
         <v>469</v>
       </c>
-      <c r="X470" s="9" t="s">
+      <c r="X470" s="8" t="s">
         <v>3734</v>
       </c>
-      <c r="Z470" t="s">
+      <c r="Z470" s="9" t="s">
         <v>4324</v>
       </c>
     </row>
@@ -42433,10 +42434,10 @@
       <c r="W471">
         <v>470</v>
       </c>
-      <c r="X471" s="9" t="s">
+      <c r="X471" s="8" t="s">
         <v>3735</v>
       </c>
-      <c r="Z471" t="s">
+      <c r="Z471" s="9" t="s">
         <v>4325</v>
       </c>
     </row>
@@ -42492,10 +42493,10 @@
       <c r="W472">
         <v>471</v>
       </c>
-      <c r="X472" s="9" t="s">
+      <c r="X472" s="8" t="s">
         <v>3736</v>
       </c>
-      <c r="Z472" t="s">
+      <c r="Z472" s="9" t="s">
         <v>4326</v>
       </c>
     </row>
@@ -42551,10 +42552,10 @@
       <c r="W473">
         <v>472</v>
       </c>
-      <c r="X473" s="9" t="s">
+      <c r="X473" s="8" t="s">
         <v>3737</v>
       </c>
-      <c r="Z473" t="s">
+      <c r="Z473" s="9" t="s">
         <v>4327</v>
       </c>
     </row>
@@ -42613,10 +42614,10 @@
       <c r="W474">
         <v>473</v>
       </c>
-      <c r="X474" s="9" t="s">
+      <c r="X474" s="8" t="s">
         <v>3738</v>
       </c>
-      <c r="Z474" t="s">
+      <c r="Z474" s="9" t="s">
         <v>4328</v>
       </c>
     </row>
@@ -42675,10 +42676,10 @@
       <c r="W475">
         <v>474</v>
       </c>
-      <c r="X475" s="9" t="s">
+      <c r="X475" s="8" t="s">
         <v>3739</v>
       </c>
-      <c r="Z475" t="s">
+      <c r="Z475" s="9" t="s">
         <v>4329</v>
       </c>
     </row>
@@ -42737,10 +42738,10 @@
       <c r="W476">
         <v>475</v>
       </c>
-      <c r="X476" s="9" t="s">
+      <c r="X476" s="8" t="s">
         <v>3740</v>
       </c>
-      <c r="Z476" t="s">
+      <c r="Z476" s="9" t="s">
         <v>4330</v>
       </c>
     </row>
@@ -42799,10 +42800,10 @@
       <c r="W477">
         <v>476</v>
       </c>
-      <c r="X477" s="9" t="s">
+      <c r="X477" s="8" t="s">
         <v>3741</v>
       </c>
-      <c r="Z477" t="s">
+      <c r="Z477" s="9" t="s">
         <v>4331</v>
       </c>
     </row>
@@ -42861,10 +42862,10 @@
       <c r="W478">
         <v>477</v>
       </c>
-      <c r="X478" s="9" t="s">
+      <c r="X478" s="8" t="s">
         <v>3742</v>
       </c>
-      <c r="Z478" t="s">
+      <c r="Z478" s="9" t="s">
         <v>4332</v>
       </c>
     </row>
@@ -42923,10 +42924,10 @@
       <c r="W479">
         <v>478</v>
       </c>
-      <c r="X479" s="9" t="s">
+      <c r="X479" s="8" t="s">
         <v>3743</v>
       </c>
-      <c r="Z479" t="s">
+      <c r="Z479" s="9" t="s">
         <v>4333</v>
       </c>
     </row>
@@ -42982,10 +42983,10 @@
       <c r="W480">
         <v>479</v>
       </c>
-      <c r="X480" s="9" t="s">
+      <c r="X480" s="8" t="s">
         <v>3744</v>
       </c>
-      <c r="Z480" t="s">
+      <c r="Z480" s="9" t="s">
         <v>4334</v>
       </c>
     </row>
@@ -43041,10 +43042,10 @@
       <c r="W481">
         <v>480</v>
       </c>
-      <c r="X481" s="9" t="s">
+      <c r="X481" s="8" t="s">
         <v>3745</v>
       </c>
-      <c r="Z481" t="s">
+      <c r="Z481" s="9" t="s">
         <v>4335</v>
       </c>
     </row>
@@ -43103,10 +43104,10 @@
       <c r="W482">
         <v>481</v>
       </c>
-      <c r="X482" s="9" t="s">
+      <c r="X482" s="8" t="s">
         <v>3746</v>
       </c>
-      <c r="Z482" t="s">
+      <c r="Z482" s="9" t="s">
         <v>4336</v>
       </c>
     </row>
@@ -43162,10 +43163,10 @@
       <c r="W483">
         <v>482</v>
       </c>
-      <c r="X483" s="9" t="s">
+      <c r="X483" s="8" t="s">
         <v>3747</v>
       </c>
-      <c r="Z483" t="s">
+      <c r="Z483" s="9" t="s">
         <v>4337</v>
       </c>
     </row>
@@ -43224,10 +43225,10 @@
       <c r="W484">
         <v>483</v>
       </c>
-      <c r="X484" s="9" t="s">
+      <c r="X484" s="8" t="s">
         <v>3748</v>
       </c>
-      <c r="Z484" t="s">
+      <c r="Z484" s="9" t="s">
         <v>4338</v>
       </c>
     </row>
@@ -43280,10 +43281,10 @@
       <c r="W485">
         <v>484</v>
       </c>
-      <c r="X485" s="9" t="s">
+      <c r="X485" s="8" t="s">
         <v>3749</v>
       </c>
-      <c r="Z485" t="s">
+      <c r="Z485" s="9" t="s">
         <v>4339</v>
       </c>
     </row>
@@ -43339,10 +43340,10 @@
       <c r="W486">
         <v>485</v>
       </c>
-      <c r="X486" s="9" t="s">
+      <c r="X486" s="8" t="s">
         <v>3750</v>
       </c>
-      <c r="Z486" t="s">
+      <c r="Z486" s="9" t="s">
         <v>4340</v>
       </c>
     </row>
@@ -43398,10 +43399,10 @@
       <c r="W487">
         <v>486</v>
       </c>
-      <c r="X487" s="9" t="s">
+      <c r="X487" s="8" t="s">
         <v>3751</v>
       </c>
-      <c r="Z487" t="s">
+      <c r="Z487" s="9" t="s">
         <v>4341</v>
       </c>
     </row>
@@ -43457,10 +43458,10 @@
       <c r="W488">
         <v>487</v>
       </c>
-      <c r="X488" s="9" t="s">
+      <c r="X488" s="8" t="s">
         <v>3752</v>
       </c>
-      <c r="Z488" t="s">
+      <c r="Z488" s="9" t="s">
         <v>4342</v>
       </c>
     </row>
@@ -43513,10 +43514,10 @@
       <c r="W489">
         <v>488</v>
       </c>
-      <c r="X489" s="9" t="s">
+      <c r="X489" s="8" t="s">
         <v>3753</v>
       </c>
-      <c r="Z489" t="s">
+      <c r="Z489" s="9" t="s">
         <v>4343</v>
       </c>
     </row>
@@ -43572,10 +43573,10 @@
       <c r="W490">
         <v>489</v>
       </c>
-      <c r="X490" s="9" t="s">
+      <c r="X490" s="8" t="s">
         <v>3754</v>
       </c>
-      <c r="Z490" t="s">
+      <c r="Z490" s="9" t="s">
         <v>4344</v>
       </c>
     </row>
@@ -43634,10 +43635,10 @@
       <c r="W491">
         <v>490</v>
       </c>
-      <c r="X491" s="9" t="s">
+      <c r="X491" s="8" t="s">
         <v>3755</v>
       </c>
-      <c r="Z491" t="s">
+      <c r="Z491" s="9" t="s">
         <v>4345</v>
       </c>
     </row>
@@ -43696,10 +43697,10 @@
       <c r="W492">
         <v>491</v>
       </c>
-      <c r="X492" s="9" t="s">
+      <c r="X492" s="8" t="s">
         <v>3756</v>
       </c>
-      <c r="Z492" t="s">
+      <c r="Z492" s="9" t="s">
         <v>4346</v>
       </c>
     </row>
@@ -43755,10 +43756,10 @@
       <c r="W493">
         <v>492</v>
       </c>
-      <c r="X493" s="9" t="s">
+      <c r="X493" s="8" t="s">
         <v>3757</v>
       </c>
-      <c r="Z493" t="s">
+      <c r="Z493" s="9" t="s">
         <v>4347</v>
       </c>
     </row>
@@ -43817,10 +43818,10 @@
       <c r="W494">
         <v>493</v>
       </c>
-      <c r="X494" s="9" t="s">
+      <c r="X494" s="8" t="s">
         <v>3758</v>
       </c>
-      <c r="Z494" t="s">
+      <c r="Z494" s="9" t="s">
         <v>4348</v>
       </c>
     </row>
@@ -43876,10 +43877,10 @@
       <c r="W495">
         <v>494</v>
       </c>
-      <c r="X495" s="9" t="s">
+      <c r="X495" s="8" t="s">
         <v>3759</v>
       </c>
-      <c r="Z495" t="s">
+      <c r="Z495" s="9" t="s">
         <v>4349</v>
       </c>
     </row>
@@ -43935,10 +43936,10 @@
       <c r="W496">
         <v>495</v>
       </c>
-      <c r="X496" s="9" t="s">
+      <c r="X496" s="8" t="s">
         <v>3760</v>
       </c>
-      <c r="Z496" t="s">
+      <c r="Z496" s="9" t="s">
         <v>4350</v>
       </c>
     </row>
@@ -43994,10 +43995,10 @@
       <c r="W497">
         <v>496</v>
       </c>
-      <c r="X497" s="9" t="s">
+      <c r="X497" s="8" t="s">
         <v>3761</v>
       </c>
-      <c r="Z497" t="s">
+      <c r="Z497" s="9" t="s">
         <v>4351</v>
       </c>
     </row>
@@ -44053,10 +44054,10 @@
       <c r="W498">
         <v>497</v>
       </c>
-      <c r="X498" s="9" t="s">
+      <c r="X498" s="8" t="s">
         <v>3762</v>
       </c>
-      <c r="Z498" t="s">
+      <c r="Z498" s="9" t="s">
         <v>4352</v>
       </c>
     </row>
@@ -44112,10 +44113,10 @@
       <c r="W499">
         <v>498</v>
       </c>
-      <c r="X499" s="9" t="s">
+      <c r="X499" s="8" t="s">
         <v>3763</v>
       </c>
-      <c r="Z499" t="s">
+      <c r="Z499" s="9" t="s">
         <v>4353</v>
       </c>
     </row>
@@ -44171,10 +44172,10 @@
       <c r="W500">
         <v>499</v>
       </c>
-      <c r="X500" s="9" t="s">
+      <c r="X500" s="8" t="s">
         <v>3764</v>
       </c>
-      <c r="Z500" t="s">
+      <c r="Z500" s="9" t="s">
         <v>4354</v>
       </c>
     </row>
@@ -44233,10 +44234,10 @@
       <c r="W501">
         <v>500</v>
       </c>
-      <c r="X501" s="9" t="s">
+      <c r="X501" s="8" t="s">
         <v>3765</v>
       </c>
-      <c r="Z501" t="s">
+      <c r="Z501" s="9" t="s">
         <v>4355</v>
       </c>
     </row>
@@ -44292,10 +44293,10 @@
       <c r="W502">
         <v>501</v>
       </c>
-      <c r="X502" s="9" t="s">
+      <c r="X502" s="8" t="s">
         <v>3766</v>
       </c>
-      <c r="Z502" t="s">
+      <c r="Z502" s="9" t="s">
         <v>4356</v>
       </c>
     </row>
@@ -44351,10 +44352,10 @@
       <c r="W503">
         <v>502</v>
       </c>
-      <c r="X503" s="9" t="s">
+      <c r="X503" s="8" t="s">
         <v>3767</v>
       </c>
-      <c r="Z503" t="s">
+      <c r="Z503" s="9" t="s">
         <v>4357</v>
       </c>
     </row>
@@ -44413,10 +44414,10 @@
       <c r="W504">
         <v>503</v>
       </c>
-      <c r="X504" s="9" t="s">
+      <c r="X504" s="8" t="s">
         <v>3768</v>
       </c>
-      <c r="Z504" t="s">
+      <c r="Z504" s="9" t="s">
         <v>4358</v>
       </c>
     </row>
@@ -44472,10 +44473,10 @@
       <c r="W505">
         <v>504</v>
       </c>
-      <c r="X505" s="9" t="s">
+      <c r="X505" s="8" t="s">
         <v>3769</v>
       </c>
-      <c r="Z505" t="s">
+      <c r="Z505" s="9" t="s">
         <v>4359</v>
       </c>
     </row>
@@ -44528,10 +44529,10 @@
       <c r="W506">
         <v>505</v>
       </c>
-      <c r="X506" s="9" t="s">
+      <c r="X506" s="8" t="s">
         <v>3770</v>
       </c>
-      <c r="Z506" t="s">
+      <c r="Z506" s="9" t="s">
         <v>4360</v>
       </c>
     </row>
@@ -44587,10 +44588,10 @@
       <c r="W507">
         <v>506</v>
       </c>
-      <c r="X507" s="9" t="s">
+      <c r="X507" s="8" t="s">
         <v>3771</v>
       </c>
-      <c r="Z507" t="s">
+      <c r="Z507" s="9" t="s">
         <v>4361</v>
       </c>
     </row>
@@ -44646,10 +44647,10 @@
       <c r="W508">
         <v>507</v>
       </c>
-      <c r="X508" s="9" t="s">
+      <c r="X508" s="8" t="s">
         <v>3772</v>
       </c>
-      <c r="Z508" t="s">
+      <c r="Z508" s="9" t="s">
         <v>4362</v>
       </c>
     </row>
@@ -44705,10 +44706,10 @@
       <c r="W509">
         <v>508</v>
       </c>
-      <c r="X509" s="9" t="s">
+      <c r="X509" s="8" t="s">
         <v>3773</v>
       </c>
-      <c r="Z509" t="s">
+      <c r="Z509" s="9" t="s">
         <v>4363</v>
       </c>
     </row>
@@ -44764,10 +44765,10 @@
       <c r="W510">
         <v>509</v>
       </c>
-      <c r="X510" s="9" t="s">
+      <c r="X510" s="8" t="s">
         <v>3774</v>
       </c>
-      <c r="Z510" t="s">
+      <c r="Z510" s="9" t="s">
         <v>4364</v>
       </c>
     </row>
@@ -44826,10 +44827,10 @@
       <c r="W511">
         <v>510</v>
       </c>
-      <c r="X511" s="9" t="s">
+      <c r="X511" s="8" t="s">
         <v>3775</v>
       </c>
-      <c r="Z511" t="s">
+      <c r="Z511" s="9" t="s">
         <v>4365</v>
       </c>
     </row>
@@ -44888,10 +44889,10 @@
       <c r="W512">
         <v>511</v>
       </c>
-      <c r="X512" s="9" t="s">
+      <c r="X512" s="8" t="s">
         <v>3776</v>
       </c>
-      <c r="Z512" t="s">
+      <c r="Z512" s="9" t="s">
         <v>4366</v>
       </c>
     </row>
@@ -44947,10 +44948,10 @@
       <c r="W513">
         <v>512</v>
       </c>
-      <c r="X513" s="9" t="s">
+      <c r="X513" s="8" t="s">
         <v>3777</v>
       </c>
-      <c r="Z513" t="s">
+      <c r="Z513" s="9" t="s">
         <v>4367</v>
       </c>
     </row>
@@ -45006,10 +45007,10 @@
       <c r="W514">
         <v>513</v>
       </c>
-      <c r="X514" s="9" t="s">
+      <c r="X514" s="8" t="s">
         <v>3778</v>
       </c>
-      <c r="Z514" t="s">
+      <c r="Z514" s="9" t="s">
         <v>4368</v>
       </c>
     </row>
@@ -45071,10 +45072,10 @@
       <c r="W515">
         <v>514</v>
       </c>
-      <c r="X515" s="9" t="s">
+      <c r="X515" s="8" t="s">
         <v>3779</v>
       </c>
-      <c r="Z515" t="s">
+      <c r="Z515" s="9" t="s">
         <v>4369</v>
       </c>
     </row>
@@ -45133,10 +45134,10 @@
       <c r="W516">
         <v>515</v>
       </c>
-      <c r="X516" s="9" t="s">
+      <c r="X516" s="8" t="s">
         <v>3780</v>
       </c>
-      <c r="Z516" t="s">
+      <c r="Z516" s="9" t="s">
         <v>4370</v>
       </c>
     </row>
@@ -45192,10 +45193,10 @@
       <c r="W517">
         <v>516</v>
       </c>
-      <c r="X517" s="9" t="s">
+      <c r="X517" s="8" t="s">
         <v>3781</v>
       </c>
-      <c r="Z517" t="s">
+      <c r="Z517" s="9" t="s">
         <v>4371</v>
       </c>
     </row>
@@ -45251,10 +45252,10 @@
       <c r="W518">
         <v>517</v>
       </c>
-      <c r="X518" s="9" t="s">
+      <c r="X518" s="8" t="s">
         <v>3782</v>
       </c>
-      <c r="Z518" t="s">
+      <c r="Z518" s="9" t="s">
         <v>4372</v>
       </c>
     </row>
@@ -45313,10 +45314,10 @@
       <c r="W519">
         <v>518</v>
       </c>
-      <c r="X519" s="9" t="s">
+      <c r="X519" s="8" t="s">
         <v>3783</v>
       </c>
-      <c r="Z519" t="s">
+      <c r="Z519" s="9" t="s">
         <v>4373</v>
       </c>
     </row>
@@ -45372,10 +45373,10 @@
       <c r="W520">
         <v>519</v>
       </c>
-      <c r="X520" s="9" t="s">
+      <c r="X520" s="8" t="s">
         <v>3784</v>
       </c>
-      <c r="Z520" t="s">
+      <c r="Z520" s="9" t="s">
         <v>4374</v>
       </c>
     </row>
@@ -45434,10 +45435,10 @@
       <c r="W521">
         <v>520</v>
       </c>
-      <c r="X521" s="9" t="s">
+      <c r="X521" s="8" t="s">
         <v>3785</v>
       </c>
-      <c r="Z521" t="s">
+      <c r="Z521" s="9" t="s">
         <v>4375</v>
       </c>
     </row>
@@ -45490,10 +45491,10 @@
       <c r="W522">
         <v>521</v>
       </c>
-      <c r="X522" s="9" t="s">
+      <c r="X522" s="8" t="s">
         <v>3786</v>
       </c>
-      <c r="Z522" t="s">
+      <c r="Z522" s="9" t="s">
         <v>4376</v>
       </c>
     </row>
@@ -45552,10 +45553,10 @@
       <c r="W523">
         <v>522</v>
       </c>
-      <c r="X523" s="9" t="s">
+      <c r="X523" s="8" t="s">
         <v>3787</v>
       </c>
-      <c r="Z523" t="s">
+      <c r="Z523" s="9" t="s">
         <v>4377</v>
       </c>
     </row>
@@ -45614,10 +45615,10 @@
       <c r="W524">
         <v>523</v>
       </c>
-      <c r="X524" s="9" t="s">
+      <c r="X524" s="8" t="s">
         <v>3788</v>
       </c>
-      <c r="Z524" t="s">
+      <c r="Z524" s="9" t="s">
         <v>4378</v>
       </c>
     </row>
@@ -45673,10 +45674,10 @@
       <c r="W525">
         <v>524</v>
       </c>
-      <c r="X525" s="9" t="s">
+      <c r="X525" s="8" t="s">
         <v>3789</v>
       </c>
-      <c r="Z525" t="s">
+      <c r="Z525" s="9" t="s">
         <v>4379</v>
       </c>
     </row>
@@ -45735,10 +45736,10 @@
       <c r="W526">
         <v>525</v>
       </c>
-      <c r="X526" s="9" t="s">
+      <c r="X526" s="8" t="s">
         <v>3790</v>
       </c>
-      <c r="Z526" t="s">
+      <c r="Z526" s="9" t="s">
         <v>4380</v>
       </c>
     </row>
@@ -45791,10 +45792,10 @@
       <c r="W527">
         <v>526</v>
       </c>
-      <c r="X527" s="9" t="s">
+      <c r="X527" s="8" t="s">
         <v>3791</v>
       </c>
-      <c r="Z527" t="s">
+      <c r="Z527" s="9" t="s">
         <v>4381</v>
       </c>
     </row>
@@ -45853,10 +45854,10 @@
       <c r="W528">
         <v>527</v>
       </c>
-      <c r="X528" s="9" t="s">
+      <c r="X528" s="8" t="s">
         <v>3792</v>
       </c>
-      <c r="Z528" t="s">
+      <c r="Z528" s="9" t="s">
         <v>4382</v>
       </c>
     </row>
@@ -45912,10 +45913,10 @@
       <c r="W529">
         <v>528</v>
       </c>
-      <c r="X529" s="9" t="s">
+      <c r="X529" s="8" t="s">
         <v>3793</v>
       </c>
-      <c r="Z529" t="s">
+      <c r="Z529" s="9" t="s">
         <v>4383</v>
       </c>
     </row>
@@ -45971,10 +45972,10 @@
       <c r="W530">
         <v>529</v>
       </c>
-      <c r="X530" s="9" t="s">
+      <c r="X530" s="8" t="s">
         <v>3794</v>
       </c>
-      <c r="Z530" t="s">
+      <c r="Z530" s="9" t="s">
         <v>4384</v>
       </c>
     </row>
@@ -46033,10 +46034,10 @@
       <c r="W531">
         <v>530</v>
       </c>
-      <c r="X531" s="9" t="s">
+      <c r="X531" s="8" t="s">
         <v>3795</v>
       </c>
-      <c r="Z531" t="s">
+      <c r="Z531" s="9" t="s">
         <v>4385</v>
       </c>
     </row>
@@ -46092,10 +46093,10 @@
       <c r="W532">
         <v>531</v>
       </c>
-      <c r="X532" s="9" t="s">
+      <c r="X532" s="8" t="s">
         <v>3796</v>
       </c>
-      <c r="Z532" t="s">
+      <c r="Z532" s="9" t="s">
         <v>4386</v>
       </c>
     </row>
@@ -46154,10 +46155,10 @@
       <c r="W533">
         <v>532</v>
       </c>
-      <c r="X533" s="9" t="s">
+      <c r="X533" s="8" t="s">
         <v>3797</v>
       </c>
-      <c r="Z533" t="s">
+      <c r="Z533" s="9" t="s">
         <v>4387</v>
       </c>
     </row>
@@ -46216,10 +46217,10 @@
       <c r="W534">
         <v>533</v>
       </c>
-      <c r="X534" s="9" t="s">
+      <c r="X534" s="8" t="s">
         <v>3798</v>
       </c>
-      <c r="Z534" t="s">
+      <c r="Z534" s="9" t="s">
         <v>4388</v>
       </c>
     </row>
@@ -46275,10 +46276,10 @@
       <c r="W535">
         <v>534</v>
       </c>
-      <c r="X535" s="9" t="s">
+      <c r="X535" s="8" t="s">
         <v>3799</v>
       </c>
-      <c r="Z535" t="s">
+      <c r="Z535" s="9" t="s">
         <v>4389</v>
       </c>
     </row>
@@ -46334,10 +46335,10 @@
       <c r="W536">
         <v>535</v>
       </c>
-      <c r="X536" s="9" t="s">
+      <c r="X536" s="8" t="s">
         <v>3800</v>
       </c>
-      <c r="Z536" t="s">
+      <c r="Z536" s="9" t="s">
         <v>4390</v>
       </c>
     </row>
@@ -46396,10 +46397,10 @@
       <c r="W537">
         <v>536</v>
       </c>
-      <c r="X537" s="9" t="s">
+      <c r="X537" s="8" t="s">
         <v>3801</v>
       </c>
-      <c r="Z537" t="s">
+      <c r="Z537" s="9" t="s">
         <v>4391</v>
       </c>
     </row>
@@ -46455,10 +46456,10 @@
       <c r="W538">
         <v>537</v>
       </c>
-      <c r="X538" s="9" t="s">
+      <c r="X538" s="8" t="s">
         <v>3802</v>
       </c>
-      <c r="Z538" t="s">
+      <c r="Z538" s="9" t="s">
         <v>4392</v>
       </c>
     </row>
@@ -46517,10 +46518,10 @@
       <c r="W539">
         <v>538</v>
       </c>
-      <c r="X539" s="9" t="s">
+      <c r="X539" s="8" t="s">
         <v>3803</v>
       </c>
-      <c r="Z539" t="s">
+      <c r="Z539" s="9" t="s">
         <v>4393</v>
       </c>
     </row>
@@ -46579,10 +46580,10 @@
       <c r="W540">
         <v>539</v>
       </c>
-      <c r="X540" s="9" t="s">
+      <c r="X540" s="8" t="s">
         <v>3804</v>
       </c>
-      <c r="Z540" t="s">
+      <c r="Z540" s="9" t="s">
         <v>4394</v>
       </c>
     </row>
@@ -46638,10 +46639,10 @@
       <c r="W541">
         <v>540</v>
       </c>
-      <c r="X541" s="9" t="s">
+      <c r="X541" s="8" t="s">
         <v>3805</v>
       </c>
-      <c r="Z541" t="s">
+      <c r="Z541" s="9" t="s">
         <v>4395</v>
       </c>
     </row>
@@ -46697,10 +46698,10 @@
       <c r="W542">
         <v>541</v>
       </c>
-      <c r="X542" s="9" t="s">
+      <c r="X542" s="8" t="s">
         <v>3806</v>
       </c>
-      <c r="Z542" t="s">
+      <c r="Z542" s="9" t="s">
         <v>4396</v>
       </c>
     </row>
@@ -46756,10 +46757,10 @@
       <c r="W543">
         <v>542</v>
       </c>
-      <c r="X543" s="9" t="s">
+      <c r="X543" s="8" t="s">
         <v>3807</v>
       </c>
-      <c r="Z543" t="s">
+      <c r="Z543" s="9" t="s">
         <v>4397</v>
       </c>
     </row>
@@ -46815,10 +46816,10 @@
       <c r="W544">
         <v>543</v>
       </c>
-      <c r="X544" s="9" t="s">
+      <c r="X544" s="8" t="s">
         <v>3808</v>
       </c>
-      <c r="Z544" t="s">
+      <c r="Z544" s="9" t="s">
         <v>4398</v>
       </c>
     </row>
@@ -46874,10 +46875,10 @@
       <c r="W545">
         <v>544</v>
       </c>
-      <c r="X545" s="9" t="s">
+      <c r="X545" s="8" t="s">
         <v>3809</v>
       </c>
-      <c r="Z545" t="s">
+      <c r="Z545" s="9" t="s">
         <v>4399</v>
       </c>
     </row>
@@ -46933,10 +46934,10 @@
       <c r="W546">
         <v>545</v>
       </c>
-      <c r="X546" s="9" t="s">
+      <c r="X546" s="8" t="s">
         <v>3810</v>
       </c>
-      <c r="Z546" t="s">
+      <c r="Z546" s="9" t="s">
         <v>4400</v>
       </c>
     </row>
@@ -46992,10 +46993,10 @@
       <c r="W547">
         <v>546</v>
       </c>
-      <c r="X547" s="9" t="s">
+      <c r="X547" s="8" t="s">
         <v>3811</v>
       </c>
-      <c r="Z547" t="s">
+      <c r="Z547" s="9" t="s">
         <v>4401</v>
       </c>
     </row>
@@ -47051,10 +47052,10 @@
       <c r="W548">
         <v>547</v>
       </c>
-      <c r="X548" s="9" t="s">
+      <c r="X548" s="8" t="s">
         <v>3812</v>
       </c>
-      <c r="Z548" t="s">
+      <c r="Z548" s="9" t="s">
         <v>4402</v>
       </c>
     </row>
@@ -47110,10 +47111,10 @@
       <c r="W549">
         <v>548</v>
       </c>
-      <c r="X549" s="9" t="s">
+      <c r="X549" s="8" t="s">
         <v>3813</v>
       </c>
-      <c r="Z549" t="s">
+      <c r="Z549" s="9" t="s">
         <v>4403</v>
       </c>
     </row>
@@ -47169,10 +47170,10 @@
       <c r="W550">
         <v>549</v>
       </c>
-      <c r="X550" s="9" t="s">
+      <c r="X550" s="8" t="s">
         <v>3814</v>
       </c>
-      <c r="Z550" t="s">
+      <c r="Z550" s="9" t="s">
         <v>4404</v>
       </c>
     </row>
@@ -47231,10 +47232,10 @@
       <c r="W551">
         <v>550</v>
       </c>
-      <c r="X551" s="9" t="s">
+      <c r="X551" s="8" t="s">
         <v>3815</v>
       </c>
-      <c r="Z551" t="s">
+      <c r="Z551" s="9" t="s">
         <v>4405</v>
       </c>
     </row>
@@ -47293,10 +47294,10 @@
       <c r="W552">
         <v>551</v>
       </c>
-      <c r="X552" s="9" t="s">
+      <c r="X552" s="8" t="s">
         <v>3816</v>
       </c>
-      <c r="Z552" t="s">
+      <c r="Z552" s="9" t="s">
         <v>4406</v>
       </c>
     </row>
@@ -47355,10 +47356,10 @@
       <c r="W553">
         <v>552</v>
       </c>
-      <c r="X553" s="9" t="s">
+      <c r="X553" s="8" t="s">
         <v>3817</v>
       </c>
-      <c r="Z553" t="s">
+      <c r="Z553" s="9" t="s">
         <v>4407</v>
       </c>
     </row>
@@ -47417,10 +47418,10 @@
       <c r="W554">
         <v>553</v>
       </c>
-      <c r="X554" s="9" t="s">
+      <c r="X554" s="8" t="s">
         <v>3818</v>
       </c>
-      <c r="Z554" t="s">
+      <c r="Z554" s="9" t="s">
         <v>4408</v>
       </c>
     </row>
@@ -47479,10 +47480,10 @@
       <c r="W555">
         <v>554</v>
       </c>
-      <c r="X555" s="9" t="s">
+      <c r="X555" s="8" t="s">
         <v>3819</v>
       </c>
-      <c r="Z555" t="s">
+      <c r="Z555" s="9" t="s">
         <v>4409</v>
       </c>
     </row>
@@ -47541,10 +47542,10 @@
       <c r="W556">
         <v>555</v>
       </c>
-      <c r="X556" s="9" t="s">
+      <c r="X556" s="8" t="s">
         <v>3820</v>
       </c>
-      <c r="Z556" t="s">
+      <c r="Z556" s="9" t="s">
         <v>4410</v>
       </c>
     </row>
@@ -47603,10 +47604,10 @@
       <c r="W557">
         <v>556</v>
       </c>
-      <c r="X557" s="9" t="s">
+      <c r="X557" s="8" t="s">
         <v>3821</v>
       </c>
-      <c r="Z557" t="s">
+      <c r="Z557" s="9" t="s">
         <v>4411</v>
       </c>
     </row>
@@ -47665,10 +47666,10 @@
       <c r="W558">
         <v>557</v>
       </c>
-      <c r="X558" s="9" t="s">
+      <c r="X558" s="8" t="s">
         <v>3822</v>
       </c>
-      <c r="Z558" t="s">
+      <c r="Z558" s="9" t="s">
         <v>4412</v>
       </c>
     </row>
@@ -47730,10 +47731,10 @@
       <c r="W559">
         <v>558</v>
       </c>
-      <c r="X559" s="9" t="s">
+      <c r="X559" s="8" t="s">
         <v>3823</v>
       </c>
-      <c r="Z559" t="s">
+      <c r="Z559" s="9" t="s">
         <v>4413</v>
       </c>
     </row>
@@ -47789,10 +47790,10 @@
       <c r="W560">
         <v>559</v>
       </c>
-      <c r="X560" s="9" t="s">
+      <c r="X560" s="8" t="s">
         <v>3824</v>
       </c>
-      <c r="Z560" t="s">
+      <c r="Z560" s="9" t="s">
         <v>4414</v>
       </c>
     </row>
@@ -47848,10 +47849,10 @@
       <c r="W561">
         <v>560</v>
       </c>
-      <c r="X561" s="9" t="s">
+      <c r="X561" s="8" t="s">
         <v>3825</v>
       </c>
-      <c r="Z561" t="s">
+      <c r="Z561" s="9" t="s">
         <v>4415</v>
       </c>
     </row>
@@ -47910,10 +47911,10 @@
       <c r="W562">
         <v>561</v>
       </c>
-      <c r="X562" s="9" t="s">
+      <c r="X562" s="8" t="s">
         <v>3826</v>
       </c>
-      <c r="Z562" t="s">
+      <c r="Z562" s="9" t="s">
         <v>4416</v>
       </c>
     </row>
@@ -47972,10 +47973,10 @@
       <c r="W563">
         <v>562</v>
       </c>
-      <c r="X563" s="9" t="s">
+      <c r="X563" s="8" t="s">
         <v>3827</v>
       </c>
-      <c r="Z563" t="s">
+      <c r="Z563" s="9" t="s">
         <v>4417</v>
       </c>
     </row>
@@ -48028,10 +48029,10 @@
       <c r="W564">
         <v>563</v>
       </c>
-      <c r="X564" s="9" t="s">
+      <c r="X564" s="8" t="s">
         <v>3828</v>
       </c>
-      <c r="Z564" t="s">
+      <c r="Z564" s="9" t="s">
         <v>4418</v>
       </c>
     </row>
@@ -48087,10 +48088,10 @@
       <c r="W565">
         <v>564</v>
       </c>
-      <c r="X565" s="9" t="s">
+      <c r="X565" s="8" t="s">
         <v>3829</v>
       </c>
-      <c r="Z565" t="s">
+      <c r="Z565" s="9" t="s">
         <v>4419</v>
       </c>
     </row>
@@ -48149,10 +48150,10 @@
       <c r="W566">
         <v>565</v>
       </c>
-      <c r="X566" s="9" t="s">
+      <c r="X566" s="8" t="s">
         <v>3830</v>
       </c>
-      <c r="Z566" t="s">
+      <c r="Z566" s="9" t="s">
         <v>4420</v>
       </c>
     </row>
@@ -48211,10 +48212,10 @@
       <c r="W567">
         <v>566</v>
       </c>
-      <c r="X567" s="9" t="s">
+      <c r="X567" s="8" t="s">
         <v>3831</v>
       </c>
-      <c r="Z567" t="s">
+      <c r="Z567" s="9" t="s">
         <v>4421</v>
       </c>
     </row>
@@ -48267,10 +48268,10 @@
       <c r="W568">
         <v>567</v>
       </c>
-      <c r="X568" s="9" t="s">
+      <c r="X568" s="8" t="s">
         <v>3832</v>
       </c>
-      <c r="Z568" t="s">
+      <c r="Z568" s="9" t="s">
         <v>4422</v>
       </c>
     </row>
@@ -48323,10 +48324,10 @@
       <c r="W569">
         <v>568</v>
       </c>
-      <c r="X569" s="9" t="s">
+      <c r="X569" s="8" t="s">
         <v>3833</v>
       </c>
-      <c r="Z569" t="s">
+      <c r="Z569" s="9" t="s">
         <v>4423</v>
       </c>
     </row>
@@ -48379,10 +48380,10 @@
       <c r="W570">
         <v>569</v>
       </c>
-      <c r="X570" s="9" t="s">
+      <c r="X570" s="8" t="s">
         <v>3834</v>
       </c>
-      <c r="Z570" t="s">
+      <c r="Z570" s="9" t="s">
         <v>4424</v>
       </c>
     </row>
@@ -48435,10 +48436,10 @@
       <c r="W571">
         <v>570</v>
       </c>
-      <c r="X571" s="9" t="s">
+      <c r="X571" s="8" t="s">
         <v>3835</v>
       </c>
-      <c r="Z571" t="s">
+      <c r="Z571" s="9" t="s">
         <v>4425</v>
       </c>
     </row>
@@ -48491,10 +48492,10 @@
       <c r="W572">
         <v>571</v>
       </c>
-      <c r="X572" s="9" t="s">
+      <c r="X572" s="8" t="s">
         <v>3836</v>
       </c>
-      <c r="Z572" t="s">
+      <c r="Z572" s="9" t="s">
         <v>4426</v>
       </c>
     </row>
@@ -48550,10 +48551,10 @@
       <c r="W573">
         <v>572</v>
       </c>
-      <c r="X573" s="9" t="s">
+      <c r="X573" s="8" t="s">
         <v>3837</v>
       </c>
-      <c r="Z573" t="s">
+      <c r="Z573" s="9" t="s">
         <v>4427</v>
       </c>
     </row>
@@ -48609,10 +48610,10 @@
       <c r="W574">
         <v>573</v>
       </c>
-      <c r="X574" s="9" t="s">
+      <c r="X574" s="8" t="s">
         <v>3838</v>
       </c>
-      <c r="Z574" t="s">
+      <c r="Z574" s="9" t="s">
         <v>4428</v>
       </c>
     </row>
@@ -48668,10 +48669,10 @@
       <c r="W575">
         <v>574</v>
       </c>
-      <c r="X575" s="9" t="s">
+      <c r="X575" s="8" t="s">
         <v>3839</v>
       </c>
-      <c r="Z575" t="s">
+      <c r="Z575" s="9" t="s">
         <v>4429</v>
       </c>
     </row>
@@ -48727,10 +48728,10 @@
       <c r="W576">
         <v>575</v>
       </c>
-      <c r="X576" s="9" t="s">
+      <c r="X576" s="8" t="s">
         <v>3840</v>
       </c>
-      <c r="Z576" t="s">
+      <c r="Z576" s="9" t="s">
         <v>4430</v>
       </c>
     </row>
@@ -48783,10 +48784,10 @@
       <c r="W577">
         <v>576</v>
       </c>
-      <c r="X577" s="9" t="s">
+      <c r="X577" s="8" t="s">
         <v>3841</v>
       </c>
-      <c r="Z577" t="s">
+      <c r="Z577" s="9" t="s">
         <v>4431</v>
       </c>
     </row>
@@ -48842,10 +48843,10 @@
       <c r="W578">
         <v>577</v>
       </c>
-      <c r="X578" s="9" t="s">
+      <c r="X578" s="8" t="s">
         <v>3842</v>
       </c>
-      <c r="Z578" t="s">
+      <c r="Z578" s="9" t="s">
         <v>4432</v>
       </c>
     </row>
@@ -48901,10 +48902,10 @@
       <c r="W579">
         <v>578</v>
       </c>
-      <c r="X579" s="9" t="s">
+      <c r="X579" s="8" t="s">
         <v>3843</v>
       </c>
-      <c r="Z579" t="s">
+      <c r="Z579" s="9" t="s">
         <v>4433</v>
       </c>
     </row>
@@ -48957,10 +48958,10 @@
       <c r="W580">
         <v>579</v>
       </c>
-      <c r="X580" s="9" t="s">
+      <c r="X580" s="8" t="s">
         <v>3844</v>
       </c>
-      <c r="Z580" t="s">
+      <c r="Z580" s="9" t="s">
         <v>4434</v>
       </c>
     </row>
@@ -49016,10 +49017,10 @@
       <c r="W581">
         <v>580</v>
       </c>
-      <c r="X581" s="9" t="s">
+      <c r="X581" s="8" t="s">
         <v>3845</v>
       </c>
-      <c r="Z581" t="s">
+      <c r="Z581" s="9" t="s">
         <v>4435</v>
       </c>
     </row>
@@ -49075,10 +49076,10 @@
       <c r="W582">
         <v>581</v>
       </c>
-      <c r="X582" s="9" t="s">
+      <c r="X582" s="8" t="s">
         <v>3846</v>
       </c>
-      <c r="Z582" t="s">
+      <c r="Z582" s="9" t="s">
         <v>4436</v>
       </c>
     </row>
@@ -49137,10 +49138,10 @@
       <c r="W583">
         <v>582</v>
       </c>
-      <c r="X583" s="9" t="s">
+      <c r="X583" s="8" t="s">
         <v>3847</v>
       </c>
-      <c r="Z583" t="s">
+      <c r="Z583" s="9" t="s">
         <v>4437</v>
       </c>
     </row>
@@ -49199,10 +49200,10 @@
       <c r="W584">
         <v>583</v>
       </c>
-      <c r="X584" s="9" t="s">
+      <c r="X584" s="8" t="s">
         <v>3848</v>
       </c>
-      <c r="Z584" t="s">
+      <c r="Z584" s="9" t="s">
         <v>4438</v>
       </c>
     </row>
@@ -49261,10 +49262,10 @@
       <c r="W585">
         <v>584</v>
       </c>
-      <c r="X585" s="9" t="s">
+      <c r="X585" s="8" t="s">
         <v>3849</v>
       </c>
-      <c r="Z585" t="s">
+      <c r="Z585" s="9" t="s">
         <v>4439</v>
       </c>
     </row>
@@ -49317,10 +49318,10 @@
       <c r="W586">
         <v>585</v>
       </c>
-      <c r="X586" s="9" t="s">
+      <c r="X586" s="8" t="s">
         <v>3850</v>
       </c>
-      <c r="Z586" t="s">
+      <c r="Z586" s="9" t="s">
         <v>4440</v>
       </c>
     </row>
@@ -49376,10 +49377,10 @@
       <c r="W587">
         <v>586</v>
       </c>
-      <c r="X587" s="9" t="s">
+      <c r="X587" s="8" t="s">
         <v>3851</v>
       </c>
-      <c r="Z587" t="s">
+      <c r="Z587" s="9" t="s">
         <v>4441</v>
       </c>
     </row>
@@ -49435,10 +49436,10 @@
       <c r="W588">
         <v>587</v>
       </c>
-      <c r="X588" s="9" t="s">
+      <c r="X588" s="8" t="s">
         <v>3852</v>
       </c>
-      <c r="Z588" t="s">
+      <c r="Z588" s="9" t="s">
         <v>4442</v>
       </c>
     </row>
@@ -49491,10 +49492,10 @@
       <c r="W589">
         <v>588</v>
       </c>
-      <c r="X589" s="9" t="s">
+      <c r="X589" s="8" t="s">
         <v>3853</v>
       </c>
-      <c r="Z589" t="s">
+      <c r="Z589" s="9" t="s">
         <v>4443</v>
       </c>
     </row>
@@ -49556,10 +49557,10 @@
       <c r="W590">
         <v>589</v>
       </c>
-      <c r="X590" s="9" t="s">
+      <c r="X590" s="8" t="s">
         <v>3854</v>
       </c>
-      <c r="Z590" t="s">
+      <c r="Z590" s="9" t="s">
         <v>4444</v>
       </c>
     </row>
@@ -49612,10 +49613,10 @@
       <c r="W591">
         <v>590</v>
       </c>
-      <c r="X591" s="9" t="s">
+      <c r="X591" s="8" t="s">
         <v>3855</v>
       </c>
-      <c r="Z591" t="s">
+      <c r="Z591" s="9" t="s">
         <v>4445</v>
       </c>
     </row>
